--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\ПОКОМ КИ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8A45E-B380-406E-B6DB-B0B38BDA5506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D327F28A-A480-47C8-8FDE-9345C54EF545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$856</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4738,7 +4738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C0B3D-B32F-4118-BDF9-F38EC26D2552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87888C0C-42A5-4CE3-964D-F2E5F00F031A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1225</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4983" uniqueCount="1874">
   <si>
     <t>SU002447</t>
   </si>
@@ -5648,6 +5648,18 @@
   </si>
   <si>
     <t>441 Колбаса Стародворье Докторская стародворская Бордо вар п/а вес  Поком</t>
+  </si>
+  <si>
+    <t>Колбаса Салями Филейбургская зернистая, ВЕС, ТМ Баварушка  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Любительская ГОСТ» Весовой п/а ТМ «Вязанка»</t>
+  </si>
+  <si>
+    <t>SU003111</t>
+  </si>
+  <si>
+    <t>P003694</t>
   </si>
 </sst>
 </file>
@@ -13366,11 +13378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1225"/>
+  <dimension ref="A1:H1226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A1219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1227" sqref="H1227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32153,7 +32165,7 @@
     </row>
     <row r="752" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A752" s="11" t="s">
-        <v>1705</v>
+        <v>1870</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>457</v>
@@ -32178,7 +32190,7 @@
     </row>
     <row r="753" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A753" s="11" t="s">
-        <v>799</v>
+        <v>1705</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>457</v>
@@ -32203,22 +32215,22 @@
     </row>
     <row r="754" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A754" s="11" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D754" s="4">
-        <v>4301031174</v>
+        <v>4301031177</v>
       </c>
       <c r="E754" s="3">
-        <v>4607091389760</v>
+        <v>4607091389753</v>
       </c>
       <c r="F754" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G754" s="1"/>
       <c r="H754" s="1">
@@ -32228,7 +32240,7 @@
     </row>
     <row r="755" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A755" s="11" t="s">
-        <v>663</v>
+        <v>786</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>459</v>
@@ -32253,7 +32265,7 @@
     </row>
     <row r="756" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A756" s="11" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>459</v>
@@ -32278,7 +32290,7 @@
     </row>
     <row r="757" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A757" s="11" t="s">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>459</v>
@@ -32303,7 +32315,7 @@
     </row>
     <row r="758" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A758" s="11" t="s">
-        <v>972</v>
+        <v>815</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>459</v>
@@ -32328,7 +32340,7 @@
     </row>
     <row r="759" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A759" s="11" t="s">
-        <v>1448</v>
+        <v>972</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>459</v>
@@ -32353,7 +32365,7 @@
     </row>
     <row r="760" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A760" s="11" t="s">
-        <v>1373</v>
+        <v>1448</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>459</v>
@@ -32378,7 +32390,7 @@
     </row>
     <row r="761" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A761" s="11" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>459</v>
@@ -32403,7 +32415,7 @@
     </row>
     <row r="762" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A762" s="11" t="s">
-        <v>1496</v>
+        <v>1348</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>459</v>
@@ -32428,7 +32440,7 @@
     </row>
     <row r="763" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
-        <v>472</v>
+        <v>1496</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>459</v>
@@ -32453,7 +32465,7 @@
     </row>
     <row r="764" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A764" s="11" t="s">
-        <v>654</v>
+        <v>472</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>459</v>
@@ -32477,56 +32489,56 @@
       </c>
     </row>
     <row r="765" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A765" s="11"/>
+      <c r="A765" s="11" t="s">
+        <v>654</v>
+      </c>
       <c r="B765" s="3" t="s">
-        <v>199</v>
+        <v>459</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="D765" s="4">
-        <v>4301011353</v>
+        <v>4301031174</v>
       </c>
       <c r="E765" s="3">
-        <v>4607091389807</v>
+        <v>4607091389760</v>
       </c>
       <c r="F765" s="5" t="s">
-        <v>212</v>
+        <v>472</v>
       </c>
       <c r="G765" s="1"/>
       <c r="H765" s="1">
         <f>VLOOKUP(E765,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="766" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A766" s="11" t="s">
-        <v>760</v>
-      </c>
+      <c r="A766" s="11"/>
       <c r="B766" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D766" s="4">
-        <v>4301031151</v>
+        <v>4301011353</v>
       </c>
       <c r="E766" s="3">
-        <v>4607091389845</v>
+        <v>4607091389807</v>
       </c>
       <c r="F766" s="5" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G766" s="1"/>
       <c r="H766" s="1">
         <f>VLOOKUP(E766,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="767" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A767" s="11" t="s">
-        <v>874</v>
+        <v>760</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>238</v>
@@ -32551,7 +32563,7 @@
     </row>
     <row r="768" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A768" s="11" t="s">
-        <v>255</v>
+        <v>874</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>238</v>
@@ -32576,7 +32588,7 @@
     </row>
     <row r="769" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A769" s="11" t="s">
-        <v>1706</v>
+        <v>255</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>238</v>
@@ -32601,32 +32613,32 @@
     </row>
     <row r="770" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A770" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="B770" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C770" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D770" s="14">
-        <v>4301180001</v>
-      </c>
-      <c r="E770" s="15">
-        <v>4680115880016</v>
-      </c>
-      <c r="F770" s="16" t="s">
-        <v>356</v>
+        <v>1706</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D770" s="4">
+        <v>4301031151</v>
+      </c>
+      <c r="E770" s="3">
+        <v>4607091389845</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="G770" s="1"/>
       <c r="H770" s="1">
         <f>VLOOKUP(E770,[1]Лист1!$D:$M,10,0)</f>
-        <v>730</v>
+        <v>40</v>
       </c>
     </row>
     <row r="771" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
-        <v>356</v>
+        <v>921</v>
       </c>
       <c r="B771" s="13" t="s">
         <v>351</v>
@@ -32651,7 +32663,7 @@
     </row>
     <row r="772" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A772" s="11" t="s">
-        <v>1087</v>
+        <v>356</v>
       </c>
       <c r="B772" s="13" t="s">
         <v>351</v>
@@ -32676,7 +32688,7 @@
     </row>
     <row r="773" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A773" s="11" t="s">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="B773" s="13" t="s">
         <v>351</v>
@@ -32701,7 +32713,7 @@
     </row>
     <row r="774" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A774" s="11" t="s">
-        <v>841</v>
+        <v>1068</v>
       </c>
       <c r="B774" s="13" t="s">
         <v>351</v>
@@ -32726,32 +32738,32 @@
     </row>
     <row r="775" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A775" s="11" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B775" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C775" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D775" s="4">
-        <v>4301051468</v>
-      </c>
-      <c r="E775" s="3">
-        <v>4680115880092</v>
-      </c>
-      <c r="F775" s="5" t="s">
-        <v>314</v>
+        <v>841</v>
+      </c>
+      <c r="B775" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C775" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D775" s="14">
+        <v>4301180001</v>
+      </c>
+      <c r="E775" s="15">
+        <v>4680115880016</v>
+      </c>
+      <c r="F775" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="G775" s="1"/>
       <c r="H775" s="1">
         <f>VLOOKUP(E775,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>730</v>
       </c>
     </row>
     <row r="776" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A776" s="11" t="s">
-        <v>740</v>
+        <v>1233</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>291</v>
@@ -32768,7 +32780,7 @@
       <c r="F776" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G776" s="6"/>
+      <c r="G776" s="1"/>
       <c r="H776" s="1">
         <f>VLOOKUP(E776,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
@@ -32776,7 +32788,7 @@
     </row>
     <row r="777" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A777" s="11" t="s">
-        <v>314</v>
+        <v>740</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>291</v>
@@ -32801,7 +32813,7 @@
     </row>
     <row r="778" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A778" s="11" t="s">
-        <v>806</v>
+        <v>314</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>291</v>
@@ -32826,7 +32838,7 @@
     </row>
     <row r="779" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A779" s="11" t="s">
-        <v>902</v>
+        <v>806</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>291</v>
@@ -32851,7 +32863,7 @@
     </row>
     <row r="780" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A780" s="11" t="s">
-        <v>1832</v>
+        <v>902</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>291</v>
@@ -32876,7 +32888,7 @@
     </row>
     <row r="781" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A781" s="11" t="s">
-        <v>1592</v>
+        <v>1832</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>291</v>
@@ -32893,9 +32905,7 @@
       <c r="F781" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G781" s="6" t="s">
-        <v>1593</v>
-      </c>
+      <c r="G781" s="6"/>
       <c r="H781" s="1">
         <f>VLOOKUP(E781,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
@@ -32903,7 +32913,7 @@
     </row>
     <row r="782" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A782" s="11" t="s">
-        <v>1029</v>
+        <v>1592</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>291</v>
@@ -32920,7 +32930,9 @@
       <c r="F782" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G782" s="6"/>
+      <c r="G782" s="6" t="s">
+        <v>1593</v>
+      </c>
       <c r="H782" s="1">
         <f>VLOOKUP(E782,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
@@ -32928,7 +32940,7 @@
     </row>
     <row r="783" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A783" s="11" t="s">
-        <v>1445</v>
+        <v>1029</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>291</v>
@@ -32953,7 +32965,7 @@
     </row>
     <row r="784" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A784" s="11" t="s">
-        <v>1127</v>
+        <v>1445</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>291</v>
@@ -32978,7 +32990,7 @@
     </row>
     <row r="785" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A785" s="11" t="s">
-        <v>1223</v>
+        <v>1127</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>291</v>
@@ -33003,7 +33015,7 @@
     </row>
     <row r="786" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A786" s="11" t="s">
-        <v>315</v>
+        <v>1223</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>291</v>
@@ -33026,34 +33038,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A787" s="11" t="s">
-        <v>1086</v>
+        <v>315</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="D787" s="4">
-        <v>4301180002</v>
+        <v>4301051468</v>
       </c>
       <c r="E787" s="3">
-        <v>4680115880122</v>
+        <v>4680115880092</v>
       </c>
       <c r="F787" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G787" s="1"/>
-      <c r="H787" s="1" t="e">
+        <v>314</v>
+      </c>
+      <c r="G787" s="6"/>
+      <c r="H787" s="1">
         <f>VLOOKUP(E787,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="11" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>345</v>
@@ -33078,7 +33090,7 @@
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="11" t="s">
-        <v>920</v>
+        <v>1067</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>345</v>
@@ -33101,24 +33113,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="11" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="D790" s="4">
-        <v>4301032036</v>
+        <v>4301180002</v>
       </c>
       <c r="E790" s="3">
-        <v>4680115880139</v>
+        <v>4680115880122</v>
       </c>
       <c r="F790" s="5" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="G790" s="1"/>
       <c r="H790" s="1" t="e">
@@ -33126,47 +33138,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A791" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D791" s="4">
+        <v>4301032036</v>
+      </c>
+      <c r="E791" s="3">
+        <v>4680115880139</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G791" s="1"/>
+      <c r="H791" s="1" t="e">
+        <f>VLOOKUP(E791,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A792" s="11" t="s">
         <v>1464</v>
       </c>
-      <c r="B791" s="3" t="s">
+      <c r="B792" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C791" s="3" t="s">
+      <c r="C792" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D791" s="4">
+      <c r="D792" s="4">
         <v>4301031158</v>
       </c>
-      <c r="E791" s="3">
+      <c r="E792" s="3">
         <v>4680115880191</v>
       </c>
-      <c r="F791" s="5" t="s">
+      <c r="F792" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="G791" s="1"/>
-      <c r="H791" s="1">
-        <f>VLOOKUP(E791,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="792" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A792" s="11"/>
-      <c r="B792" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C792" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D792" s="4">
-        <v>4301031190</v>
-      </c>
-      <c r="E792" s="3">
-        <v>4680115880207</v>
-      </c>
-      <c r="F792" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="G792" s="1"/>
       <c r="H792" s="1">
@@ -33175,33 +33189,31 @@
       </c>
     </row>
     <row r="793" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A793" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="A793" s="11"/>
       <c r="B793" s="3" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="D793" s="4">
-        <v>4301051439</v>
+        <v>4301031190</v>
       </c>
       <c r="E793" s="3">
-        <v>4680115880214</v>
+        <v>4680115880207</v>
       </c>
       <c r="F793" s="5" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="G793" s="1"/>
       <c r="H793" s="1">
         <f>VLOOKUP(E793,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="794" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A794" s="11" t="s">
-        <v>928</v>
+        <v>147</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>138</v>
@@ -33226,7 +33238,7 @@
     </row>
     <row r="795" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A795" s="11" t="s">
-        <v>1091</v>
+        <v>928</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>138</v>
@@ -33251,7 +33263,7 @@
     </row>
     <row r="796" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A796" s="11" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>138</v>
@@ -33276,7 +33288,7 @@
     </row>
     <row r="797" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A797" s="11" t="s">
-        <v>670</v>
+        <v>1075</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>138</v>
@@ -33299,34 +33311,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A798" s="11" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="D798" s="4">
-        <v>4301051469</v>
+        <v>4301051439</v>
       </c>
       <c r="E798" s="3">
-        <v>4680115880221</v>
+        <v>4680115880214</v>
       </c>
       <c r="F798" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G798" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="G798" s="1"/>
       <c r="H798" s="1">
         <f>VLOOKUP(E798,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="11" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>293</v>
@@ -33351,7 +33363,7 @@
     </row>
     <row r="800" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A800" s="11" t="s">
-        <v>887</v>
+        <v>807</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>293</v>
@@ -33376,7 +33388,7 @@
     </row>
     <row r="801" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A801" s="11" t="s">
-        <v>1446</v>
+        <v>887</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>293</v>
@@ -33401,7 +33413,7 @@
     </row>
     <row r="802" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A802" s="11" t="s">
-        <v>1713</v>
+        <v>1446</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>293</v>
@@ -33426,7 +33438,7 @@
     </row>
     <row r="803" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A803" s="11" t="s">
-        <v>1126</v>
+        <v>1713</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>293</v>
@@ -33451,7 +33463,7 @@
     </row>
     <row r="804" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A804" s="11" t="s">
-        <v>1237</v>
+        <v>1126</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>293</v>
@@ -33476,7 +33488,7 @@
     </row>
     <row r="805" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A805" s="11" t="s">
-        <v>1316</v>
+        <v>1237</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>293</v>
@@ -33501,7 +33513,7 @@
     </row>
     <row r="806" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A806" s="11" t="s">
-        <v>633</v>
+        <v>1316</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>293</v>
@@ -33526,7 +33538,7 @@
     </row>
     <row r="807" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A807" s="11" t="s">
-        <v>1180</v>
+        <v>633</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>293</v>
@@ -33551,7 +33563,7 @@
     </row>
     <row r="808" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A808" s="11" t="s">
-        <v>1227</v>
+        <v>1180</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>293</v>
@@ -33576,7 +33588,7 @@
     </row>
     <row r="809" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A809" s="11" t="s">
-        <v>316</v>
+        <v>1227</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>293</v>
@@ -33601,57 +33613,57 @@
     </row>
     <row r="810" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A810" s="11" t="s">
-        <v>1655</v>
+        <v>316</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="D810" s="4">
-        <v>4301060309</v>
+        <v>4301051469</v>
       </c>
       <c r="E810" s="3">
-        <v>4680115880238</v>
+        <v>4680115880221</v>
       </c>
       <c r="F810" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G810" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="G810" s="6"/>
       <c r="H810" s="1">
         <f>VLOOKUP(E810,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="811" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A811" s="11" t="s">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D811" s="4">
-        <v>4301011417</v>
+        <v>4301060309</v>
       </c>
       <c r="E811" s="3">
-        <v>4680115880269</v>
+        <v>4680115880238</v>
       </c>
       <c r="F811" s="5" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="G811" s="1"/>
       <c r="H811" s="1">
         <f>VLOOKUP(E811,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="812" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A812" s="11" t="s">
-        <v>1637</v>
+        <v>1335</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>68</v>
@@ -33676,7 +33688,7 @@
     </row>
     <row r="813" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A813" s="11" t="s">
-        <v>1725</v>
+        <v>1637</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>68</v>
@@ -33701,7 +33713,7 @@
     </row>
     <row r="814" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A814" s="11" t="s">
-        <v>87</v>
+        <v>1725</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>68</v>
@@ -33726,32 +33738,32 @@
     </row>
     <row r="815" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A815" s="11" t="s">
-        <v>1747</v>
+        <v>87</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D815" s="4">
-        <v>4301011386</v>
+        <v>4301011417</v>
       </c>
       <c r="E815" s="3">
-        <v>4680115880283</v>
+        <v>4680115880269</v>
       </c>
       <c r="F815" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G815" s="1"/>
       <c r="H815" s="1">
         <f>VLOOKUP(E815,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="816" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A816" s="11" t="s">
-        <v>1544</v>
+        <v>1747</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>58</v>
@@ -33774,57 +33786,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A817" s="11"/>
+    <row r="817" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A817" s="11" t="s">
+        <v>1544</v>
+      </c>
       <c r="B817" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D817" s="4">
+        <v>4301011386</v>
+      </c>
+      <c r="E817" s="3">
+        <v>4680115880283</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G817" s="1"/>
+      <c r="H817" s="1">
+        <f>VLOOKUP(E817,[1]Лист1!$D:$M,10,0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A818" s="11"/>
+      <c r="B818" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C817" s="3" t="s">
+      <c r="C818" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D817" s="4">
+      <c r="D818" s="4">
         <v>4301060337</v>
       </c>
-      <c r="E817" s="3">
+      <c r="E818" s="3">
         <v>4680115880368</v>
       </c>
-      <c r="F817" s="5" t="s">
+      <c r="F818" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G817" s="1"/>
-      <c r="H817" s="1" t="e">
-        <f>VLOOKUP(E817,[1]Лист1!$D:$M,10,0)</f>
+      <c r="G818" s="1"/>
+      <c r="H818" s="1" t="e">
+        <f>VLOOKUP(E818,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
-      </c>
-    </row>
-    <row r="818" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A818" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B818" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C818" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D818" s="4">
-        <v>4301011415</v>
-      </c>
-      <c r="E818" s="3">
-        <v>4680115880429</v>
-      </c>
-      <c r="F818" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G818" s="1"/>
-      <c r="H818" s="1">
-        <f>VLOOKUP(E818,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
       </c>
     </row>
     <row r="819" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A819" s="11" t="s">
-        <v>1585</v>
+        <v>875</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>70</v>
@@ -33849,7 +33861,7 @@
     </row>
     <row r="820" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A820" s="11" t="s">
-        <v>1698</v>
+        <v>1585</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>70</v>
@@ -33872,34 +33884,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A821" s="11" t="s">
-        <v>888</v>
+        <v>1698</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="D821" s="4">
-        <v>4301051326</v>
+        <v>4301011415</v>
       </c>
       <c r="E821" s="3">
-        <v>4680115880504</v>
+        <v>4680115880429</v>
       </c>
       <c r="F821" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G821" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="G821" s="1"/>
       <c r="H821" s="1">
         <f>VLOOKUP(E821,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="11" t="s">
-        <v>317</v>
+        <v>888</v>
       </c>
       <c r="B822" s="3" t="s">
         <v>295</v>
@@ -33924,7 +33936,7 @@
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="11" t="s">
-        <v>1226</v>
+        <v>317</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>295</v>
@@ -33949,7 +33961,7 @@
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="11" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>295</v>
@@ -33974,7 +33986,7 @@
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="11" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>295</v>
@@ -33999,7 +34011,7 @@
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="11" t="s">
-        <v>1485</v>
+        <v>1235</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>295</v>
@@ -34024,7 +34036,7 @@
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="11" t="s">
-        <v>1701</v>
+        <v>1485</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>295</v>
@@ -34049,34 +34061,32 @@
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="11" t="s">
-        <v>741</v>
+        <v>1701</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>1296</v>
+        <v>296</v>
       </c>
       <c r="D828" s="4">
-        <v>4301051538</v>
+        <v>4301051326</v>
       </c>
       <c r="E828" s="3">
-        <v>4680115880573</v>
+        <v>4680115880504</v>
       </c>
       <c r="F828" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G828" s="6" t="s">
-        <v>318</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="G828" s="6"/>
       <c r="H828" s="1">
         <f>VLOOKUP(E828,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="11" t="s">
-        <v>305</v>
+        <v>741</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>274</v>
@@ -34093,7 +34103,9 @@
       <c r="F829" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="G829" s="6"/>
+      <c r="G829" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="H829" s="1">
         <f>VLOOKUP(E829,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
@@ -34101,7 +34113,7 @@
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="11" t="s">
-        <v>1297</v>
+        <v>305</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>274</v>
@@ -34126,7 +34138,7 @@
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="11" t="s">
-        <v>1836</v>
+        <v>1297</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>274</v>
@@ -34151,7 +34163,7 @@
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="11" t="s">
-        <v>1600</v>
+        <v>1836</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>274</v>
@@ -34176,7 +34188,7 @@
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="11" t="s">
-        <v>1142</v>
+        <v>1600</v>
       </c>
       <c r="B833" s="3" t="s">
         <v>274</v>
@@ -34201,7 +34213,7 @@
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="11" t="s">
-        <v>889</v>
+        <v>1142</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>274</v>
@@ -34224,36 +34236,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="11" t="s">
-        <v>1202</v>
+        <v>889</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>97</v>
+        <v>1296</v>
       </c>
       <c r="D835" s="4">
-        <v>4301020217</v>
+        <v>4301051538</v>
       </c>
       <c r="E835" s="3">
-        <v>4680115880658</v>
+        <v>4680115880573</v>
       </c>
       <c r="F835" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G835" s="6" t="s">
-        <v>1203</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="G835" s="6"/>
       <c r="H835" s="1">
         <f>VLOOKUP(E835,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="836" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A836" s="11" t="s">
-        <v>1576</v>
+        <v>1202</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>96</v>
@@ -34270,7 +34280,9 @@
       <c r="F836" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G836" s="6"/>
+      <c r="G836" s="6" t="s">
+        <v>1203</v>
+      </c>
       <c r="H836" s="1">
         <f>VLOOKUP(E836,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -34278,7 +34290,7 @@
     </row>
     <row r="837" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A837" s="11" t="s">
-        <v>1623</v>
+        <v>1576</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>96</v>
@@ -34303,7 +34315,7 @@
     </row>
     <row r="838" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A838" s="11" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>96</v>
@@ -34328,7 +34340,7 @@
     </row>
     <row r="839" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A839" s="11" t="s">
-        <v>1814</v>
+        <v>1636</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>96</v>
@@ -34353,7 +34365,7 @@
     </row>
     <row r="840" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A840" s="11" t="s">
-        <v>894</v>
+        <v>1814</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>96</v>
@@ -34370,7 +34382,7 @@
       <c r="F840" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G840" s="1"/>
+      <c r="G840" s="6"/>
       <c r="H840" s="1">
         <f>VLOOKUP(E840,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -34378,22 +34390,22 @@
     </row>
     <row r="841" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A841" s="11" t="s">
-        <v>1624</v>
+        <v>894</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D841" s="4">
-        <v>4301020220</v>
+        <v>4301020217</v>
       </c>
       <c r="E841" s="3">
-        <v>4680115880764</v>
+        <v>4680115880658</v>
       </c>
       <c r="F841" s="5" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="G841" s="1"/>
       <c r="H841" s="1">
@@ -34403,7 +34415,7 @@
     </row>
     <row r="842" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A842" s="11" t="s">
-        <v>897</v>
+        <v>1624</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>213</v>
@@ -34428,57 +34440,57 @@
     </row>
     <row r="843" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A843" s="11" t="s">
-        <v>1465</v>
+        <v>897</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>501</v>
+        <v>214</v>
       </c>
       <c r="D843" s="4">
-        <v>4301031167</v>
+        <v>4301020220</v>
       </c>
       <c r="E843" s="3">
-        <v>4680115880771</v>
+        <v>4680115880764</v>
       </c>
       <c r="F843" s="5" t="s">
-        <v>508</v>
+        <v>215</v>
       </c>
       <c r="G843" s="1"/>
       <c r="H843" s="1">
         <f>VLOOKUP(E843,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="844" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A844" s="11" t="s">
-        <v>334</v>
+        <v>1465</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="D844" s="4">
-        <v>4301060338</v>
+        <v>4301031167</v>
       </c>
       <c r="E844" s="3">
-        <v>4680115880801</v>
+        <v>4680115880771</v>
       </c>
       <c r="F844" s="5" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="G844" s="1"/>
       <c r="H844" s="1">
         <f>VLOOKUP(E844,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="845" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A845" s="11" t="s">
-        <v>1246</v>
+        <v>334</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>325</v>
@@ -34503,7 +34515,7 @@
     </row>
     <row r="846" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A846" s="11" t="s">
-        <v>1393</v>
+        <v>1246</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>325</v>
@@ -34528,7 +34540,7 @@
     </row>
     <row r="847" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A847" s="11" t="s">
-        <v>1555</v>
+        <v>1393</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>325</v>
@@ -34553,7 +34565,7 @@
     </row>
     <row r="848" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A848" s="11" t="s">
-        <v>903</v>
+        <v>1555</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>325</v>
@@ -34578,22 +34590,22 @@
     </row>
     <row r="849" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A849" s="11" t="s">
-        <v>946</v>
+        <v>903</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D849" s="4">
-        <v>4301060339</v>
+        <v>4301060338</v>
       </c>
       <c r="E849" s="3">
-        <v>4680115880818</v>
+        <v>4680115880801</v>
       </c>
       <c r="F849" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G849" s="1"/>
       <c r="H849" s="1">
@@ -34603,7 +34615,7 @@
     </row>
     <row r="850" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A850" s="11" t="s">
-        <v>1181</v>
+        <v>946</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>327</v>
@@ -34628,7 +34640,7 @@
     </row>
     <row r="851" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A851" s="11" t="s">
-        <v>1239</v>
+        <v>1181</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>327</v>
@@ -34653,7 +34665,7 @@
     </row>
     <row r="852" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A852" s="11" t="s">
-        <v>1311</v>
+        <v>1239</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>327</v>
@@ -34678,7 +34690,7 @@
     </row>
     <row r="853" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A853" s="11" t="s">
-        <v>1238</v>
+        <v>1311</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>327</v>
@@ -34703,7 +34715,7 @@
     </row>
     <row r="854" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A854" s="11" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>327</v>
@@ -34728,7 +34740,7 @@
     </row>
     <row r="855" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A855" s="11" t="s">
-        <v>335</v>
+        <v>1228</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>327</v>
@@ -34753,7 +34765,7 @@
     </row>
     <row r="856" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A856" s="11" t="s">
-        <v>879</v>
+        <v>335</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>327</v>
@@ -34778,32 +34790,32 @@
     </row>
     <row r="857" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A857" s="11" t="s">
-        <v>1304</v>
+        <v>879</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="D857" s="4">
-        <v>4301051438</v>
+        <v>4301060339</v>
       </c>
       <c r="E857" s="3">
-        <v>4680115880894</v>
+        <v>4680115880818</v>
       </c>
       <c r="F857" s="5" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="G857" s="1"/>
       <c r="H857" s="1">
         <f>VLOOKUP(E857,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="858" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A858" s="11" t="s">
-        <v>148</v>
+        <v>1304</v>
       </c>
       <c r="B858" s="3" t="s">
         <v>140</v>
@@ -34826,34 +34838,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A859" s="11" t="s">
-        <v>614</v>
+        <v>148</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="D859" s="4">
-        <v>4301051380</v>
+        <v>4301051438</v>
       </c>
       <c r="E859" s="3">
-        <v>4680115880962</v>
+        <v>4680115880894</v>
       </c>
       <c r="F859" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G859" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="G859" s="1"/>
       <c r="H859" s="1">
         <f>VLOOKUP(E859,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="11" t="s">
-        <v>1038</v>
+        <v>614</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>276</v>
@@ -34878,7 +34890,7 @@
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="11" t="s">
-        <v>306</v>
+        <v>1038</v>
       </c>
       <c r="B861" s="3" t="s">
         <v>276</v>
@@ -34903,7 +34915,7 @@
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="11" t="s">
-        <v>839</v>
+        <v>306</v>
       </c>
       <c r="B862" s="3" t="s">
         <v>276</v>
@@ -34926,26 +34938,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="11" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="D863" s="4">
-        <v>4301031199</v>
+        <v>4301051380</v>
       </c>
       <c r="E863" s="3">
-        <v>4680115880986</v>
+        <v>4680115880962</v>
       </c>
       <c r="F863" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G863" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="G863" s="6"/>
       <c r="H863" s="1">
         <f>VLOOKUP(E863,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -34953,7 +34965,7 @@
     </row>
     <row r="864" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A864" s="11" t="s">
-        <v>252</v>
+        <v>869</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>232</v>
@@ -34978,7 +34990,7 @@
     </row>
     <row r="865" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A865" s="11" t="s">
-        <v>1043</v>
+        <v>252</v>
       </c>
       <c r="B865" s="3" t="s">
         <v>232</v>
@@ -35003,7 +35015,7 @@
     </row>
     <row r="866" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A866" s="11" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B866" s="3" t="s">
         <v>232</v>
@@ -35028,7 +35040,7 @@
     </row>
     <row r="867" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A867" s="11" t="s">
-        <v>1138</v>
+        <v>1037</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>232</v>
@@ -35053,7 +35065,7 @@
     </row>
     <row r="868" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A868" s="11" t="s">
-        <v>1724</v>
+        <v>1138</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>232</v>
@@ -35078,7 +35090,7 @@
     </row>
     <row r="869" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A869" s="11" t="s">
-        <v>1267</v>
+        <v>1724</v>
       </c>
       <c r="B869" s="3" t="s">
         <v>232</v>
@@ -35103,7 +35115,7 @@
     </row>
     <row r="870" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A870" s="11" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="B870" s="3" t="s">
         <v>232</v>
@@ -35128,7 +35140,7 @@
     </row>
     <row r="871" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A871" s="11" t="s">
-        <v>1707</v>
+        <v>1275</v>
       </c>
       <c r="B871" s="3" t="s">
         <v>232</v>
@@ -35151,24 +35163,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A872" s="11" t="s">
-        <v>1328</v>
+        <v>1707</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C872" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D872" s="4">
-        <v>4301031191</v>
+        <v>4301031199</v>
       </c>
       <c r="E872" s="3">
-        <v>4680115880993</v>
+        <v>4680115880986</v>
       </c>
       <c r="F872" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G872" s="1"/>
       <c r="H872" s="1">
@@ -35178,7 +35190,7 @@
     </row>
     <row r="873" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A873" s="11" t="s">
-        <v>834</v>
+        <v>1328</v>
       </c>
       <c r="B873" s="3" t="s">
         <v>224</v>
@@ -35203,7 +35215,7 @@
     </row>
     <row r="874" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A874" s="11" t="s">
-        <v>1048</v>
+        <v>834</v>
       </c>
       <c r="B874" s="3" t="s">
         <v>224</v>
@@ -35228,7 +35240,7 @@
     </row>
     <row r="875" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A875" s="11" t="s">
-        <v>1577</v>
+        <v>1048</v>
       </c>
       <c r="B875" s="3" t="s">
         <v>224</v>
@@ -35253,7 +35265,7 @@
     </row>
     <row r="876" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A876" s="11" t="s">
-        <v>1409</v>
+        <v>1577</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>224</v>
@@ -35278,7 +35290,7 @@
     </row>
     <row r="877" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A877" s="11" t="s">
-        <v>1539</v>
+        <v>1409</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>224</v>
@@ -35303,7 +35315,7 @@
     </row>
     <row r="878" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A878" s="11" t="s">
-        <v>608</v>
+        <v>1539</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>224</v>
@@ -35327,90 +35339,92 @@
       </c>
     </row>
     <row r="879" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A879" s="11"/>
+      <c r="A879" s="11" t="s">
+        <v>608</v>
+      </c>
       <c r="B879" s="3" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="C879" s="3" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="D879" s="4">
-        <v>4301051378</v>
+        <v>4301031191</v>
       </c>
       <c r="E879" s="3">
-        <v>4680115881020</v>
+        <v>4680115880993</v>
       </c>
       <c r="F879" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G879" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="G879" s="1"/>
       <c r="H879" s="1">
         <f>VLOOKUP(E879,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="880" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A880" s="11"/>
       <c r="B880" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D880" s="4">
-        <v>4301051432</v>
+        <v>4301051378</v>
       </c>
       <c r="E880" s="3">
-        <v>4680115881037</v>
+        <v>4680115881020</v>
       </c>
       <c r="F880" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G880" s="6"/>
       <c r="H880" s="1">
         <f>VLOOKUP(E880,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A881" s="11"/>
       <c r="B881" s="3" t="s">
-        <v>555</v>
+        <v>279</v>
       </c>
       <c r="C881" s="3" t="s">
-        <v>556</v>
+        <v>280</v>
       </c>
       <c r="D881" s="4">
-        <v>4301051381</v>
+        <v>4301051432</v>
       </c>
       <c r="E881" s="3">
-        <v>4680115881068</v>
+        <v>4680115881037</v>
       </c>
       <c r="F881" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G881" s="1"/>
-      <c r="H881" s="1" t="e">
+        <v>308</v>
+      </c>
+      <c r="G881" s="6"/>
+      <c r="H881" s="1">
         <f>VLOOKUP(E881,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" s="11"/>
       <c r="B882" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C882" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D882" s="4">
-        <v>4301051382</v>
+        <v>4301051381</v>
       </c>
       <c r="E882" s="3">
-        <v>4680115881075</v>
+        <v>4680115881068</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G882" s="1"/>
       <c r="H882" s="1" t="e">
@@ -35418,22 +35432,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" s="11"/>
       <c r="B883" s="3" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C883" s="3" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D883" s="4">
-        <v>4301011434</v>
+        <v>4301051382</v>
       </c>
       <c r="E883" s="3">
-        <v>4680115881099</v>
+        <v>4680115881075</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="G883" s="1"/>
       <c r="H883" s="1" t="e">
@@ -35441,24 +35455,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A884" s="11" t="s">
-        <v>553</v>
-      </c>
+    <row r="884" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A884" s="11"/>
       <c r="B884" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C884" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D884" s="4">
-        <v>4301020230</v>
+        <v>4301011434</v>
       </c>
       <c r="E884" s="3">
-        <v>4680115881112</v>
+        <v>4680115881099</v>
       </c>
       <c r="F884" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G884" s="1"/>
       <c r="H884" s="1" t="e">
@@ -35466,34 +35478,34 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" s="11" t="s">
-        <v>803</v>
+        <v>553</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C885" s="3" t="s">
-        <v>1497</v>
+        <v>551</v>
       </c>
       <c r="D885" s="4">
-        <v>4301020260</v>
+        <v>4301020230</v>
       </c>
       <c r="E885" s="3">
-        <v>4640242180526</v>
+        <v>4680115881112</v>
       </c>
       <c r="F885" s="5" t="s">
-        <v>1498</v>
+        <v>553</v>
       </c>
       <c r="G885" s="1"/>
-      <c r="H885" s="1">
+      <c r="H885" s="1" t="e">
         <f>VLOOKUP(E885,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="886" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A886" s="11" t="s">
-        <v>1493</v>
+        <v>803</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>552</v>
@@ -35518,7 +35530,7 @@
     </row>
     <row r="887" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A887" s="11" t="s">
-        <v>965</v>
+        <v>1493</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>552</v>
@@ -35543,7 +35555,7 @@
     </row>
     <row r="888" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A888" s="11" t="s">
-        <v>1034</v>
+        <v>965</v>
       </c>
       <c r="B888" s="3" t="s">
         <v>552</v>
@@ -35568,7 +35580,7 @@
     </row>
     <row r="889" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A889" s="11" t="s">
-        <v>1498</v>
+        <v>1034</v>
       </c>
       <c r="B889" s="3" t="s">
         <v>552</v>
@@ -35593,7 +35605,7 @@
     </row>
     <row r="890" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A890" s="11" t="s">
-        <v>1337</v>
+        <v>1498</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>552</v>
@@ -35618,7 +35630,7 @@
     </row>
     <row r="891" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A891" s="11" t="s">
-        <v>710</v>
+        <v>1337</v>
       </c>
       <c r="B891" s="3" t="s">
         <v>552</v>
@@ -35643,32 +35655,32 @@
     </row>
     <row r="892" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A892" s="11" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1204</v>
+        <v>552</v>
       </c>
       <c r="C892" s="3" t="s">
-        <v>1205</v>
+        <v>1497</v>
       </c>
       <c r="D892" s="4">
-        <v>4301051310</v>
+        <v>4301020260</v>
       </c>
       <c r="E892" s="3">
-        <v>4680115880870</v>
+        <v>4640242180526</v>
       </c>
       <c r="F892" s="5" t="s">
-        <v>1206</v>
+        <v>1498</v>
       </c>
       <c r="G892" s="1"/>
       <c r="H892" s="1">
         <f>VLOOKUP(E892,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="893" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A893" s="11" t="s">
-        <v>830</v>
+        <v>732</v>
       </c>
       <c r="B893" s="3" t="s">
         <v>1204</v>
@@ -35693,7 +35705,7 @@
     </row>
     <row r="894" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A894" s="11" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B894" s="3" t="s">
         <v>1204</v>
@@ -35718,7 +35730,7 @@
     </row>
     <row r="895" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A895" s="11" t="s">
-        <v>559</v>
+        <v>836</v>
       </c>
       <c r="B895" s="3" t="s">
         <v>1204</v>
@@ -35743,7 +35755,7 @@
     </row>
     <row r="896" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A896" s="11" t="s">
-        <v>1835</v>
+        <v>559</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>1204</v>
@@ -35768,7 +35780,7 @@
     </row>
     <row r="897" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A897" s="11" t="s">
-        <v>1596</v>
+        <v>1835</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>1204</v>
@@ -35793,7 +35805,7 @@
     </row>
     <row r="898" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A898" s="11" t="s">
-        <v>1269</v>
+        <v>1596</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>1204</v>
@@ -35818,7 +35830,7 @@
     </row>
     <row r="899" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A899" s="11" t="s">
-        <v>1026</v>
+        <v>1269</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>1204</v>
@@ -35843,7 +35855,7 @@
     </row>
     <row r="900" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A900" s="11" t="s">
-        <v>1780</v>
+        <v>1026</v>
       </c>
       <c r="B900" s="3" t="s">
         <v>1204</v>
@@ -35868,7 +35880,7 @@
     </row>
     <row r="901" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A901" s="11" t="s">
-        <v>612</v>
+        <v>1780</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>1204</v>
@@ -35893,7 +35905,7 @@
     </row>
     <row r="902" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A902" s="11" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>1204</v>
@@ -35918,32 +35930,32 @@
     </row>
     <row r="903" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A903" s="11" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>547</v>
+        <v>1204</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>1479</v>
+        <v>1205</v>
       </c>
       <c r="D903" s="4">
-        <v>4301011584</v>
+        <v>4301051310</v>
       </c>
       <c r="E903" s="3">
-        <v>4640242180564</v>
+        <v>4680115880870</v>
       </c>
       <c r="F903" s="5" t="s">
-        <v>1480</v>
+        <v>1206</v>
       </c>
       <c r="G903" s="1"/>
       <c r="H903" s="1">
         <f>VLOOKUP(E903,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="904" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A904" s="11" t="s">
-        <v>782</v>
+        <v>662</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>547</v>
@@ -35968,7 +35980,7 @@
     </row>
     <row r="905" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A905" s="11" t="s">
-        <v>653</v>
+        <v>782</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>547</v>
@@ -35993,7 +36005,7 @@
     </row>
     <row r="906" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A906" s="11" t="s">
-        <v>1480</v>
+        <v>653</v>
       </c>
       <c r="B906" s="3" t="s">
         <v>547</v>
@@ -36018,7 +36030,7 @@
     </row>
     <row r="907" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A907" s="11" t="s">
-        <v>858</v>
+        <v>1480</v>
       </c>
       <c r="B907" s="3" t="s">
         <v>547</v>
@@ -36043,7 +36055,7 @@
     </row>
     <row r="908" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A908" s="11" t="s">
-        <v>549</v>
+        <v>858</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>547</v>
@@ -36068,7 +36080,7 @@
     </row>
     <row r="909" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A909" s="11" t="s">
-        <v>1003</v>
+        <v>549</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>547</v>
@@ -36093,7 +36105,7 @@
     </row>
     <row r="910" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A910" s="11" t="s">
-        <v>1268</v>
+        <v>1003</v>
       </c>
       <c r="B910" s="3" t="s">
         <v>547</v>
@@ -36118,7 +36130,7 @@
     </row>
     <row r="911" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A911" s="11" t="s">
-        <v>1363</v>
+        <v>1268</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>547</v>
@@ -36143,7 +36155,7 @@
     </row>
     <row r="912" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A912" s="11" t="s">
-        <v>1558</v>
+        <v>1363</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>547</v>
@@ -36168,7 +36180,7 @@
     </row>
     <row r="913" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A913" s="11" t="s">
-        <v>1129</v>
+        <v>1558</v>
       </c>
       <c r="B913" s="3" t="s">
         <v>547</v>
@@ -36193,7 +36205,7 @@
     </row>
     <row r="914" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A914" s="11" t="s">
-        <v>1107</v>
+        <v>1129</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>547</v>
@@ -36218,7 +36230,7 @@
     </row>
     <row r="915" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A915" s="11" t="s">
-        <v>1502</v>
+        <v>1107</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>547</v>
@@ -36243,7 +36255,7 @@
     </row>
     <row r="916" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A916" s="11" t="s">
-        <v>1830</v>
+        <v>1502</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>547</v>
@@ -36268,7 +36280,7 @@
     </row>
     <row r="917" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A917" s="11" t="s">
-        <v>1770</v>
+        <v>1830</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>547</v>
@@ -36287,12 +36299,13 @@
       </c>
       <c r="G917" s="1"/>
       <c r="H917" s="1">
+        <f>VLOOKUP(E917,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
       </c>
     </row>
     <row r="918" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A918" s="11" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>547</v>
@@ -36311,13 +36324,12 @@
       </c>
       <c r="G918" s="1"/>
       <c r="H918" s="1">
-        <f>VLOOKUP(E918,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
       </c>
     </row>
     <row r="919" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A919" s="11" t="s">
-        <v>609</v>
+        <v>1777</v>
       </c>
       <c r="B919" s="3" t="s">
         <v>547</v>
@@ -36342,7 +36354,7 @@
     </row>
     <row r="920" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A920" s="11" t="s">
-        <v>672</v>
+        <v>609</v>
       </c>
       <c r="B920" s="3" t="s">
         <v>547</v>
@@ -36367,32 +36379,32 @@
     </row>
     <row r="921" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A921" s="11" t="s">
-        <v>854</v>
+        <v>672</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D921" s="4">
-        <v>4301031280</v>
+        <v>4301011584</v>
       </c>
       <c r="E921" s="3">
-        <v>4640242180816</v>
+        <v>4640242180564</v>
       </c>
       <c r="F921" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G921" s="1"/>
       <c r="H921" s="1">
         <f>VLOOKUP(E921,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="922" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A922" s="11" t="s">
-        <v>1012</v>
+        <v>854</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>554</v>
@@ -36417,7 +36429,7 @@
     </row>
     <row r="923" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A923" s="11" t="s">
-        <v>1803</v>
+        <v>1012</v>
       </c>
       <c r="B923" s="3" t="s">
         <v>554</v>
@@ -36442,7 +36454,7 @@
     </row>
     <row r="924" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A924" s="11" t="s">
-        <v>1732</v>
+        <v>1803</v>
       </c>
       <c r="B924" s="3" t="s">
         <v>554</v>
@@ -36467,7 +36479,7 @@
     </row>
     <row r="925" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A925" s="11" t="s">
-        <v>1051</v>
+        <v>1732</v>
       </c>
       <c r="B925" s="3" t="s">
         <v>554</v>
@@ -36492,7 +36504,7 @@
     </row>
     <row r="926" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A926" s="11" t="s">
-        <v>1614</v>
+        <v>1051</v>
       </c>
       <c r="B926" s="3" t="s">
         <v>554</v>
@@ -36517,7 +36529,7 @@
     </row>
     <row r="927" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A927" s="11" t="s">
-        <v>1856</v>
+        <v>1614</v>
       </c>
       <c r="B927" s="3" t="s">
         <v>554</v>
@@ -36542,7 +36554,7 @@
     </row>
     <row r="928" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A928" s="11" t="s">
-        <v>1079</v>
+        <v>1856</v>
       </c>
       <c r="B928" s="3" t="s">
         <v>554</v>
@@ -36567,7 +36579,7 @@
     </row>
     <row r="929" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A929" s="11" t="s">
-        <v>610</v>
+        <v>1079</v>
       </c>
       <c r="B929" s="3" t="s">
         <v>554</v>
@@ -36592,7 +36604,7 @@
     </row>
     <row r="930" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A930" s="11" t="s">
-        <v>1529</v>
+        <v>610</v>
       </c>
       <c r="B930" s="3" t="s">
         <v>554</v>
@@ -36617,7 +36629,7 @@
     </row>
     <row r="931" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A931" s="11" t="s">
-        <v>673</v>
+        <v>1529</v>
       </c>
       <c r="B931" s="3" t="s">
         <v>554</v>
@@ -36642,32 +36654,32 @@
     </row>
     <row r="932" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A932" s="11" t="s">
-        <v>886</v>
+        <v>673</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>281</v>
+        <v>554</v>
       </c>
       <c r="C932" s="3" t="s">
-        <v>282</v>
+        <v>1481</v>
       </c>
       <c r="D932" s="4">
-        <v>4301051384</v>
+        <v>4301031280</v>
       </c>
       <c r="E932" s="3">
-        <v>4680115881211</v>
+        <v>4640242180816</v>
       </c>
       <c r="F932" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G932" s="6"/>
+        <v>1482</v>
+      </c>
+      <c r="G932" s="1"/>
       <c r="H932" s="1">
         <f>VLOOKUP(E932,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="933" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A933" s="11" t="s">
-        <v>1590</v>
+        <v>886</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>281</v>
@@ -36692,7 +36704,7 @@
     </row>
     <row r="934" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A934" s="11" t="s">
-        <v>924</v>
+        <v>1590</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>281</v>
@@ -36717,7 +36729,7 @@
     </row>
     <row r="935" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A935" s="11" t="s">
-        <v>309</v>
+        <v>924</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>281</v>
@@ -36742,7 +36754,7 @@
     </row>
     <row r="936" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A936" s="11" t="s">
-        <v>1225</v>
+        <v>309</v>
       </c>
       <c r="B936" s="3" t="s">
         <v>281</v>
@@ -36767,7 +36779,7 @@
     </row>
     <row r="937" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A937" s="11" t="s">
-        <v>1071</v>
+        <v>1225</v>
       </c>
       <c r="B937" s="3" t="s">
         <v>281</v>
@@ -36792,7 +36804,7 @@
     </row>
     <row r="938" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A938" s="11" t="s">
-        <v>1700</v>
+        <v>1071</v>
       </c>
       <c r="B938" s="3" t="s">
         <v>281</v>
@@ -36817,32 +36829,32 @@
     </row>
     <row r="939" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A939" s="11" t="s">
-        <v>885</v>
+        <v>1700</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C939" s="3" t="s">
-        <v>1397</v>
+        <v>282</v>
       </c>
       <c r="D939" s="4">
-        <v>4301051487</v>
+        <v>4301051384</v>
       </c>
       <c r="E939" s="3">
-        <v>4680115881228</v>
+        <v>4680115881211</v>
       </c>
       <c r="F939" s="5" t="s">
-        <v>1398</v>
+        <v>309</v>
       </c>
       <c r="G939" s="6"/>
       <c r="H939" s="1">
         <f>VLOOKUP(E939,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="940" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A940" s="11" t="s">
-        <v>1831</v>
+        <v>885</v>
       </c>
       <c r="B940" s="3" t="s">
         <v>278</v>
@@ -36867,7 +36879,7 @@
     </row>
     <row r="941" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A941" s="11" t="s">
-        <v>1591</v>
+        <v>1831</v>
       </c>
       <c r="B941" s="3" t="s">
         <v>278</v>
@@ -36892,7 +36904,7 @@
     </row>
     <row r="942" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A942" s="11" t="s">
-        <v>307</v>
+        <v>1591</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>278</v>
@@ -36917,7 +36929,7 @@
     </row>
     <row r="943" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A943" s="11" t="s">
-        <v>1224</v>
+        <v>307</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>278</v>
@@ -36942,7 +36954,7 @@
     </row>
     <row r="944" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A944" s="11" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>278</v>
@@ -36967,7 +36979,7 @@
     </row>
     <row r="945" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A945" s="11" t="s">
-        <v>1699</v>
+        <v>1234</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>278</v>
@@ -36992,32 +37004,32 @@
     </row>
     <row r="946" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A946" s="11" t="s">
-        <v>692</v>
+        <v>1699</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C946" s="3" t="s">
-        <v>63</v>
+        <v>1397</v>
       </c>
       <c r="D946" s="4">
-        <v>4301011443</v>
+        <v>4301051487</v>
       </c>
       <c r="E946" s="3">
-        <v>4680115881303</v>
+        <v>4680115881228</v>
       </c>
       <c r="F946" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G946" s="1"/>
+        <v>1398</v>
+      </c>
+      <c r="G946" s="6"/>
       <c r="H946" s="1">
         <f>VLOOKUP(E946,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="947" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A947" s="11" t="s">
-        <v>757</v>
+        <v>692</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>62</v>
@@ -37042,7 +37054,7 @@
     </row>
     <row r="948" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A948" s="11" t="s">
-        <v>84</v>
+        <v>757</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>62</v>
@@ -37067,7 +37079,7 @@
     </row>
     <row r="949" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A949" s="11" t="s">
-        <v>1000</v>
+        <v>84</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>62</v>
@@ -37092,7 +37104,7 @@
     </row>
     <row r="950" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A950" s="11" t="s">
-        <v>1746</v>
+        <v>1000</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>62</v>
@@ -37117,7 +37129,7 @@
     </row>
     <row r="951" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A951" s="11" t="s">
-        <v>1617</v>
+        <v>1746</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>62</v>
@@ -37142,7 +37154,7 @@
     </row>
     <row r="952" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A952" s="11" t="s">
-        <v>648</v>
+        <v>1617</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>62</v>
@@ -37165,24 +37177,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A953" s="11" t="s">
-        <v>738</v>
+        <v>648</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C953" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D953" s="4">
-        <v>4301011468</v>
+        <v>4301011443</v>
       </c>
       <c r="E953" s="3">
-        <v>4680115881327</v>
+        <v>4680115881303</v>
       </c>
       <c r="F953" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G953" s="1"/>
       <c r="H953" s="1">
@@ -37192,7 +37204,7 @@
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" s="11" t="s">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="B954" s="3" t="s">
         <v>47</v>
@@ -37217,7 +37229,7 @@
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" s="11" t="s">
-        <v>941</v>
+        <v>76</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>47</v>
@@ -37242,7 +37254,7 @@
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" s="11" t="s">
-        <v>756</v>
+        <v>941</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>47</v>
@@ -37267,7 +37279,7 @@
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" s="11" t="s">
-        <v>861</v>
+        <v>756</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>47</v>
@@ -37292,7 +37304,7 @@
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" s="11" t="s">
-        <v>1438</v>
+        <v>861</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>47</v>
@@ -37317,7 +37329,7 @@
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" s="11" t="s">
-        <v>1001</v>
+        <v>1438</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>47</v>
@@ -37342,7 +37354,7 @@
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" s="11" t="s">
-        <v>1852</v>
+        <v>1001</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>47</v>
@@ -37367,7 +37379,7 @@
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="11" t="s">
-        <v>1094</v>
+        <v>1852</v>
       </c>
       <c r="B961" s="3" t="s">
         <v>47</v>
@@ -37392,7 +37404,7 @@
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="11" t="s">
-        <v>1047</v>
+        <v>1094</v>
       </c>
       <c r="B962" s="3" t="s">
         <v>47</v>
@@ -37417,7 +37429,7 @@
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="11" t="s">
-        <v>1159</v>
+        <v>1047</v>
       </c>
       <c r="B963" s="3" t="s">
         <v>47</v>
@@ -37442,7 +37454,7 @@
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="11" t="s">
-        <v>1214</v>
+        <v>1159</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>47</v>
@@ -37467,7 +37479,7 @@
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="11" t="s">
-        <v>1737</v>
+        <v>1214</v>
       </c>
       <c r="B965" s="3" t="s">
         <v>47</v>
@@ -37492,7 +37504,7 @@
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="11" t="s">
-        <v>1530</v>
+        <v>1737</v>
       </c>
       <c r="B966" s="3" t="s">
         <v>47</v>
@@ -37517,7 +37529,7 @@
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="11" t="s">
-        <v>646</v>
+        <v>1530</v>
       </c>
       <c r="B967" s="3" t="s">
         <v>47</v>
@@ -37540,34 +37552,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="11" t="s">
-        <v>1842</v>
+        <v>646</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="C968" s="3" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D968" s="4">
-        <v>4301011454</v>
+        <v>4301011468</v>
       </c>
       <c r="E968" s="3">
-        <v>4680115881396</v>
+        <v>4680115881327</v>
       </c>
       <c r="F968" s="5" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="G968" s="1"/>
       <c r="H968" s="1">
         <f>VLOOKUP(E968,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="969" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A969" s="11" t="s">
-        <v>1789</v>
+        <v>1842</v>
       </c>
       <c r="B969" s="3" t="s">
         <v>195</v>
@@ -37592,32 +37604,32 @@
     </row>
     <row r="970" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A970" s="11" t="s">
-        <v>691</v>
+        <v>1789</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="C970" s="3" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="D970" s="4">
-        <v>4301011437</v>
+        <v>4301011454</v>
       </c>
       <c r="E970" s="3">
-        <v>4680115881419</v>
+        <v>4680115881396</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="G970" s="1"/>
       <c r="H970" s="1">
         <f>VLOOKUP(E970,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="971" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A971" s="11" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="B971" s="3" t="s">
         <v>41</v>
@@ -37632,7 +37644,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F971" s="5" t="s">
-        <v>709</v>
+        <v>44</v>
       </c>
       <c r="G971" s="1"/>
       <c r="H971" s="1">
@@ -37642,7 +37654,7 @@
     </row>
     <row r="972" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A972" s="11" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="B972" s="3" t="s">
         <v>41</v>
@@ -37657,7 +37669,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F972" s="5" t="s">
-        <v>44</v>
+        <v>709</v>
       </c>
       <c r="G972" s="1"/>
       <c r="H972" s="1">
@@ -37667,7 +37679,7 @@
     </row>
     <row r="973" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A973" s="11" t="s">
-        <v>44</v>
+        <v>751</v>
       </c>
       <c r="B973" s="3" t="s">
         <v>41</v>
@@ -37692,7 +37704,7 @@
     </row>
     <row r="974" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A974" s="11" t="s">
-        <v>991</v>
+        <v>44</v>
       </c>
       <c r="B974" s="3" t="s">
         <v>41</v>
@@ -37717,7 +37729,7 @@
     </row>
     <row r="975" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
-        <v>1119</v>
+        <v>991</v>
       </c>
       <c r="B975" s="3" t="s">
         <v>41</v>
@@ -37742,7 +37754,7 @@
     </row>
     <row r="976" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A976" s="11" t="s">
-        <v>1380</v>
+        <v>1119</v>
       </c>
       <c r="B976" s="3" t="s">
         <v>41</v>
@@ -37767,7 +37779,7 @@
     </row>
     <row r="977" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A977" s="11" t="s">
-        <v>576</v>
+        <v>1380</v>
       </c>
       <c r="B977" s="3" t="s">
         <v>41</v>
@@ -37792,32 +37804,32 @@
     </row>
     <row r="978" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A978" s="11" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C978" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D978" s="4">
-        <v>4301011452</v>
+        <v>4301011437</v>
       </c>
       <c r="E978" s="3">
-        <v>4680115881426</v>
+        <v>4680115881419</v>
       </c>
       <c r="F978" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G978" s="1"/>
       <c r="H978" s="1">
         <f>VLOOKUP(E978,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="979" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A979" s="11" t="s">
-        <v>1605</v>
+        <v>689</v>
       </c>
       <c r="B979" s="3" t="s">
         <v>39</v>
@@ -37842,7 +37854,7 @@
     </row>
     <row r="980" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A980" s="11" t="s">
-        <v>1727</v>
+        <v>1605</v>
       </c>
       <c r="B980" s="3" t="s">
         <v>39</v>
@@ -37861,12 +37873,13 @@
       </c>
       <c r="G980" s="1"/>
       <c r="H980" s="1">
+        <f>VLOOKUP(E980,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="981" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A981" s="11" t="s">
-        <v>699</v>
+        <v>1727</v>
       </c>
       <c r="B981" s="3" t="s">
         <v>39</v>
@@ -37885,13 +37898,12 @@
       </c>
       <c r="G981" s="1"/>
       <c r="H981" s="1">
-        <f>VLOOKUP(E981,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="982" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A982" s="11" t="s">
-        <v>1586</v>
+        <v>699</v>
       </c>
       <c r="B982" s="3" t="s">
         <v>39</v>
@@ -37916,7 +37928,7 @@
     </row>
     <row r="983" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A983" s="11" t="s">
-        <v>752</v>
+        <v>1586</v>
       </c>
       <c r="B983" s="3" t="s">
         <v>39</v>
@@ -37941,7 +37953,7 @@
     </row>
     <row r="984" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A984" s="11" t="s">
-        <v>43</v>
+        <v>752</v>
       </c>
       <c r="B984" s="3" t="s">
         <v>39</v>
@@ -37966,7 +37978,7 @@
     </row>
     <row r="985" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A985" s="11" t="s">
-        <v>821</v>
+        <v>43</v>
       </c>
       <c r="B985" s="3" t="s">
         <v>39</v>
@@ -37991,7 +38003,7 @@
     </row>
     <row r="986" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A986" s="11" t="s">
-        <v>1281</v>
+        <v>821</v>
       </c>
       <c r="B986" s="3" t="s">
         <v>39</v>
@@ -38016,7 +38028,7 @@
     </row>
     <row r="987" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A987" s="11" t="s">
-        <v>1171</v>
+        <v>1281</v>
       </c>
       <c r="B987" s="3" t="s">
         <v>39</v>
@@ -38041,7 +38053,7 @@
     </row>
     <row r="988" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A988" s="11" t="s">
-        <v>995</v>
+        <v>1171</v>
       </c>
       <c r="B988" s="3" t="s">
         <v>39</v>
@@ -38066,7 +38078,7 @@
     </row>
     <row r="989" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A989" s="11" t="s">
-        <v>1215</v>
+        <v>995</v>
       </c>
       <c r="B989" s="3" t="s">
         <v>39</v>
@@ -38091,7 +38103,7 @@
     </row>
     <row r="990" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A990" s="11" t="s">
-        <v>1863</v>
+        <v>1215</v>
       </c>
       <c r="B990" s="3" t="s">
         <v>39</v>
@@ -38116,7 +38128,7 @@
     </row>
     <row r="991" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A991" s="11" t="s">
-        <v>1778</v>
+        <v>1863</v>
       </c>
       <c r="B991" s="3" t="s">
         <v>39</v>
@@ -38141,7 +38153,7 @@
     </row>
     <row r="992" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A992" s="11" t="s">
-        <v>797</v>
+        <v>1778</v>
       </c>
       <c r="B992" s="3" t="s">
         <v>39</v>
@@ -38166,7 +38178,7 @@
     </row>
     <row r="993" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A993" s="11" t="s">
-        <v>650</v>
+        <v>797</v>
       </c>
       <c r="B993" s="3" t="s">
         <v>39</v>
@@ -38191,7 +38203,7 @@
     </row>
     <row r="994" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A994" s="11" t="s">
-        <v>1095</v>
+        <v>650</v>
       </c>
       <c r="B994" s="3" t="s">
         <v>39</v>
@@ -38205,9 +38217,8 @@
       <c r="E994" s="3">
         <v>4680115881426</v>
       </c>
-      <c r="F994" s="5" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
-        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
+      <c r="F994" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G994" s="1"/>
       <c r="H994" s="1">
@@ -38217,7 +38228,7 @@
     </row>
     <row r="995" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A995" s="11" t="s">
-        <v>1230</v>
+        <v>1095</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>39</v>
@@ -38243,7 +38254,7 @@
     </row>
     <row r="996" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A996" s="11" t="s">
-        <v>1486</v>
+        <v>1230</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>39</v>
@@ -38269,7 +38280,7 @@
     </row>
     <row r="997" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A997" s="11" t="s">
-        <v>571</v>
+        <v>1486</v>
       </c>
       <c r="B997" s="3" t="s">
         <v>39</v>
@@ -38293,34 +38304,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A998" s="11" t="s">
-        <v>746</v>
+        <v>571</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C998" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D998" s="4">
-        <v>4301020232</v>
+        <v>4301011452</v>
       </c>
       <c r="E998" s="3">
-        <v>4680115881433</v>
-      </c>
-      <c r="F998" s="5" t="s">
-        <v>38</v>
+        <v>4680115881426</v>
+      </c>
+      <c r="F998" s="5" t="str">
+        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
+        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
       </c>
       <c r="G998" s="1"/>
       <c r="H998" s="1">
         <f>VLOOKUP(E998,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" s="11" t="s">
-        <v>38</v>
+        <v>746</v>
       </c>
       <c r="B999" s="3" t="s">
         <v>35</v>
@@ -38345,7 +38357,7 @@
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" s="11" t="s">
-        <v>801</v>
+        <v>38</v>
       </c>
       <c r="B1000" s="3" t="s">
         <v>35</v>
@@ -38370,7 +38382,7 @@
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="11" t="s">
-        <v>979</v>
+        <v>801</v>
       </c>
       <c r="B1001" s="3" t="s">
         <v>35</v>
@@ -38395,7 +38407,7 @@
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" s="11" t="s">
-        <v>1361</v>
+        <v>979</v>
       </c>
       <c r="B1002" s="3" t="s">
         <v>35</v>
@@ -38420,7 +38432,7 @@
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" s="11" t="s">
-        <v>988</v>
+        <v>1361</v>
       </c>
       <c r="B1003" s="3" t="s">
         <v>35</v>
@@ -38445,7 +38457,7 @@
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004" s="11" t="s">
-        <v>1376</v>
+        <v>988</v>
       </c>
       <c r="B1004" s="3" t="s">
         <v>35</v>
@@ -38470,7 +38482,7 @@
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1005" s="11" t="s">
-        <v>649</v>
+        <v>1376</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>35</v>
@@ -38495,22 +38507,22 @@
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" s="11" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1006" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1006" s="4">
-        <v>4301020234</v>
+        <v>4301020232</v>
       </c>
       <c r="E1006" s="3">
-        <v>4680115881440</v>
+        <v>4680115881433</v>
       </c>
       <c r="F1006" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1006" s="1"/>
       <c r="H1006" s="1">
@@ -38520,7 +38532,7 @@
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1007" s="11" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="B1007" s="3" t="s">
         <v>33</v>
@@ -38545,7 +38557,7 @@
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" s="11" t="s">
-        <v>1154</v>
+        <v>707</v>
       </c>
       <c r="B1008" s="3" t="s">
         <v>33</v>
@@ -38570,7 +38582,7 @@
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1009" s="11" t="s">
-        <v>745</v>
+        <v>1154</v>
       </c>
       <c r="B1009" s="3" t="s">
         <v>33</v>
@@ -38595,7 +38607,7 @@
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" s="11" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B1010" s="3" t="s">
         <v>33</v>
@@ -38620,7 +38632,7 @@
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1011" s="11" t="s">
-        <v>1229</v>
+        <v>737</v>
       </c>
       <c r="B1011" s="3" t="s">
         <v>33</v>
@@ -38645,7 +38657,7 @@
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1012" s="11" t="s">
-        <v>1487</v>
+        <v>1229</v>
       </c>
       <c r="B1012" s="3" t="s">
         <v>33</v>
@@ -38670,7 +38682,7 @@
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1013" s="11" t="s">
-        <v>645</v>
+        <v>1487</v>
       </c>
       <c r="B1013" s="3" t="s">
         <v>33</v>
@@ -38695,7 +38707,7 @@
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1014" s="11" t="s">
-        <v>37</v>
+        <v>645</v>
       </c>
       <c r="B1014" s="3" t="s">
         <v>33</v>
@@ -38720,7 +38732,7 @@
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" s="11" t="s">
-        <v>987</v>
+        <v>37</v>
       </c>
       <c r="B1015" s="3" t="s">
         <v>33</v>
@@ -38745,7 +38757,7 @@
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" s="11" t="s">
-        <v>1279</v>
+        <v>987</v>
       </c>
       <c r="B1016" s="3" t="s">
         <v>33</v>
@@ -38770,7 +38782,7 @@
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" s="11" t="s">
-        <v>1213</v>
+        <v>1279</v>
       </c>
       <c r="B1017" s="3" t="s">
         <v>33</v>
@@ -38795,7 +38807,7 @@
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" s="11" t="s">
-        <v>1420</v>
+        <v>1213</v>
       </c>
       <c r="B1018" s="3" t="s">
         <v>33</v>
@@ -38820,7 +38832,7 @@
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1019" s="11" t="s">
-        <v>1729</v>
+        <v>1420</v>
       </c>
       <c r="B1019" s="3" t="s">
         <v>33</v>
@@ -38845,7 +38857,7 @@
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1020" s="11" t="s">
-        <v>798</v>
+        <v>1729</v>
       </c>
       <c r="B1020" s="3" t="s">
         <v>33</v>
@@ -38868,22 +38880,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1021" s="11"/>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1021" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="B1021" s="3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C1021" s="3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D1021" s="4">
-        <v>4301011462</v>
+        <v>4301020234</v>
       </c>
       <c r="E1021" s="3">
-        <v>4680115881457</v>
+        <v>4680115881440</v>
       </c>
       <c r="F1021" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="G1021" s="1"/>
       <c r="H1021" s="1">
@@ -38892,23 +38906,21 @@
       </c>
     </row>
     <row r="1022" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1022" s="11" t="s">
-        <v>1638</v>
-      </c>
+      <c r="A1022" s="11"/>
       <c r="B1022" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C1022" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D1022" s="4">
-        <v>4301011476</v>
+        <v>4301011462</v>
       </c>
       <c r="E1022" s="3">
-        <v>4680115881518</v>
+        <v>4680115881457</v>
       </c>
       <c r="F1022" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G1022" s="1"/>
       <c r="H1022" s="1">
@@ -38918,22 +38930,22 @@
     </row>
     <row r="1023" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1023" s="11" t="s">
-        <v>1106</v>
+        <v>1638</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>1103</v>
+        <v>60</v>
       </c>
       <c r="C1023" s="3" t="s">
-        <v>1104</v>
+        <v>61</v>
       </c>
       <c r="D1023" s="4">
-        <v>4301011458</v>
+        <v>4301011476</v>
       </c>
       <c r="E1023" s="3">
-        <v>4680115881525</v>
+        <v>4680115881518</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>1105</v>
+        <v>83</v>
       </c>
       <c r="G1023" s="1"/>
       <c r="H1023" s="1">
@@ -38943,32 +38955,32 @@
     </row>
     <row r="1024" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="11" t="s">
-        <v>301</v>
+        <v>1106</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>266</v>
+        <v>1103</v>
       </c>
       <c r="C1024" s="3" t="s">
-        <v>267</v>
+        <v>1104</v>
       </c>
       <c r="D1024" s="4">
-        <v>4301051409</v>
+        <v>4301011458</v>
       </c>
       <c r="E1024" s="3">
-        <v>4680115881556</v>
+        <v>4680115881525</v>
       </c>
       <c r="F1024" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1024" s="6"/>
+        <v>1105</v>
+      </c>
+      <c r="G1024" s="1"/>
       <c r="H1024" s="1">
         <f>VLOOKUP(E1024,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1025" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="11" t="s">
-        <v>1837</v>
+        <v>301</v>
       </c>
       <c r="B1025" s="3" t="s">
         <v>266</v>
@@ -38993,7 +39005,7 @@
     </row>
     <row r="1026" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="11" t="s">
-        <v>1601</v>
+        <v>1837</v>
       </c>
       <c r="B1026" s="3" t="s">
         <v>266</v>
@@ -39018,7 +39030,7 @@
     </row>
     <row r="1027" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="11" t="s">
-        <v>674</v>
+        <v>1601</v>
       </c>
       <c r="B1027" s="3" t="s">
         <v>266</v>
@@ -39043,32 +39055,32 @@
     </row>
     <row r="1028" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="11" t="s">
-        <v>873</v>
+        <v>674</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="C1028" s="3" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D1028" s="4">
-        <v>4301031201</v>
+        <v>4301051409</v>
       </c>
       <c r="E1028" s="3">
-        <v>4680115881563</v>
+        <v>4680115881556</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1028" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="G1028" s="6"/>
       <c r="H1028" s="1">
         <f>VLOOKUP(E1028,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1029" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="11" t="s">
-        <v>250</v>
+        <v>873</v>
       </c>
       <c r="B1029" s="3" t="s">
         <v>228</v>
@@ -39093,7 +39105,7 @@
     </row>
     <row r="1030" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1030" s="11" t="s">
-        <v>1412</v>
+        <v>250</v>
       </c>
       <c r="B1030" s="3" t="s">
         <v>228</v>
@@ -39118,7 +39130,7 @@
     </row>
     <row r="1031" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1031" s="11" t="s">
-        <v>1818</v>
+        <v>1412</v>
       </c>
       <c r="B1031" s="3" t="s">
         <v>228</v>
@@ -39143,7 +39155,7 @@
     </row>
     <row r="1032" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="11" t="s">
-        <v>1767</v>
+        <v>1818</v>
       </c>
       <c r="B1032" s="3" t="s">
         <v>228</v>
@@ -39162,12 +39174,13 @@
       </c>
       <c r="G1032" s="1"/>
       <c r="H1032" s="1">
+        <f>VLOOKUP(E1032,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1033" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="11" t="s">
-        <v>1144</v>
+        <v>1767</v>
       </c>
       <c r="B1033" s="3" t="s">
         <v>228</v>
@@ -39186,13 +39199,12 @@
       </c>
       <c r="G1033" s="1"/>
       <c r="H1033" s="1">
-        <f>VLOOKUP(E1033,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1034" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1034" s="11" t="s">
-        <v>742</v>
+        <v>1144</v>
       </c>
       <c r="B1034" s="3" t="s">
         <v>228</v>
@@ -39217,24 +39229,24 @@
     </row>
     <row r="1035" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="11" t="s">
-        <v>838</v>
+        <v>742</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="C1035" s="3" t="s">
-        <v>1483</v>
+        <v>229</v>
       </c>
       <c r="D1035" s="4">
-        <v>4301051505</v>
+        <v>4301031201</v>
       </c>
       <c r="E1035" s="3">
-        <v>4680115881587</v>
+        <v>4680115881563</v>
       </c>
       <c r="F1035" s="5" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G1035" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="G1035" s="1"/>
       <c r="H1035" s="1">
         <f>VLOOKUP(E1035,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -39242,7 +39254,7 @@
     </row>
     <row r="1036" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1036" s="11" t="s">
-        <v>1389</v>
+        <v>838</v>
       </c>
       <c r="B1036" s="3" t="s">
         <v>275</v>
@@ -39267,7 +39279,7 @@
     </row>
     <row r="1037" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="11" t="s">
-        <v>613</v>
+        <v>1389</v>
       </c>
       <c r="B1037" s="3" t="s">
         <v>275</v>
@@ -39292,7 +39304,7 @@
     </row>
     <row r="1038" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="11" t="s">
-        <v>744</v>
+        <v>613</v>
       </c>
       <c r="B1038" s="3" t="s">
         <v>275</v>
@@ -39317,22 +39329,22 @@
     </row>
     <row r="1039" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="11" t="s">
-        <v>1841</v>
+        <v>744</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C1039" s="3" t="s">
-        <v>259</v>
+        <v>1483</v>
       </c>
       <c r="D1039" s="4">
-        <v>4301051408</v>
+        <v>4301051505</v>
       </c>
       <c r="E1039" s="3">
-        <v>4680115881594</v>
+        <v>4680115881587</v>
       </c>
       <c r="F1039" s="5" t="s">
-        <v>297</v>
+        <v>1484</v>
       </c>
       <c r="G1039" s="6"/>
       <c r="H1039" s="1">
@@ -39342,7 +39354,7 @@
     </row>
     <row r="1040" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="11" t="s">
-        <v>1791</v>
+        <v>1841</v>
       </c>
       <c r="B1040" s="3" t="s">
         <v>258</v>
@@ -39366,21 +39378,23 @@
       </c>
     </row>
     <row r="1041" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1041" s="11"/>
+      <c r="A1041" s="11" t="s">
+        <v>1791</v>
+      </c>
       <c r="B1041" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C1041" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1041" s="4">
-        <v>4301051411</v>
+        <v>4301051408</v>
       </c>
       <c r="E1041" s="3">
-        <v>4680115881617</v>
+        <v>4680115881594</v>
       </c>
       <c r="F1041" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1041" s="6"/>
       <c r="H1041" s="1">
@@ -39391,54 +39405,52 @@
     <row r="1042" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="11"/>
       <c r="B1042" s="3" t="s">
-        <v>490</v>
+        <v>262</v>
       </c>
       <c r="C1042" s="3" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
       <c r="D1042" s="4">
-        <v>4301060352</v>
+        <v>4301051411</v>
       </c>
       <c r="E1042" s="3">
-        <v>4680115881648</v>
+        <v>4680115881617</v>
       </c>
       <c r="F1042" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="G1042" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="G1042" s="6"/>
       <c r="H1042" s="1">
         <f>VLOOKUP(E1042,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1043" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1043" s="11" t="s">
-        <v>731</v>
-      </c>
+      <c r="A1043" s="11"/>
       <c r="B1043" s="3" t="s">
-        <v>242</v>
+        <v>490</v>
       </c>
       <c r="C1043" s="3" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="D1043" s="4">
-        <v>4301031202</v>
+        <v>4301060352</v>
       </c>
       <c r="E1043" s="3">
-        <v>4680115881679</v>
+        <v>4680115881648</v>
       </c>
       <c r="F1043" s="5" t="s">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="G1043" s="1"/>
       <c r="H1043" s="1">
         <f>VLOOKUP(E1043,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1044" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1044" s="11" t="s">
-        <v>872</v>
+        <v>731</v>
       </c>
       <c r="B1044" s="3" t="s">
         <v>242</v>
@@ -39463,7 +39475,7 @@
     </row>
     <row r="1045" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1045" s="11" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="B1045" s="3" t="s">
         <v>242</v>
@@ -39488,7 +39500,7 @@
     </row>
     <row r="1046" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1046" s="11" t="s">
-        <v>1143</v>
+        <v>257</v>
       </c>
       <c r="B1046" s="3" t="s">
         <v>242</v>
@@ -39513,7 +39525,7 @@
     </row>
     <row r="1047" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="11" t="s">
-        <v>1336</v>
+        <v>1143</v>
       </c>
       <c r="B1047" s="3" t="s">
         <v>242</v>
@@ -39538,7 +39550,7 @@
     </row>
     <row r="1048" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="11" t="s">
-        <v>1726</v>
+        <v>1336</v>
       </c>
       <c r="B1048" s="3" t="s">
         <v>242</v>
@@ -39563,7 +39575,7 @@
     </row>
     <row r="1049" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1049" s="11" t="s">
-        <v>1276</v>
+        <v>1726</v>
       </c>
       <c r="B1049" s="3" t="s">
         <v>242</v>
@@ -39588,7 +39600,7 @@
     </row>
     <row r="1050" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1050" s="11" t="s">
-        <v>644</v>
+        <v>1276</v>
       </c>
       <c r="B1050" s="3" t="s">
         <v>242</v>
@@ -39613,22 +39625,22 @@
     </row>
     <row r="1051" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="11" t="s">
-        <v>870</v>
+        <v>644</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C1051" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D1051" s="4">
-        <v>4301031204</v>
+        <v>4301031202</v>
       </c>
       <c r="E1051" s="3">
-        <v>4680115881761</v>
+        <v>4680115881679</v>
       </c>
       <c r="F1051" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G1051" s="1"/>
       <c r="H1051" s="1">
@@ -39638,7 +39650,7 @@
     </row>
     <row r="1052" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="11" t="s">
-        <v>1534</v>
+        <v>870</v>
       </c>
       <c r="B1052" s="3" t="s">
         <v>226</v>
@@ -39663,7 +39675,7 @@
     </row>
     <row r="1053" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="11" t="s">
-        <v>1817</v>
+        <v>1534</v>
       </c>
       <c r="B1053" s="3" t="s">
         <v>226</v>
@@ -39688,7 +39700,7 @@
     </row>
     <row r="1054" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="11" t="s">
-        <v>1766</v>
+        <v>1817</v>
       </c>
       <c r="B1054" s="3" t="s">
         <v>226</v>
@@ -39707,12 +39719,13 @@
       </c>
       <c r="G1054" s="1"/>
       <c r="H1054" s="1">
+        <f>VLOOKUP(E1054,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1055" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="11" t="s">
-        <v>743</v>
+        <v>1766</v>
       </c>
       <c r="B1055" s="3" t="s">
         <v>226</v>
@@ -39731,28 +39744,27 @@
       </c>
       <c r="G1055" s="1"/>
       <c r="H1055" s="1">
-        <f>VLOOKUP(E1055,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1056" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="11" t="s">
-        <v>871</v>
+        <v>743</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C1056" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D1056" s="4">
-        <v>4301031205</v>
+        <v>4301031204</v>
       </c>
       <c r="E1056" s="3">
-        <v>4680115881785</v>
+        <v>4680115881761</v>
       </c>
       <c r="F1056" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G1056" s="1"/>
       <c r="H1056" s="1">
@@ -39762,7 +39774,7 @@
     </row>
     <row r="1057" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="11" t="s">
-        <v>256</v>
+        <v>871</v>
       </c>
       <c r="B1057" s="3" t="s">
         <v>240</v>
@@ -39787,7 +39799,7 @@
     </row>
     <row r="1058" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="11" t="s">
-        <v>643</v>
+        <v>256</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>240</v>
@@ -39812,32 +39824,32 @@
     </row>
     <row r="1059" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="11" t="s">
-        <v>1339</v>
+        <v>643</v>
       </c>
       <c r="B1059" s="3" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="C1059" s="3" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D1059" s="4">
-        <v>4301180007</v>
+        <v>4301031205</v>
       </c>
       <c r="E1059" s="3">
-        <v>4680115881808</v>
+        <v>4680115881785</v>
       </c>
       <c r="F1059" s="5" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="G1059" s="1"/>
       <c r="H1059" s="1">
         <f>VLOOKUP(E1059,[1]Лист1!$D:$M,10,0)</f>
-        <v>730</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1060" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="11" t="s">
-        <v>1653</v>
+        <v>1339</v>
       </c>
       <c r="B1060" s="3" t="s">
         <v>347</v>
@@ -39862,7 +39874,7 @@
     </row>
     <row r="1061" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="11" t="s">
-        <v>864</v>
+        <v>1653</v>
       </c>
       <c r="B1061" s="3" t="s">
         <v>347</v>
@@ -39887,22 +39899,22 @@
     </row>
     <row r="1062" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="11" t="s">
-        <v>1549</v>
+        <v>864</v>
       </c>
       <c r="B1062" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C1062" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1062" s="4">
-        <v>4301180006</v>
+        <v>4301180007</v>
       </c>
       <c r="E1062" s="3">
-        <v>4680115881822</v>
+        <v>4680115881808</v>
       </c>
       <c r="F1062" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1062" s="1"/>
       <c r="H1062" s="1">
@@ -39912,7 +39924,7 @@
     </row>
     <row r="1063" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1063" s="11" t="s">
-        <v>1654</v>
+        <v>1549</v>
       </c>
       <c r="B1063" s="3" t="s">
         <v>349</v>
@@ -39937,7 +39949,7 @@
     </row>
     <row r="1064" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1064" s="11" t="s">
-        <v>1340</v>
+        <v>1654</v>
       </c>
       <c r="B1064" s="3" t="s">
         <v>349</v>
@@ -39962,32 +39974,32 @@
     </row>
     <row r="1065" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1065" s="11" t="s">
-        <v>18</v>
+        <v>1340</v>
       </c>
       <c r="B1065" s="3" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="C1065" s="3" t="s">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="D1065" s="4">
-        <v>4301051426</v>
+        <v>4301180006</v>
       </c>
       <c r="E1065" s="3">
-        <v>4680115881853</v>
+        <v>4680115881822</v>
       </c>
       <c r="F1065" s="5" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="G1065" s="1"/>
       <c r="H1065" s="1">
         <f>VLOOKUP(E1065,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1066" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1066" s="11" t="s">
-        <v>1519</v>
+        <v>18</v>
       </c>
       <c r="B1066" s="3" t="s">
         <v>11</v>
@@ -40012,32 +40024,32 @@
     </row>
     <row r="1067" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="11" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="B1067" s="3" t="s">
-        <v>1039</v>
+        <v>11</v>
       </c>
       <c r="C1067" s="3" t="s">
-        <v>1040</v>
+        <v>12</v>
       </c>
       <c r="D1067" s="4">
-        <v>4301051444</v>
+        <v>4301051426</v>
       </c>
       <c r="E1067" s="3">
-        <v>4680115881969</v>
+        <v>4680115881853</v>
       </c>
       <c r="F1067" s="5" t="s">
-        <v>1041</v>
+        <v>18</v>
       </c>
       <c r="G1067" s="1"/>
       <c r="H1067" s="1">
         <f>VLOOKUP(E1067,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1068" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1068" s="11" t="s">
-        <v>1042</v>
+        <v>1513</v>
       </c>
       <c r="B1068" s="3" t="s">
         <v>1039</v>
@@ -40062,22 +40074,22 @@
     </row>
     <row r="1069" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="11" t="s">
-        <v>1512</v>
+        <v>1042</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>947</v>
+        <v>1039</v>
       </c>
       <c r="C1069" s="3" t="s">
-        <v>948</v>
+        <v>1040</v>
       </c>
       <c r="D1069" s="4">
-        <v>4301051445</v>
+        <v>4301051444</v>
       </c>
       <c r="E1069" s="3">
-        <v>4680115881976</v>
+        <v>4680115881969</v>
       </c>
       <c r="F1069" s="5" t="s">
-        <v>950</v>
+        <v>1041</v>
       </c>
       <c r="G1069" s="1"/>
       <c r="H1069" s="1">
@@ -40087,7 +40099,7 @@
     </row>
     <row r="1070" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1070" s="11" t="s">
-        <v>1665</v>
+        <v>1512</v>
       </c>
       <c r="B1070" s="3" t="s">
         <v>947</v>
@@ -40112,7 +40124,7 @@
     </row>
     <row r="1071" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1071" s="11" t="s">
-        <v>949</v>
+        <v>1665</v>
       </c>
       <c r="B1071" s="3" t="s">
         <v>947</v>
@@ -40136,21 +40148,23 @@
       </c>
     </row>
     <row r="1072" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1072" s="11"/>
+      <c r="A1072" s="11" t="s">
+        <v>949</v>
+      </c>
       <c r="B1072" s="3" t="s">
-        <v>504</v>
+        <v>947</v>
       </c>
       <c r="C1072" s="3" t="s">
-        <v>505</v>
+        <v>948</v>
       </c>
       <c r="D1072" s="4">
-        <v>4301031103</v>
+        <v>4301051445</v>
       </c>
       <c r="E1072" s="3">
-        <v>4680115881983</v>
+        <v>4680115881976</v>
       </c>
       <c r="F1072" s="5" t="s">
-        <v>510</v>
+        <v>950</v>
       </c>
       <c r="G1072" s="1"/>
       <c r="H1072" s="1">
@@ -40159,33 +40173,31 @@
       </c>
     </row>
     <row r="1073" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1073" s="11" t="s">
-        <v>1400</v>
-      </c>
+      <c r="A1073" s="11"/>
       <c r="B1073" s="3" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C1073" s="3" t="s">
-        <v>1347</v>
+        <v>505</v>
       </c>
       <c r="D1073" s="4">
-        <v>4301031253</v>
+        <v>4301031103</v>
       </c>
       <c r="E1073" s="3">
-        <v>4680115882096</v>
+        <v>4680115881983</v>
       </c>
       <c r="F1073" s="5" t="s">
-        <v>1346</v>
+        <v>510</v>
       </c>
       <c r="G1073" s="1"/>
       <c r="H1073" s="1">
         <f>VLOOKUP(E1073,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1074" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1074" s="11" t="s">
-        <v>1346</v>
+        <v>1400</v>
       </c>
       <c r="B1074" s="3" t="s">
         <v>533</v>
@@ -40210,22 +40222,22 @@
     </row>
     <row r="1075" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1075" s="11" t="s">
-        <v>1399</v>
+        <v>1346</v>
       </c>
       <c r="B1075" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C1075" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D1075" s="4">
-        <v>4301031251</v>
+        <v>4301031253</v>
       </c>
       <c r="E1075" s="3">
-        <v>4680115882102</v>
+        <v>4680115882096</v>
       </c>
       <c r="F1075" s="5" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G1075" s="1"/>
       <c r="H1075" s="1">
@@ -40235,7 +40247,7 @@
     </row>
     <row r="1076" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1076" s="11" t="s">
-        <v>1344</v>
+        <v>1399</v>
       </c>
       <c r="B1076" s="3" t="s">
         <v>532</v>
@@ -40258,34 +40270,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="11" t="s">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="B1077" s="3" t="s">
-        <v>51</v>
+        <v>532</v>
       </c>
       <c r="C1077" s="3" t="s">
-        <v>1756</v>
+        <v>1345</v>
       </c>
       <c r="D1077" s="4">
-        <v>4301011703</v>
+        <v>4301031251</v>
       </c>
       <c r="E1077" s="3">
-        <v>4680115882133</v>
+        <v>4680115882102</v>
       </c>
       <c r="F1077" s="5" t="s">
-        <v>1757</v>
+        <v>1344</v>
       </c>
       <c r="G1077" s="1"/>
       <c r="H1077" s="1">
         <f>VLOOKUP(E1077,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078" s="11" t="s">
-        <v>1178</v>
+        <v>78</v>
       </c>
       <c r="B1078" s="3" t="s">
         <v>51</v>
@@ -40310,7 +40322,7 @@
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" s="11" t="s">
-        <v>1317</v>
+        <v>1178</v>
       </c>
       <c r="B1079" s="3" t="s">
         <v>51</v>
@@ -40335,7 +40347,7 @@
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" s="11" t="s">
-        <v>1358</v>
+        <v>1317</v>
       </c>
       <c r="B1080" s="3" t="s">
         <v>51</v>
@@ -40360,7 +40372,7 @@
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="11" t="s">
-        <v>876</v>
+        <v>1358</v>
       </c>
       <c r="B1081" s="3" t="s">
         <v>51</v>
@@ -40383,34 +40395,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1082" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" s="11" t="s">
-        <v>1183</v>
+        <v>876</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="C1082" s="3" t="s">
-        <v>265</v>
+        <v>1756</v>
       </c>
       <c r="D1082" s="4">
-        <v>4301051410</v>
+        <v>4301011703</v>
       </c>
       <c r="E1082" s="3">
-        <v>4680115882164</v>
+        <v>4680115882133</v>
       </c>
       <c r="F1082" s="5" t="s">
-        <v>300</v>
+        <v>1757</v>
       </c>
       <c r="G1082" s="1"/>
       <c r="H1082" s="1">
         <f>VLOOKUP(E1082,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1083" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="11" t="s">
-        <v>1771</v>
+        <v>1183</v>
       </c>
       <c r="B1083" s="3" t="s">
         <v>264</v>
@@ -40435,7 +40447,7 @@
     </row>
     <row r="1084" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="11" t="s">
-        <v>1392</v>
+        <v>1771</v>
       </c>
       <c r="B1084" s="3" t="s">
         <v>264</v>
@@ -40460,7 +40472,7 @@
     </row>
     <row r="1085" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="11" t="s">
-        <v>843</v>
+        <v>1392</v>
       </c>
       <c r="B1085" s="3" t="s">
         <v>264</v>
@@ -40477,7 +40489,7 @@
       <c r="F1085" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G1085" s="6"/>
+      <c r="G1085" s="1"/>
       <c r="H1085" s="1">
         <f>VLOOKUP(E1085,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -40485,22 +40497,22 @@
     </row>
     <row r="1086" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="11" t="s">
-        <v>1182</v>
+        <v>843</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C1086" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D1086" s="4">
-        <v>4301051407</v>
+        <v>4301051410</v>
       </c>
       <c r="E1086" s="3">
-        <v>4680115882195</v>
+        <v>4680115882164</v>
       </c>
       <c r="F1086" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G1086" s="6"/>
       <c r="H1086" s="1">
@@ -40510,7 +40522,7 @@
     </row>
     <row r="1087" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="11" t="s">
-        <v>1772</v>
+        <v>1182</v>
       </c>
       <c r="B1087" s="3" t="s">
         <v>260</v>
@@ -40535,7 +40547,7 @@
     </row>
     <row r="1088" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="11" t="s">
-        <v>1318</v>
+        <v>1772</v>
       </c>
       <c r="B1088" s="3" t="s">
         <v>260</v>
@@ -40560,7 +40572,7 @@
     </row>
     <row r="1089" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1089" s="11" t="s">
-        <v>842</v>
+        <v>1318</v>
       </c>
       <c r="B1089" s="3" t="s">
         <v>260</v>
@@ -40585,24 +40597,24 @@
     </row>
     <row r="1090" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="11" t="s">
-        <v>900</v>
+        <v>842</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>846</v>
+        <v>260</v>
       </c>
       <c r="C1090" s="3" t="s">
-        <v>847</v>
+        <v>261</v>
       </c>
       <c r="D1090" s="4">
-        <v>4301031220</v>
+        <v>4301051407</v>
       </c>
       <c r="E1090" s="3">
-        <v>4680115882669</v>
+        <v>4680115882195</v>
       </c>
       <c r="F1090" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="G1090" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="G1090" s="6"/>
       <c r="H1090" s="1">
         <f>VLOOKUP(E1090,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -40610,7 +40622,7 @@
     </row>
     <row r="1091" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="11" t="s">
-        <v>1821</v>
+        <v>900</v>
       </c>
       <c r="B1091" s="3" t="s">
         <v>846</v>
@@ -40635,7 +40647,7 @@
     </row>
     <row r="1092" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="11" t="s">
-        <v>1580</v>
+        <v>1821</v>
       </c>
       <c r="B1092" s="3" t="s">
         <v>846</v>
@@ -40660,7 +40672,7 @@
     </row>
     <row r="1093" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="11" t="s">
-        <v>1521</v>
+        <v>1580</v>
       </c>
       <c r="B1093" s="3" t="s">
         <v>846</v>
@@ -40685,7 +40697,7 @@
     </row>
     <row r="1094" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1094" s="11" t="s">
-        <v>1774</v>
+        <v>1521</v>
       </c>
       <c r="B1094" s="3" t="s">
         <v>846</v>
@@ -40710,7 +40722,7 @@
     </row>
     <row r="1095" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1095" s="11" t="s">
-        <v>1540</v>
+        <v>1774</v>
       </c>
       <c r="B1095" s="3" t="s">
         <v>846</v>
@@ -40735,7 +40747,7 @@
     </row>
     <row r="1096" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1096" s="11" t="s">
-        <v>849</v>
+        <v>1540</v>
       </c>
       <c r="B1096" s="3" t="s">
         <v>846</v>
@@ -40760,22 +40772,22 @@
     </row>
     <row r="1097" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1097" s="11" t="s">
-        <v>901</v>
+        <v>849</v>
       </c>
       <c r="B1097" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C1097" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D1097" s="4">
-        <v>4301031221</v>
+        <v>4301031220</v>
       </c>
       <c r="E1097" s="3">
-        <v>4680115882676</v>
+        <v>4680115882669</v>
       </c>
       <c r="F1097" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G1097" s="1"/>
       <c r="H1097" s="1">
@@ -40785,7 +40797,7 @@
     </row>
     <row r="1098" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1098" s="11" t="s">
-        <v>1822</v>
+        <v>901</v>
       </c>
       <c r="B1098" s="3" t="s">
         <v>850</v>
@@ -40810,7 +40822,7 @@
     </row>
     <row r="1099" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1099" s="11" t="s">
-        <v>1579</v>
+        <v>1822</v>
       </c>
       <c r="B1099" s="3" t="s">
         <v>850</v>
@@ -40835,7 +40847,7 @@
     </row>
     <row r="1100" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1100" s="11" t="s">
-        <v>1773</v>
+        <v>1579</v>
       </c>
       <c r="B1100" s="3" t="s">
         <v>850</v>
@@ -40860,7 +40872,7 @@
     </row>
     <row r="1101" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1101" s="11" t="s">
-        <v>1522</v>
+        <v>1773</v>
       </c>
       <c r="B1101" s="3" t="s">
         <v>850</v>
@@ -40885,7 +40897,7 @@
     </row>
     <row r="1102" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1102" s="11" t="s">
-        <v>1651</v>
+        <v>1522</v>
       </c>
       <c r="B1102" s="3" t="s">
         <v>850</v>
@@ -40910,7 +40922,7 @@
     </row>
     <row r="1103" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1103" s="11" t="s">
-        <v>1541</v>
+        <v>1651</v>
       </c>
       <c r="B1103" s="3" t="s">
         <v>850</v>
@@ -40935,7 +40947,7 @@
     </row>
     <row r="1104" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1104" s="11" t="s">
-        <v>853</v>
+        <v>1541</v>
       </c>
       <c r="B1104" s="3" t="s">
         <v>850</v>
@@ -40960,22 +40972,22 @@
     </row>
     <row r="1105" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1105" s="11" t="s">
-        <v>898</v>
+        <v>853</v>
       </c>
       <c r="B1105" s="3" t="s">
-        <v>216</v>
+        <v>850</v>
       </c>
       <c r="C1105" s="3" t="s">
-        <v>217</v>
+        <v>851</v>
       </c>
       <c r="D1105" s="4">
-        <v>4301031224</v>
+        <v>4301031221</v>
       </c>
       <c r="E1105" s="3">
-        <v>4680115882683</v>
+        <v>4680115882676</v>
       </c>
       <c r="F1105" s="5" t="s">
-        <v>244</v>
+        <v>852</v>
       </c>
       <c r="G1105" s="1"/>
       <c r="H1105" s="1">
@@ -40985,7 +40997,7 @@
     </row>
     <row r="1106" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1106" s="11" t="s">
-        <v>1603</v>
+        <v>898</v>
       </c>
       <c r="B1106" s="3" t="s">
         <v>216</v>
@@ -41010,7 +41022,7 @@
     </row>
     <row r="1107" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1107" s="11" t="s">
-        <v>1819</v>
+        <v>1603</v>
       </c>
       <c r="B1107" s="3" t="s">
         <v>216</v>
@@ -41035,7 +41047,7 @@
     </row>
     <row r="1108" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1108" s="11" t="s">
-        <v>1582</v>
+        <v>1819</v>
       </c>
       <c r="B1108" s="3" t="s">
         <v>216</v>
@@ -41060,7 +41072,7 @@
     </row>
     <row r="1109" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1109" s="11" t="s">
-        <v>1714</v>
+        <v>1582</v>
       </c>
       <c r="B1109" s="3" t="s">
         <v>216</v>
@@ -41085,7 +41097,7 @@
     </row>
     <row r="1110" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1110" s="11" t="s">
-        <v>1291</v>
+        <v>1714</v>
       </c>
       <c r="B1110" s="3" t="s">
         <v>216</v>
@@ -41110,7 +41122,7 @@
     </row>
     <row r="1111" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1111" s="11" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="B1111" s="3" t="s">
         <v>216</v>
@@ -41135,7 +41147,7 @@
     </row>
     <row r="1112" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1112" s="11" t="s">
-        <v>1538</v>
+        <v>1319</v>
       </c>
       <c r="B1112" s="3" t="s">
         <v>216</v>
@@ -41160,7 +41172,7 @@
     </row>
     <row r="1113" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1113" s="11" t="s">
-        <v>844</v>
+        <v>1538</v>
       </c>
       <c r="B1113" s="3" t="s">
         <v>216</v>
@@ -41185,22 +41197,22 @@
     </row>
     <row r="1114" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1114" s="11" t="s">
-        <v>899</v>
+        <v>844</v>
       </c>
       <c r="B1114" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C1114" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D1114" s="4">
-        <v>4301031230</v>
+        <v>4301031224</v>
       </c>
       <c r="E1114" s="3">
-        <v>4680115882690</v>
+        <v>4680115882683</v>
       </c>
       <c r="F1114" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G1114" s="1"/>
       <c r="H1114" s="1">
@@ -41210,7 +41222,7 @@
     </row>
     <row r="1115" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1115" s="11" t="s">
-        <v>1604</v>
+        <v>899</v>
       </c>
       <c r="B1115" s="3" t="s">
         <v>218</v>
@@ -41235,7 +41247,7 @@
     </row>
     <row r="1116" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1116" s="11" t="s">
-        <v>1820</v>
+        <v>1604</v>
       </c>
       <c r="B1116" s="3" t="s">
         <v>218</v>
@@ -41260,7 +41272,7 @@
     </row>
     <row r="1117" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1117" s="11" t="s">
-        <v>1581</v>
+        <v>1820</v>
       </c>
       <c r="B1117" s="3" t="s">
         <v>218</v>
@@ -41285,7 +41297,7 @@
     </row>
     <row r="1118" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1118" s="11" t="s">
-        <v>1715</v>
+        <v>1581</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>218</v>
@@ -41310,7 +41322,7 @@
     </row>
     <row r="1119" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1119" s="11" t="s">
-        <v>1292</v>
+        <v>1715</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>218</v>
@@ -41335,7 +41347,7 @@
     </row>
     <row r="1120" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="11" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>218</v>
@@ -41360,7 +41372,7 @@
     </row>
     <row r="1121" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="11" t="s">
-        <v>1537</v>
+        <v>1320</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>218</v>
@@ -41385,7 +41397,7 @@
     </row>
     <row r="1122" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="11" t="s">
-        <v>845</v>
+        <v>1537</v>
       </c>
       <c r="B1122" s="3" t="s">
         <v>218</v>
@@ -41408,34 +41420,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="11" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B1123" s="3" t="s">
-        <v>535</v>
+        <v>218</v>
       </c>
       <c r="C1123" s="3" t="s">
-        <v>1110</v>
+        <v>219</v>
       </c>
       <c r="D1123" s="4">
-        <v>4301031248</v>
+        <v>4301031230</v>
       </c>
       <c r="E1123" s="3">
-        <v>4680115883093</v>
+        <v>4680115882690</v>
       </c>
       <c r="F1123" s="5" t="s">
-        <v>1111</v>
+        <v>245</v>
       </c>
       <c r="G1123" s="1"/>
       <c r="H1123" s="1">
         <f>VLOOKUP(E1123,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1124" s="11" t="s">
-        <v>994</v>
+        <v>828</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>535</v>
@@ -41460,7 +41472,7 @@
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1125" s="11" t="s">
-        <v>1800</v>
+        <v>994</v>
       </c>
       <c r="B1125" s="3" t="s">
         <v>535</v>
@@ -41485,7 +41497,7 @@
     </row>
     <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1126" s="11" t="s">
-        <v>779</v>
+        <v>1800</v>
       </c>
       <c r="B1126" s="3" t="s">
         <v>535</v>
@@ -41510,7 +41522,7 @@
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1127" s="11" t="s">
-        <v>1157</v>
+        <v>779</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>535</v>
@@ -41534,8 +41546,8 @@
       </c>
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1128" s="21" t="s">
-        <v>538</v>
+      <c r="A1128" s="11" t="s">
+        <v>1157</v>
       </c>
       <c r="B1128" s="3" t="s">
         <v>535</v>
@@ -41560,7 +41572,7 @@
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129" s="21" t="s">
-        <v>1823</v>
+        <v>538</v>
       </c>
       <c r="B1129" s="3" t="s">
         <v>535</v>
@@ -41585,7 +41597,7 @@
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1130" s="21" t="s">
-        <v>1734</v>
+        <v>1823</v>
       </c>
       <c r="B1130" s="3" t="s">
         <v>535</v>
@@ -41610,7 +41622,7 @@
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1131" s="21" t="s">
-        <v>1221</v>
+        <v>1734</v>
       </c>
       <c r="B1131" s="3" t="s">
         <v>535</v>
@@ -41635,7 +41647,7 @@
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1132" s="21" t="s">
-        <v>1411</v>
+        <v>1221</v>
       </c>
       <c r="B1132" s="3" t="s">
         <v>535</v>
@@ -41660,7 +41672,7 @@
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133" s="21" t="s">
-        <v>1792</v>
+        <v>1411</v>
       </c>
       <c r="B1133" s="3" t="s">
         <v>535</v>
@@ -41684,8 +41696,8 @@
       </c>
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1134" s="11" t="s">
-        <v>1690</v>
+      <c r="A1134" s="21" t="s">
+        <v>1792</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>535</v>
@@ -41708,24 +41720,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1135" s="11" t="s">
-        <v>781</v>
+        <v>1690</v>
       </c>
       <c r="B1135" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1135" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D1135" s="4">
-        <v>4301031250</v>
+        <v>4301031248</v>
       </c>
       <c r="E1135" s="3">
-        <v>4680115883109</v>
+        <v>4680115883093</v>
       </c>
       <c r="F1135" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G1135" s="1"/>
       <c r="H1135" s="1">
@@ -41735,7 +41747,7 @@
     </row>
     <row r="1136" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="11" t="s">
-        <v>829</v>
+        <v>781</v>
       </c>
       <c r="B1136" s="3" t="s">
         <v>536</v>
@@ -41760,7 +41772,7 @@
     </row>
     <row r="1137" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="11" t="s">
-        <v>1578</v>
+        <v>829</v>
       </c>
       <c r="B1137" s="3" t="s">
         <v>536</v>
@@ -41785,7 +41797,7 @@
     </row>
     <row r="1138" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="11" t="s">
-        <v>982</v>
+        <v>1578</v>
       </c>
       <c r="B1138" s="3" t="s">
         <v>536</v>
@@ -41810,7 +41822,7 @@
     </row>
     <row r="1139" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="11" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>536</v>
@@ -41835,7 +41847,7 @@
     </row>
     <row r="1140" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="11" t="s">
-        <v>1222</v>
+        <v>1020</v>
       </c>
       <c r="B1140" s="3" t="s">
         <v>536</v>
@@ -41860,7 +41872,7 @@
     </row>
     <row r="1141" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="11" t="s">
-        <v>1425</v>
+        <v>1222</v>
       </c>
       <c r="B1141" s="3" t="s">
         <v>536</v>
@@ -41885,7 +41897,7 @@
     </row>
     <row r="1142" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="11" t="s">
-        <v>1613</v>
+        <v>1425</v>
       </c>
       <c r="B1142" s="3" t="s">
         <v>536</v>
@@ -41910,7 +41922,7 @@
     </row>
     <row r="1143" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="11" t="s">
-        <v>1691</v>
+        <v>1613</v>
       </c>
       <c r="B1143" s="3" t="s">
         <v>536</v>
@@ -41935,22 +41947,22 @@
     </row>
     <row r="1144" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="11" t="s">
-        <v>780</v>
+        <v>1691</v>
       </c>
       <c r="B1144" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C1144" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="D1144" s="4">
-        <v>4301031252</v>
+        <v>4301031250</v>
       </c>
       <c r="E1144" s="3">
-        <v>4680115883116</v>
+        <v>4680115883109</v>
       </c>
       <c r="F1144" s="5" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="G1144" s="1"/>
       <c r="H1144" s="1">
@@ -41960,7 +41972,7 @@
     </row>
     <row r="1145" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="11" t="s">
-        <v>827</v>
+        <v>780</v>
       </c>
       <c r="B1145" s="3" t="s">
         <v>534</v>
@@ -41985,7 +41997,7 @@
     </row>
     <row r="1146" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="11" t="s">
-        <v>537</v>
+        <v>827</v>
       </c>
       <c r="B1146" s="3" t="s">
         <v>534</v>
@@ -42010,7 +42022,7 @@
     </row>
     <row r="1147" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="11" t="s">
-        <v>967</v>
+        <v>537</v>
       </c>
       <c r="B1147" s="3" t="s">
         <v>534</v>
@@ -42035,7 +42047,7 @@
     </row>
     <row r="1148" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="11" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="B1148" s="3" t="s">
         <v>534</v>
@@ -42060,7 +42072,7 @@
     </row>
     <row r="1149" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="11" t="s">
-        <v>1220</v>
+        <v>993</v>
       </c>
       <c r="B1149" s="3" t="s">
         <v>534</v>
@@ -42085,7 +42097,7 @@
     </row>
     <row r="1150" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="11" t="s">
-        <v>1826</v>
+        <v>1220</v>
       </c>
       <c r="B1150" s="3" t="s">
         <v>534</v>
@@ -42110,7 +42122,7 @@
     </row>
     <row r="1151" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="11" t="s">
-        <v>1768</v>
+        <v>1826</v>
       </c>
       <c r="B1151" s="3" t="s">
         <v>534</v>
@@ -42129,12 +42141,13 @@
       </c>
       <c r="G1151" s="1"/>
       <c r="H1151" s="1">
+        <f>VLOOKUP(E1151,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1152" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="11" t="s">
-        <v>1793</v>
+        <v>1768</v>
       </c>
       <c r="B1152" s="3" t="s">
         <v>534</v>
@@ -42158,7 +42171,7 @@
     </row>
     <row r="1153" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="11" t="s">
-        <v>1689</v>
+        <v>1793</v>
       </c>
       <c r="B1153" s="3" t="s">
         <v>534</v>
@@ -42177,38 +42190,37 @@
       </c>
       <c r="G1153" s="1"/>
       <c r="H1153" s="1">
-        <f>VLOOKUP(E1153,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1154" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="11" t="s">
-        <v>1146</v>
+        <v>1689</v>
       </c>
       <c r="B1154" s="3" t="s">
-        <v>1096</v>
+        <v>534</v>
       </c>
       <c r="C1154" s="3" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="D1154" s="4">
-        <v>4301031257</v>
+        <v>4301031252</v>
       </c>
       <c r="E1154" s="3">
-        <v>4680115883147</v>
+        <v>4680115883116</v>
       </c>
       <c r="F1154" s="5" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="G1154" s="1"/>
       <c r="H1154" s="1">
         <f>VLOOKUP(E1154,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1155" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1155" s="11" t="s">
-        <v>1098</v>
+        <v>1146</v>
       </c>
       <c r="B1155" s="3" t="s">
         <v>1096</v>
@@ -42231,24 +42243,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1156" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1156" s="11" t="s">
-        <v>1148</v>
+        <v>1098</v>
       </c>
       <c r="B1156" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C1156" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D1156" s="4">
-        <v>4301031258</v>
+        <v>4301031257</v>
       </c>
       <c r="E1156" s="3">
-        <v>4680115883161</v>
+        <v>4680115883147</v>
       </c>
       <c r="F1156" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G1156" s="1"/>
       <c r="H1156" s="1">
@@ -42258,7 +42270,7 @@
     </row>
     <row r="1157" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1157" s="11" t="s">
-        <v>1101</v>
+        <v>1148</v>
       </c>
       <c r="B1157" s="3" t="s">
         <v>1099</v>
@@ -42281,34 +42293,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1158" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1158" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1158" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1158" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E1158" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="F1158" s="1" t="s">
-        <v>716</v>
+        <v>1101</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1158" s="4">
+        <v>4301031258</v>
+      </c>
+      <c r="E1158" s="3">
+        <v>4680115883161</v>
+      </c>
+      <c r="F1158" s="5" t="s">
+        <v>1101</v>
       </c>
       <c r="G1158" s="1"/>
-      <c r="H1158" s="1" t="e">
+      <c r="H1158" s="1">
         <f>VLOOKUP(E1158,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1159" s="11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B1159" s="1" t="s">
         <v>716</v>
@@ -42333,7 +42345,7 @@
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1160" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1160" s="1" t="s">
         <v>716</v>
@@ -42356,24 +42368,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1161" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1161" s="11" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B1161" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C1161" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D1161" s="4">
-        <v>4301031198</v>
-      </c>
-      <c r="E1161" s="3">
-        <v>4607091383348</v>
-      </c>
-      <c r="F1161" s="5" t="s">
-        <v>537</v>
+        <v>720</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1161" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="F1161" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="G1161" s="1"/>
       <c r="H1161" s="1" t="e">
@@ -42383,22 +42395,22 @@
     </row>
     <row r="1162" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1162" s="11" t="s">
-        <v>1191</v>
+        <v>1200</v>
       </c>
       <c r="B1162" s="3" t="s">
-        <v>1189</v>
+        <v>534</v>
       </c>
       <c r="C1162" s="3" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
       <c r="D1162" s="4">
-        <v>4301032044</v>
+        <v>4301031198</v>
       </c>
       <c r="E1162" s="3">
-        <v>4680115883000</v>
+        <v>4607091383348</v>
       </c>
       <c r="F1162" s="5" t="s">
-        <v>1191</v>
+        <v>537</v>
       </c>
       <c r="G1162" s="1"/>
       <c r="H1162" s="1" t="e">
@@ -42408,7 +42420,7 @@
     </row>
     <row r="1163" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1163" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1189</v>
@@ -42433,22 +42445,22 @@
     </row>
     <row r="1164" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1164" s="11" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B1164" s="3" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="C1164" s="3" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D1164" s="4">
-        <v>4301032042</v>
+        <v>4301032044</v>
       </c>
       <c r="E1164" s="3">
-        <v>4680115883017</v>
+        <v>4680115883000</v>
       </c>
       <c r="F1164" s="5" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="G1164" s="1"/>
       <c r="H1164" s="1" t="e">
@@ -42458,32 +42470,32 @@
     </row>
     <row r="1165" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1165" s="11" t="s">
-        <v>1788</v>
+        <v>1188</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C1165" s="3" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="D1165" s="4">
-        <v>4301170008</v>
+        <v>4301032042</v>
       </c>
       <c r="E1165" s="3">
-        <v>4680115882980</v>
+        <v>4680115883017</v>
       </c>
       <c r="F1165" s="5" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="G1165" s="1"/>
-      <c r="H1165" s="1">
+      <c r="H1165" s="1" t="e">
         <f>VLOOKUP(E1165,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1166" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1166" s="11" t="s">
-        <v>1196</v>
+        <v>1788</v>
       </c>
       <c r="B1166" s="3" t="s">
         <v>1193</v>
@@ -42508,82 +42520,82 @@
     </row>
     <row r="1167" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1167" s="11" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="B1167" s="3" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="C1167" s="3" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="D1167" s="4">
-        <v>4301011450</v>
+        <v>4301170008</v>
       </c>
       <c r="E1167" s="3">
-        <v>4680115881402</v>
+        <v>4680115882980</v>
       </c>
       <c r="F1167" s="5" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="G1167" s="1"/>
       <c r="H1167" s="1">
         <f>VLOOKUP(E1167,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1168" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1168" s="11" t="s">
-        <v>1247</v>
+        <v>1210</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>1248</v>
+        <v>1207</v>
       </c>
       <c r="C1168" s="3" t="s">
-        <v>1249</v>
+        <v>1208</v>
       </c>
       <c r="D1168" s="4">
-        <v>4301020262</v>
+        <v>4301011450</v>
       </c>
       <c r="E1168" s="3">
-        <v>4680115882935</v>
+        <v>4680115881402</v>
       </c>
       <c r="F1168" s="5" t="s">
-        <v>1250</v>
+        <v>1209</v>
       </c>
       <c r="G1168" s="1"/>
       <c r="H1168" s="1">
         <f>VLOOKUP(E1168,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1169" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1169" s="11" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C1169" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D1169" s="4">
-        <v>4301170009</v>
+        <v>4301020262</v>
       </c>
       <c r="E1169" s="3">
-        <v>4680115882997</v>
+        <v>4680115882935</v>
       </c>
       <c r="F1169" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G1169" s="1"/>
       <c r="H1169" s="1">
         <f>VLOOKUP(E1169,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1170" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1170" s="11" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B1170" s="3" t="s">
         <v>1252</v>
@@ -42608,32 +42620,32 @@
     </row>
     <row r="1171" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1171" s="11" t="s">
-        <v>1622</v>
+        <v>1251</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C1171" s="3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D1171" s="4">
-        <v>4301011367</v>
+        <v>4301170009</v>
       </c>
       <c r="E1171" s="3">
-        <v>4680115880603</v>
+        <v>4680115882997</v>
       </c>
       <c r="F1171" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G1171" s="1"/>
       <c r="H1171" s="1">
         <f>VLOOKUP(E1171,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1172" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1172" s="11" t="s">
-        <v>1255</v>
+        <v>1622</v>
       </c>
       <c r="B1172" s="3" t="s">
         <v>1256</v>
@@ -42658,22 +42670,22 @@
     </row>
     <row r="1173" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1173" s="11" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C1173" s="3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D1173" s="4">
-        <v>4301011366</v>
+        <v>4301011367</v>
       </c>
       <c r="E1173" s="3">
-        <v>4607091389982</v>
+        <v>4680115880603</v>
       </c>
       <c r="F1173" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G1173" s="1"/>
       <c r="H1173" s="1">
@@ -42683,82 +42695,82 @@
     </row>
     <row r="1174" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1174" s="11" t="s">
-        <v>1289</v>
+        <v>1259</v>
       </c>
       <c r="B1174" s="3" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
       <c r="C1174" s="3" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="D1174" s="4">
-        <v>4301032043</v>
+        <v>4301011366</v>
       </c>
       <c r="E1174" s="3">
-        <v>4680115883031</v>
+        <v>4607091389982</v>
       </c>
       <c r="F1174" s="5" t="s">
-        <v>1288</v>
+        <v>1262</v>
       </c>
       <c r="G1174" s="1"/>
-      <c r="H1174" s="1" t="e">
+      <c r="H1174" s="1">
         <f>VLOOKUP(E1174,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1175" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1175" s="11" t="s">
-        <v>1312</v>
+        <v>1289</v>
       </c>
       <c r="B1175" s="3" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="C1175" s="3" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="D1175" s="4">
-        <v>4301031247</v>
+        <v>4301032043</v>
       </c>
       <c r="E1175" s="3">
-        <v>4680115883048</v>
+        <v>4680115883031</v>
       </c>
       <c r="F1175" s="5" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="G1175" s="1"/>
-      <c r="H1175" s="1">
+      <c r="H1175" s="1" t="e">
         <f>VLOOKUP(E1175,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1176" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="11" t="s">
-        <v>1463</v>
+        <v>1312</v>
       </c>
       <c r="B1176" s="3" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="C1176" s="3" t="s">
-        <v>1343</v>
+        <v>1314</v>
       </c>
       <c r="D1176" s="4">
-        <v>4301031249</v>
+        <v>4301031247</v>
       </c>
       <c r="E1176" s="3">
-        <v>4680115882072</v>
+        <v>4680115883048</v>
       </c>
       <c r="F1176" s="5" t="s">
-        <v>1341</v>
+        <v>1315</v>
       </c>
       <c r="G1176" s="1"/>
       <c r="H1176" s="1">
         <f>VLOOKUP(E1176,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1177" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="11" t="s">
-        <v>1341</v>
+        <v>1463</v>
       </c>
       <c r="B1177" s="3" t="s">
         <v>1342</v>
@@ -42783,32 +42795,32 @@
     </row>
     <row r="1178" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="11" t="s">
-        <v>1395</v>
+        <v>1341</v>
       </c>
       <c r="B1178" s="3" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="C1178" s="3" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="D1178" s="4">
-        <v>4301011562</v>
+        <v>4301031249</v>
       </c>
       <c r="E1178" s="3">
-        <v>4680115882577</v>
+        <v>4680115882072</v>
       </c>
       <c r="F1178" s="5" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="G1178" s="1"/>
       <c r="H1178" s="1">
         <f>VLOOKUP(E1178,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1179" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="11" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="B1179" s="3" t="s">
         <v>1351</v>
@@ -42833,7 +42845,7 @@
     </row>
     <row r="1180" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="11" t="s">
-        <v>1353</v>
+        <v>1416</v>
       </c>
       <c r="B1180" s="3" t="s">
         <v>1351</v>
@@ -42858,7 +42870,7 @@
     </row>
     <row r="1181" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="11" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B1181" s="3" t="s">
         <v>1351</v>
@@ -42883,32 +42895,32 @@
     </row>
     <row r="1182" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="11" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B1182" s="3" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C1182" s="3" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D1182" s="4">
-        <v>4301051476</v>
+        <v>4301011562</v>
       </c>
       <c r="E1182" s="3">
-        <v>4680115882584</v>
+        <v>4680115882577</v>
       </c>
       <c r="F1182" s="5" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="G1182" s="1"/>
       <c r="H1182" s="1">
         <f>VLOOKUP(E1182,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1183" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="11" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B1183" s="3" t="s">
         <v>1355</v>
@@ -42933,7 +42945,7 @@
     </row>
     <row r="1184" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="11" t="s">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>1355</v>
@@ -42958,7 +42970,7 @@
     </row>
     <row r="1185" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="11" t="s">
-        <v>1390</v>
+        <v>1417</v>
       </c>
       <c r="B1185" s="3" t="s">
         <v>1355</v>
@@ -42983,32 +42995,32 @@
     </row>
     <row r="1186" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="11" t="s">
-        <v>1475</v>
+        <v>1390</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>1404</v>
+        <v>1355</v>
       </c>
       <c r="C1186" s="3" t="s">
-        <v>1405</v>
+        <v>1356</v>
       </c>
       <c r="D1186" s="4">
-        <v>4301031234</v>
+        <v>4301051476</v>
       </c>
       <c r="E1186" s="3">
-        <v>4680115883444</v>
+        <v>4680115882584</v>
       </c>
       <c r="F1186" s="5" t="s">
-        <v>1406</v>
+        <v>1357</v>
       </c>
       <c r="G1186" s="1"/>
       <c r="H1186" s="1">
         <f>VLOOKUP(E1186,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1187" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="11" t="s">
-        <v>1407</v>
+        <v>1475</v>
       </c>
       <c r="B1187" s="3" t="s">
         <v>1404</v>
@@ -43033,22 +43045,22 @@
     </row>
     <row r="1188" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="11" t="s">
-        <v>1635</v>
+        <v>1407</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>1459</v>
+        <v>1404</v>
       </c>
       <c r="C1188" s="3" t="s">
-        <v>1460</v>
+        <v>1405</v>
       </c>
       <c r="D1188" s="4">
-        <v>4301020254</v>
+        <v>4301031234</v>
       </c>
       <c r="E1188" s="3">
-        <v>4680115881914</v>
+        <v>4680115883444</v>
       </c>
       <c r="F1188" s="5" t="s">
-        <v>1461</v>
+        <v>1406</v>
       </c>
       <c r="G1188" s="1"/>
       <c r="H1188" s="1">
@@ -43058,7 +43070,7 @@
     </row>
     <row r="1189" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="11" t="s">
-        <v>1462</v>
+        <v>1635</v>
       </c>
       <c r="B1189" s="3" t="s">
         <v>1459</v>
@@ -43083,47 +43095,47 @@
     </row>
     <row r="1190" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="11" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="C1190" s="3" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="D1190" s="4">
-        <v>4301031254</v>
+        <v>4301020254</v>
       </c>
       <c r="E1190" s="3">
-        <v>4680115883154</v>
+        <v>4680115881914</v>
       </c>
       <c r="F1190" s="5" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="G1190" s="1"/>
       <c r="H1190" s="1">
         <f>VLOOKUP(E1190,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1191" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="11" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1191" s="3" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="C1191" s="3" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="D1191" s="4">
-        <v>4301031256</v>
+        <v>4301031254</v>
       </c>
       <c r="E1191" s="3">
-        <v>4680115883178</v>
+        <v>4680115883154</v>
       </c>
       <c r="F1191" s="5" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="G1191" s="1"/>
       <c r="H1191" s="1">
@@ -43133,32 +43145,32 @@
     </row>
     <row r="1192" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="11" t="s">
-        <v>658</v>
+        <v>1470</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>1307</v>
+        <v>1471</v>
       </c>
       <c r="C1192" s="3" t="s">
-        <v>1490</v>
+        <v>1472</v>
       </c>
       <c r="D1192" s="4">
-        <v>4301031244</v>
+        <v>4301031256</v>
       </c>
       <c r="E1192" s="3">
-        <v>4640242180595</v>
+        <v>4680115883178</v>
       </c>
       <c r="F1192" s="5" t="s">
-        <v>1491</v>
+        <v>1473</v>
       </c>
       <c r="G1192" s="1"/>
       <c r="H1192" s="1">
         <f>VLOOKUP(E1192,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1193" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B1193" s="3" t="s">
         <v>1307</v>
@@ -43183,7 +43195,7 @@
     </row>
     <row r="1194" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="11" t="s">
-        <v>1429</v>
+        <v>661</v>
       </c>
       <c r="B1194" s="3" t="s">
         <v>1307</v>
@@ -43208,7 +43220,7 @@
     </row>
     <row r="1195" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="11" t="s">
-        <v>942</v>
+        <v>1429</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>1307</v>
@@ -43232,8 +43244,8 @@
       </c>
     </row>
     <row r="1196" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1196" s="22" t="s">
-        <v>611</v>
+      <c r="A1196" s="11" t="s">
+        <v>942</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>1307</v>
@@ -43257,8 +43269,8 @@
       </c>
     </row>
     <row r="1197" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1197" s="11" t="s">
-        <v>796</v>
+      <c r="A1197" s="22" t="s">
+        <v>611</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>1307</v>
@@ -43275,9 +43287,7 @@
       <c r="F1197" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="G1197" s="1" t="s">
-        <v>1536</v>
-      </c>
+      <c r="G1197" s="1"/>
       <c r="H1197" s="1">
         <f>VLOOKUP(E1197,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -43285,7 +43295,7 @@
     </row>
     <row r="1198" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="11" t="s">
-        <v>1366</v>
+        <v>796</v>
       </c>
       <c r="B1198" s="3" t="s">
         <v>1307</v>
@@ -43302,7 +43312,9 @@
       <c r="F1198" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="G1198" s="1"/>
+      <c r="G1198" s="1" t="s">
+        <v>1536</v>
+      </c>
       <c r="H1198" s="1">
         <f>VLOOKUP(E1198,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -43310,7 +43322,7 @@
     </row>
     <row r="1199" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="11" t="s">
-        <v>1013</v>
+        <v>1366</v>
       </c>
       <c r="B1199" s="3" t="s">
         <v>1307</v>
@@ -43335,7 +43347,7 @@
     </row>
     <row r="1200" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1200" s="11" t="s">
-        <v>1731</v>
+        <v>1013</v>
       </c>
       <c r="B1200" s="3" t="s">
         <v>1307</v>
@@ -43360,7 +43372,7 @@
     </row>
     <row r="1201" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1201" s="11" t="s">
-        <v>1615</v>
+        <v>1731</v>
       </c>
       <c r="B1201" s="3" t="s">
         <v>1307</v>
@@ -43385,7 +43397,7 @@
     </row>
     <row r="1202" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="11" t="s">
-        <v>1306</v>
+        <v>1615</v>
       </c>
       <c r="B1202" s="3" t="s">
         <v>1307</v>
@@ -43402,9 +43414,7 @@
       <c r="F1202" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="G1202" s="1" t="s">
-        <v>1545</v>
-      </c>
+      <c r="G1202" s="1"/>
       <c r="H1202" s="1">
         <f>VLOOKUP(E1202,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -43412,7 +43422,7 @@
     </row>
     <row r="1203" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1203" s="11" t="s">
-        <v>695</v>
+        <v>1306</v>
       </c>
       <c r="B1203" s="3" t="s">
         <v>1307</v>
@@ -43430,7 +43440,7 @@
         <v>1491</v>
       </c>
       <c r="G1203" s="1" t="s">
-        <v>1492</v>
+        <v>1545</v>
       </c>
       <c r="H1203" s="1">
         <f>VLOOKUP(E1203,[1]Лист1!$D:$M,10,0)</f>
@@ -43439,32 +43449,34 @@
     </row>
     <row r="1204" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1204" s="11" t="s">
-        <v>1501</v>
+        <v>695</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>545</v>
+        <v>1307</v>
       </c>
       <c r="C1204" s="3" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="D1204" s="4">
-        <v>4301011585</v>
+        <v>4301031244</v>
       </c>
       <c r="E1204" s="3">
-        <v>4640242180441</v>
+        <v>4640242180595</v>
       </c>
       <c r="F1204" s="5" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G1204" s="1"/>
+        <v>1491</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>1492</v>
+      </c>
       <c r="H1204" s="1">
         <f>VLOOKUP(E1204,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1205" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1205" s="11" t="s">
-        <v>1787</v>
+        <v>1501</v>
       </c>
       <c r="B1205" s="3" t="s">
         <v>545</v>
@@ -43489,7 +43501,7 @@
     </row>
     <row r="1206" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1206" s="11" t="s">
-        <v>1499</v>
+        <v>1787</v>
       </c>
       <c r="B1206" s="3" t="s">
         <v>545</v>
@@ -43512,49 +43524,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1207" s="11" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C1207" s="3" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D1207" s="4">
-        <v>4301051510</v>
+        <v>4301011585</v>
       </c>
       <c r="E1207" s="3">
-        <v>4640242180540</v>
+        <v>4640242180441</v>
       </c>
       <c r="F1207" s="5" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="G1207" s="1"/>
       <c r="H1207" s="1">
         <f>VLOOKUP(E1207,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1208" s="11" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C1208" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D1208" s="4">
-        <v>4301051508</v>
+        <v>4301051510</v>
       </c>
       <c r="E1208" s="3">
-        <v>4640242180557</v>
+        <v>4640242180540</v>
       </c>
       <c r="F1208" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="G1208" s="1"/>
       <c r="H1208" s="1">
@@ -43562,99 +43574,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1209" s="11" t="s">
-        <v>1523</v>
+        <v>1506</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>1524</v>
+        <v>557</v>
       </c>
       <c r="C1209" s="3" t="s">
-        <v>1525</v>
+        <v>1507</v>
       </c>
       <c r="D1209" s="4">
-        <v>4301011483</v>
+        <v>4301051508</v>
       </c>
       <c r="E1209" s="3">
-        <v>4680115881907</v>
+        <v>4640242180557</v>
       </c>
       <c r="F1209" s="5" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="G1209" s="1"/>
       <c r="H1209" s="1">
         <f>VLOOKUP(E1209,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1210" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1210" s="11" t="s">
-        <v>1550</v>
+        <v>1523</v>
       </c>
       <c r="B1210" s="3" t="s">
-        <v>1551</v>
+        <v>1524</v>
       </c>
       <c r="C1210" s="3" t="s">
-        <v>1552</v>
+        <v>1525</v>
       </c>
       <c r="D1210" s="4">
-        <v>4301031255</v>
+        <v>4301011483</v>
       </c>
       <c r="E1210" s="3">
-        <v>4680115883185</v>
+        <v>4680115881907</v>
       </c>
       <c r="F1210" s="5" t="s">
-        <v>1553</v>
+        <v>1523</v>
       </c>
       <c r="G1210" s="1"/>
       <c r="H1210" s="1">
         <f>VLOOKUP(E1210,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1211" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1211" s="11" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="B1211" s="3" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="C1211" s="3" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="D1211" s="4">
-        <v>4301011168</v>
+        <v>4301031255</v>
       </c>
       <c r="E1211" s="3">
-        <v>4607091389999</v>
+        <v>4680115883185</v>
       </c>
       <c r="F1211" s="5" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="G1211" s="1"/>
       <c r="H1211" s="1">
         <f>VLOOKUP(E1211,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1212" s="11" t="s">
-        <v>1625</v>
+        <v>1566</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C1212" s="3" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D1212" s="4">
-        <v>4301020206</v>
+        <v>4301011168</v>
       </c>
       <c r="E1212" s="3">
-        <v>4680115880054</v>
+        <v>4607091389999</v>
       </c>
       <c r="F1212" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="G1212" s="1"/>
       <c r="H1212" s="1">
@@ -43664,7 +43676,7 @@
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1213" s="11" t="s">
-        <v>1816</v>
+        <v>1625</v>
       </c>
       <c r="B1213" s="3" t="s">
         <v>1570</v>
@@ -43689,7 +43701,7 @@
     </row>
     <row r="1214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1214" s="11" t="s">
-        <v>1765</v>
+        <v>1816</v>
       </c>
       <c r="B1214" s="3" t="s">
         <v>1570</v>
@@ -43708,12 +43720,13 @@
       </c>
       <c r="G1214" s="1"/>
       <c r="H1214" s="1">
+        <f>VLOOKUP(E1214,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1215" s="11" t="s">
-        <v>1573</v>
+        <v>1765</v>
       </c>
       <c r="B1215" s="3" t="s">
         <v>1570</v>
@@ -43730,132 +43743,131 @@
       <c r="F1215" s="5" t="s">
         <v>1572</v>
       </c>
-      <c r="G1215" s="1" t="s">
+      <c r="G1215" s="1"/>
+      <c r="H1215" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1216" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1216" s="4">
+        <v>4301020206</v>
+      </c>
+      <c r="E1216" s="3">
+        <v>4680115880054</v>
+      </c>
+      <c r="F1216" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G1216" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="H1215" s="1">
-        <f>VLOOKUP(E1215,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1216" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B1216" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C1216" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D1216" s="4">
-        <v>4301020196</v>
-      </c>
-      <c r="E1216" s="3">
-        <v>4607091389388</v>
-      </c>
-      <c r="F1216" s="5" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G1216" s="1"/>
       <c r="H1216" s="1">
         <f>VLOOKUP(E1216,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1217" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1217" s="11" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="B1217" s="3" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="C1217" s="3" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="D1217" s="4">
-        <v>4301011565</v>
+        <v>4301020196</v>
       </c>
       <c r="E1217" s="3">
-        <v>4680115882539</v>
+        <v>4607091389388</v>
       </c>
       <c r="F1217" s="5" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="G1217" s="1"/>
       <c r="H1217" s="1">
         <f>VLOOKUP(E1217,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1218" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1218" s="11" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B1218" s="3" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C1218" s="3" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="D1218" s="4">
-        <v>4301060351</v>
+        <v>4301011565</v>
       </c>
       <c r="E1218" s="3">
-        <v>4680115881464</v>
+        <v>4680115882539</v>
       </c>
       <c r="F1218" s="5" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="G1218" s="1"/>
       <c r="H1218" s="1">
         <f>VLOOKUP(E1218,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1219" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1219" s="11" t="s">
-        <v>1640</v>
+        <v>1626</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>1641</v>
+        <v>1627</v>
       </c>
       <c r="C1219" s="3" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
       <c r="D1219" s="4">
-        <v>4301011433</v>
+        <v>4301060351</v>
       </c>
       <c r="E1219" s="3">
-        <v>4680115882638</v>
+        <v>4680115881464</v>
       </c>
       <c r="F1219" s="5" t="s">
-        <v>1643</v>
+        <v>1629</v>
       </c>
       <c r="G1219" s="1"/>
       <c r="H1219" s="1">
         <f>VLOOKUP(E1219,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1220" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1220" s="11" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C1220" s="3" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="D1220" s="4">
-        <v>4301011573</v>
+        <v>4301011433</v>
       </c>
       <c r="E1220" s="3">
-        <v>4680115881938</v>
+        <v>4680115882638</v>
       </c>
       <c r="F1220" s="5" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="G1220" s="1"/>
       <c r="H1220" s="1">
@@ -43865,47 +43877,47 @@
     </row>
     <row r="1221" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1221" s="11" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="C1221" s="3" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D1221" s="4">
-        <v>4301060356</v>
+        <v>4301011573</v>
       </c>
       <c r="E1221" s="3">
-        <v>4680115882652</v>
+        <v>4680115881938</v>
       </c>
       <c r="F1221" s="5" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="G1221" s="1"/>
       <c r="H1221" s="1">
         <f>VLOOKUP(E1221,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1222" s="11" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C1222" s="3" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D1222" s="4">
-        <v>4301051480</v>
+        <v>4301060356</v>
       </c>
       <c r="E1222" s="3">
-        <v>4680115882645</v>
+        <v>4680115882652</v>
       </c>
       <c r="F1222" s="5" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="G1222" s="1"/>
       <c r="H1222" s="1">
@@ -43913,68 +43925,107 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1223" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1223" s="11" t="s">
-        <v>1859</v>
+        <v>1660</v>
       </c>
       <c r="B1223" s="3" t="s">
-        <v>1860</v>
+        <v>1661</v>
       </c>
       <c r="C1223" s="3" t="s">
-        <v>1861</v>
+        <v>1662</v>
       </c>
       <c r="D1223" s="4">
-        <v>4301020258</v>
+        <v>4301051480</v>
       </c>
       <c r="E1223" s="3">
-        <v>4680115882775</v>
+        <v>4680115882645</v>
       </c>
       <c r="F1223" s="5" t="s">
-        <v>1862</v>
+        <v>1663</v>
       </c>
       <c r="G1223" s="1"/>
       <c r="H1223" s="1">
         <f>VLOOKUP(E1223,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1224" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1224" s="11" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="C1224" s="3" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="D1224" s="4">
-        <v>4301051479</v>
+        <v>4301020258</v>
       </c>
       <c r="E1224" s="3">
-        <v>4680115882607</v>
+        <v>4680115882775</v>
       </c>
       <c r="F1224" s="5" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="G1224" s="1"/>
       <c r="H1224" s="1">
         <f>VLOOKUP(E1224,[1]Лист1!$D:$M,10,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1225" s="11" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1225" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D1225" s="4">
+        <v>4301051479</v>
+      </c>
+      <c r="E1225" s="3">
+        <v>4680115882607</v>
+      </c>
+      <c r="F1225" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G1225" s="1"/>
+      <c r="H1225" s="1">
+        <f>VLOOKUP(E1225,[1]Лист1!$D:$M,10,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1225" s="11"/>
-      <c r="B1225" s="3"/>
-      <c r="C1225" s="3"/>
-      <c r="D1225" s="4"/>
-      <c r="E1225" s="3"/>
-      <c r="F1225" s="5"/>
-      <c r="G1225" s="1"/>
-      <c r="H1225" s="1"/>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1226" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1226" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1226" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D1226" s="4">
+        <v>4301011625</v>
+      </c>
+      <c r="E1226" s="3">
+        <v>4680115883956</v>
+      </c>
+      <c r="F1226" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G1226" s="1"/>
+      <c r="H1226" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1224" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
+  <autoFilter ref="A1:H1225" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1BA6F5-391A-421D-AC15-D34981251A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B477DF-ACA7-424D-A95F-BD4959618EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1377</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="2055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="2080">
   <si>
     <t>SU002447</t>
   </si>
@@ -6203,6 +6203,81 @@
   </si>
   <si>
     <t>P004049</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Стародворская с окороком» ф/в 0,4 п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003272</t>
+  </si>
+  <si>
+    <t>P003947</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Молочная Стародворская с молоком» ф/в 0,4 п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003274</t>
+  </si>
+  <si>
+    <t>P004067</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Стародворская со шпиком» ф/в 0,37 п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003276</t>
+  </si>
+  <si>
+    <t>P003956</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Стародворская с окороком » Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003271</t>
+  </si>
+  <si>
+    <t>P003945</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Молочная Стародворская с молоком» Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003273</t>
+  </si>
+  <si>
+    <t>P004070</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Стародворская со шпиком» Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003275</t>
+  </si>
+  <si>
+    <t>P003950</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Филедворская с молоком» Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003267</t>
+  </si>
+  <si>
+    <t>P003941</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Филедворская» Вес п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003265</t>
+  </si>
+  <si>
+    <t>P003939</t>
+  </si>
+  <si>
+    <t>456 Колбаса вареная Сочинка ТМ Стародворье в оболочке полиамид 0,45 кг.Мясной продукт.  Поком</t>
   </si>
 </sst>
 </file>
@@ -13921,11 +13996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1371"/>
+  <dimension ref="A1:H1382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21368,7 +21443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>521</v>
       </c>
@@ -40174,7 +40249,7 @@
     </row>
     <row r="1051" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="11" t="s">
-        <v>1782</v>
+        <v>2079</v>
       </c>
       <c r="B1051" s="3" t="s">
         <v>192</v>
@@ -40199,32 +40274,32 @@
     </row>
     <row r="1052" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="11" t="s">
-        <v>687</v>
+        <v>1782</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C1052" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D1052" s="4">
-        <v>4301011437</v>
+        <v>4301011454</v>
       </c>
       <c r="E1052" s="3">
-        <v>4680115881419</v>
+        <v>4680115881396</v>
       </c>
       <c r="F1052" s="5" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="G1052" s="1"/>
       <c r="H1052" s="1">
         <f>VLOOKUP(E1052,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1053" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1053" s="11" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="B1053" s="3" t="s">
         <v>39</v>
@@ -40239,7 +40314,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>705</v>
+        <v>42</v>
       </c>
       <c r="G1053" s="1"/>
       <c r="H1053" s="1">
@@ -40249,7 +40324,7 @@
     </row>
     <row r="1054" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="11" t="s">
-        <v>747</v>
+        <v>704</v>
       </c>
       <c r="B1054" s="3" t="s">
         <v>39</v>
@@ -40264,7 +40339,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F1054" s="5" t="s">
-        <v>42</v>
+        <v>705</v>
       </c>
       <c r="G1054" s="1"/>
       <c r="H1054" s="1">
@@ -40274,7 +40349,7 @@
     </row>
     <row r="1055" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="11" t="s">
-        <v>42</v>
+        <v>747</v>
       </c>
       <c r="B1055" s="3" t="s">
         <v>39</v>
@@ -40299,7 +40374,7 @@
     </row>
     <row r="1056" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="11" t="s">
-        <v>2042</v>
+        <v>42</v>
       </c>
       <c r="B1056" s="3" t="s">
         <v>39</v>
@@ -40324,7 +40399,7 @@
     </row>
     <row r="1057" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="11" t="s">
-        <v>987</v>
+        <v>2042</v>
       </c>
       <c r="B1057" s="3" t="s">
         <v>39</v>
@@ -40349,7 +40424,7 @@
     </row>
     <row r="1058" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="11" t="s">
-        <v>1895</v>
+        <v>987</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>39</v>
@@ -40374,7 +40449,7 @@
     </row>
     <row r="1059" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="11" t="s">
-        <v>1113</v>
+        <v>1895</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>39</v>
@@ -40399,7 +40474,7 @@
     </row>
     <row r="1060" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="11" t="s">
-        <v>1373</v>
+        <v>1113</v>
       </c>
       <c r="B1060" s="3" t="s">
         <v>39</v>
@@ -40424,7 +40499,7 @@
     </row>
     <row r="1061" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="11" t="s">
-        <v>2028</v>
+        <v>1373</v>
       </c>
       <c r="B1061" s="3" t="s">
         <v>39</v>
@@ -40449,7 +40524,7 @@
     </row>
     <row r="1062" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="11" t="s">
-        <v>572</v>
+        <v>2028</v>
       </c>
       <c r="B1062" s="3" t="s">
         <v>39</v>
@@ -40474,32 +40549,32 @@
     </row>
     <row r="1063" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1063" s="11" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="B1063" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1063" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1063" s="4">
-        <v>4301011452</v>
+        <v>4301011437</v>
       </c>
       <c r="E1063" s="3">
-        <v>4680115881426</v>
+        <v>4680115881419</v>
       </c>
       <c r="F1063" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1063" s="1"/>
       <c r="H1063" s="1">
         <f>VLOOKUP(E1063,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1064" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1064" s="11" t="s">
-        <v>1598</v>
+        <v>685</v>
       </c>
       <c r="B1064" s="3" t="s">
         <v>37</v>
@@ -40524,7 +40599,7 @@
     </row>
     <row r="1065" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1065" s="11" t="s">
-        <v>1720</v>
+        <v>1598</v>
       </c>
       <c r="B1065" s="3" t="s">
         <v>37</v>
@@ -40543,12 +40618,13 @@
       </c>
       <c r="G1065" s="1"/>
       <c r="H1065" s="1">
+        <f>VLOOKUP(E1065,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1066" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1066" s="11" t="s">
-        <v>695</v>
+        <v>1720</v>
       </c>
       <c r="B1066" s="3" t="s">
         <v>37</v>
@@ -40567,13 +40643,12 @@
       </c>
       <c r="G1066" s="1"/>
       <c r="H1066" s="1">
-        <f>VLOOKUP(E1066,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1067" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="11" t="s">
-        <v>1579</v>
+        <v>695</v>
       </c>
       <c r="B1067" s="3" t="s">
         <v>37</v>
@@ -40598,7 +40673,7 @@
     </row>
     <row r="1068" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1068" s="11" t="s">
-        <v>748</v>
+        <v>1579</v>
       </c>
       <c r="B1068" s="3" t="s">
         <v>37</v>
@@ -40623,7 +40698,7 @@
     </row>
     <row r="1069" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="11" t="s">
-        <v>41</v>
+        <v>748</v>
       </c>
       <c r="B1069" s="3" t="s">
         <v>37</v>
@@ -40648,7 +40723,7 @@
     </row>
     <row r="1070" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1070" s="11" t="s">
-        <v>817</v>
+        <v>41</v>
       </c>
       <c r="B1070" s="3" t="s">
         <v>37</v>
@@ -40673,7 +40748,7 @@
     </row>
     <row r="1071" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1071" s="11" t="s">
-        <v>1275</v>
+        <v>817</v>
       </c>
       <c r="B1071" s="3" t="s">
         <v>37</v>
@@ -40698,7 +40773,7 @@
     </row>
     <row r="1072" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1072" s="11" t="s">
-        <v>1894</v>
+        <v>1275</v>
       </c>
       <c r="B1072" s="3" t="s">
         <v>37</v>
@@ -40723,7 +40798,7 @@
     </row>
     <row r="1073" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1073" s="11" t="s">
-        <v>1165</v>
+        <v>1894</v>
       </c>
       <c r="B1073" s="3" t="s">
         <v>37</v>
@@ -40748,7 +40823,7 @@
     </row>
     <row r="1074" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1074" s="11" t="s">
-        <v>991</v>
+        <v>1165</v>
       </c>
       <c r="B1074" s="3" t="s">
         <v>37</v>
@@ -40773,7 +40848,7 @@
     </row>
     <row r="1075" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1075" s="11" t="s">
-        <v>1209</v>
+        <v>991</v>
       </c>
       <c r="B1075" s="3" t="s">
         <v>37</v>
@@ -40798,7 +40873,7 @@
     </row>
     <row r="1076" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1076" s="11" t="s">
-        <v>1856</v>
+        <v>1209</v>
       </c>
       <c r="B1076" s="3" t="s">
         <v>37</v>
@@ -40823,7 +40898,7 @@
     </row>
     <row r="1077" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="11" t="s">
-        <v>1771</v>
+        <v>1856</v>
       </c>
       <c r="B1077" s="3" t="s">
         <v>37</v>
@@ -40848,7 +40923,7 @@
     </row>
     <row r="1078" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1078" s="11" t="s">
-        <v>793</v>
+        <v>1771</v>
       </c>
       <c r="B1078" s="3" t="s">
         <v>37</v>
@@ -40873,7 +40948,7 @@
     </row>
     <row r="1079" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1079" s="11" t="s">
-        <v>2002</v>
+        <v>793</v>
       </c>
       <c r="B1079" s="3" t="s">
         <v>37</v>
@@ -40898,7 +40973,7 @@
     </row>
     <row r="1080" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="11" t="s">
-        <v>2024</v>
+        <v>2002</v>
       </c>
       <c r="B1080" s="3" t="s">
         <v>37</v>
@@ -40923,7 +40998,7 @@
     </row>
     <row r="1081" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1081" s="11" t="s">
-        <v>646</v>
+        <v>2024</v>
       </c>
       <c r="B1081" s="3" t="s">
         <v>37</v>
@@ -40948,7 +41023,7 @@
     </row>
     <row r="1082" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1082" s="11" t="s">
-        <v>1091</v>
+        <v>646</v>
       </c>
       <c r="B1082" s="3" t="s">
         <v>37</v>
@@ -40962,9 +41037,8 @@
       <c r="E1082" s="3">
         <v>4680115881426</v>
       </c>
-      <c r="F1082" s="5" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
-        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
+      <c r="F1082" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G1082" s="1"/>
       <c r="H1082" s="1">
@@ -40974,7 +41048,7 @@
     </row>
     <row r="1083" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="11" t="s">
-        <v>1224</v>
+        <v>1091</v>
       </c>
       <c r="B1083" s="3" t="s">
         <v>37</v>
@@ -41000,7 +41074,7 @@
     </row>
     <row r="1084" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="11" t="s">
-        <v>1479</v>
+        <v>1224</v>
       </c>
       <c r="B1084" s="3" t="s">
         <v>37</v>
@@ -41026,7 +41100,7 @@
     </row>
     <row r="1085" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="11" t="s">
-        <v>567</v>
+        <v>1479</v>
       </c>
       <c r="B1085" s="3" t="s">
         <v>37</v>
@@ -41050,34 +41124,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="11" t="s">
-        <v>742</v>
+        <v>567</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1086" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1086" s="4">
-        <v>4301020232</v>
+        <v>4301011452</v>
       </c>
       <c r="E1086" s="3">
-        <v>4680115881433</v>
-      </c>
-      <c r="F1086" s="5" t="s">
-        <v>36</v>
+        <v>4680115881426</v>
+      </c>
+      <c r="F1086" s="5" t="str">
+        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
+        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
       </c>
       <c r="G1086" s="1"/>
       <c r="H1086" s="1">
         <f>VLOOKUP(E1086,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" s="11" t="s">
-        <v>36</v>
+        <v>742</v>
       </c>
       <c r="B1087" s="3" t="s">
         <v>33</v>
@@ -41102,7 +41177,7 @@
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" s="11" t="s">
-        <v>797</v>
+        <v>36</v>
       </c>
       <c r="B1088" s="3" t="s">
         <v>33</v>
@@ -41127,7 +41202,7 @@
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" s="11" t="s">
-        <v>975</v>
+        <v>797</v>
       </c>
       <c r="B1089" s="3" t="s">
         <v>33</v>
@@ -41152,7 +41227,7 @@
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" s="11" t="s">
-        <v>1354</v>
+        <v>975</v>
       </c>
       <c r="B1090" s="3" t="s">
         <v>33</v>
@@ -41177,7 +41252,7 @@
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1091" s="11" t="s">
-        <v>1991</v>
+        <v>1354</v>
       </c>
       <c r="B1091" s="3" t="s">
         <v>33</v>
@@ -41202,7 +41277,7 @@
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092" s="11" t="s">
-        <v>984</v>
+        <v>1991</v>
       </c>
       <c r="B1092" s="3" t="s">
         <v>33</v>
@@ -41227,7 +41302,7 @@
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" s="11" t="s">
-        <v>1927</v>
+        <v>984</v>
       </c>
       <c r="B1093" s="3" t="s">
         <v>33</v>
@@ -41252,7 +41327,7 @@
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094" s="11" t="s">
-        <v>1889</v>
+        <v>1927</v>
       </c>
       <c r="B1094" s="3" t="s">
         <v>33</v>
@@ -41277,7 +41352,7 @@
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095" s="11" t="s">
-        <v>1369</v>
+        <v>1889</v>
       </c>
       <c r="B1095" s="3" t="s">
         <v>33</v>
@@ -41302,7 +41377,7 @@
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" s="11" t="s">
-        <v>1536</v>
+        <v>1369</v>
       </c>
       <c r="B1096" s="3" t="s">
         <v>33</v>
@@ -41319,9 +41394,7 @@
       <c r="F1096" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1096" s="1" t="s">
-        <v>1980</v>
-      </c>
+      <c r="G1096" s="1"/>
       <c r="H1096" s="1">
         <f>VLOOKUP(E1096,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -41329,7 +41402,7 @@
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097" s="11" t="s">
-        <v>1912</v>
+        <v>1536</v>
       </c>
       <c r="B1097" s="3" t="s">
         <v>33</v>
@@ -41346,7 +41419,9 @@
       <c r="F1097" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1097" s="1"/>
+      <c r="G1097" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="H1097" s="1">
         <f>VLOOKUP(E1097,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -41354,7 +41429,7 @@
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" s="11" t="s">
-        <v>645</v>
+        <v>1912</v>
       </c>
       <c r="B1098" s="3" t="s">
         <v>33</v>
@@ -41379,22 +41454,22 @@
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099" s="11" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="B1099" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1099" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1099" s="4">
-        <v>4301020234</v>
+        <v>4301020232</v>
       </c>
       <c r="E1099" s="3">
-        <v>4680115881440</v>
+        <v>4680115881433</v>
       </c>
       <c r="F1099" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1099" s="1"/>
       <c r="H1099" s="1">
@@ -41404,7 +41479,7 @@
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" s="11" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="B1100" s="3" t="s">
         <v>31</v>
@@ -41429,7 +41504,7 @@
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" s="11" t="s">
-        <v>1148</v>
+        <v>703</v>
       </c>
       <c r="B1101" s="3" t="s">
         <v>31</v>
@@ -41454,7 +41529,7 @@
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" s="11" t="s">
-        <v>741</v>
+        <v>1148</v>
       </c>
       <c r="B1102" s="3" t="s">
         <v>31</v>
@@ -41479,7 +41554,7 @@
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" s="11" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B1103" s="3" t="s">
         <v>31</v>
@@ -41504,7 +41579,7 @@
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" s="11" t="s">
-        <v>1223</v>
+        <v>733</v>
       </c>
       <c r="B1104" s="3" t="s">
         <v>31</v>
@@ -41529,7 +41604,7 @@
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" s="11" t="s">
-        <v>1480</v>
+        <v>1223</v>
       </c>
       <c r="B1105" s="3" t="s">
         <v>31</v>
@@ -41554,7 +41629,7 @@
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1106" s="11" t="s">
-        <v>641</v>
+        <v>1480</v>
       </c>
       <c r="B1106" s="3" t="s">
         <v>31</v>
@@ -41579,7 +41654,7 @@
     </row>
     <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107" s="11" t="s">
-        <v>35</v>
+        <v>641</v>
       </c>
       <c r="B1107" s="3" t="s">
         <v>31</v>
@@ -41604,7 +41679,7 @@
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" s="11" t="s">
-        <v>983</v>
+        <v>35</v>
       </c>
       <c r="B1108" s="3" t="s">
         <v>31</v>
@@ -41629,7 +41704,7 @@
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" s="11" t="s">
-        <v>1939</v>
+        <v>983</v>
       </c>
       <c r="B1109" s="3" t="s">
         <v>31</v>
@@ -41654,7 +41729,7 @@
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110" s="11" t="s">
-        <v>1273</v>
+        <v>1939</v>
       </c>
       <c r="B1110" s="3" t="s">
         <v>31</v>
@@ -41679,7 +41754,7 @@
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" s="11" t="s">
-        <v>1207</v>
+        <v>1273</v>
       </c>
       <c r="B1111" s="3" t="s">
         <v>31</v>
@@ -41704,7 +41779,7 @@
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112" s="11" t="s">
-        <v>1413</v>
+        <v>1207</v>
       </c>
       <c r="B1112" s="3" t="s">
         <v>31</v>
@@ -41729,7 +41804,7 @@
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113" s="11" t="s">
-        <v>1722</v>
+        <v>1413</v>
       </c>
       <c r="B1113" s="3" t="s">
         <v>31</v>
@@ -41754,7 +41829,7 @@
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1114" s="11" t="s">
-        <v>794</v>
+        <v>1722</v>
       </c>
       <c r="B1114" s="3" t="s">
         <v>31</v>
@@ -41777,22 +41852,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1115" s="11"/>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1115" s="11" t="s">
+        <v>794</v>
+      </c>
       <c r="B1115" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C1115" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D1115" s="4">
-        <v>4301011462</v>
+        <v>4301020234</v>
       </c>
       <c r="E1115" s="3">
-        <v>4680115881457</v>
+        <v>4680115881440</v>
       </c>
       <c r="F1115" s="5" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G1115" s="1"/>
       <c r="H1115" s="1">
@@ -41801,23 +41878,21 @@
       </c>
     </row>
     <row r="1116" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1116" s="11" t="s">
-        <v>1631</v>
-      </c>
+      <c r="A1116" s="11"/>
       <c r="B1116" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C1116" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D1116" s="4">
-        <v>4301011476</v>
+        <v>4301011462</v>
       </c>
       <c r="E1116" s="3">
-        <v>4680115881518</v>
+        <v>4680115881457</v>
       </c>
       <c r="F1116" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1116" s="1"/>
       <c r="H1116" s="1">
@@ -41827,22 +41902,22 @@
     </row>
     <row r="1117" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1117" s="11" t="s">
-        <v>1102</v>
+        <v>1631</v>
       </c>
       <c r="B1117" s="3" t="s">
-        <v>1099</v>
+        <v>58</v>
       </c>
       <c r="C1117" s="3" t="s">
-        <v>1100</v>
+        <v>59</v>
       </c>
       <c r="D1117" s="4">
-        <v>4301011458</v>
+        <v>4301011476</v>
       </c>
       <c r="E1117" s="3">
-        <v>4680115881525</v>
+        <v>4680115881518</v>
       </c>
       <c r="F1117" s="5" t="s">
-        <v>1101</v>
+        <v>81</v>
       </c>
       <c r="G1117" s="1"/>
       <c r="H1117" s="1">
@@ -41852,32 +41927,32 @@
     </row>
     <row r="1118" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1118" s="11" t="s">
-        <v>298</v>
+        <v>1102</v>
       </c>
       <c r="B1118" s="3" t="s">
-        <v>263</v>
+        <v>1099</v>
       </c>
       <c r="C1118" s="3" t="s">
-        <v>264</v>
+        <v>1100</v>
       </c>
       <c r="D1118" s="4">
-        <v>4301051409</v>
+        <v>4301011458</v>
       </c>
       <c r="E1118" s="3">
-        <v>4680115881556</v>
+        <v>4680115881525</v>
       </c>
       <c r="F1118" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1118" s="6"/>
+        <v>1101</v>
+      </c>
+      <c r="G1118" s="1"/>
       <c r="H1118" s="1">
         <f>VLOOKUP(E1118,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1119" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1119" s="11" t="s">
-        <v>1830</v>
+        <v>298</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>263</v>
@@ -41902,7 +41977,7 @@
     </row>
     <row r="1120" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="11" t="s">
-        <v>1594</v>
+        <v>1830</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>263</v>
@@ -41927,7 +42002,7 @@
     </row>
     <row r="1121" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="11" t="s">
-        <v>670</v>
+        <v>1594</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>263</v>
@@ -41952,32 +42027,32 @@
     </row>
     <row r="1122" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="11" t="s">
-        <v>869</v>
+        <v>670</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C1122" s="3" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D1122" s="4">
-        <v>4301031201</v>
+        <v>4301051409</v>
       </c>
       <c r="E1122" s="3">
-        <v>4680115881563</v>
+        <v>4680115881556</v>
       </c>
       <c r="F1122" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1122" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="G1122" s="6"/>
       <c r="H1122" s="1">
         <f>VLOOKUP(E1122,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1123" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="11" t="s">
-        <v>247</v>
+        <v>869</v>
       </c>
       <c r="B1123" s="3" t="s">
         <v>225</v>
@@ -42002,7 +42077,7 @@
     </row>
     <row r="1124" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1124" s="11" t="s">
-        <v>1405</v>
+        <v>247</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>225</v>
@@ -42027,7 +42102,7 @@
     </row>
     <row r="1125" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1125" s="11" t="s">
-        <v>1811</v>
+        <v>1405</v>
       </c>
       <c r="B1125" s="3" t="s">
         <v>225</v>
@@ -42052,7 +42127,7 @@
     </row>
     <row r="1126" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1126" s="11" t="s">
-        <v>1760</v>
+        <v>1811</v>
       </c>
       <c r="B1126" s="3" t="s">
         <v>225</v>
@@ -42071,12 +42146,13 @@
       </c>
       <c r="G1126" s="1"/>
       <c r="H1126" s="1">
+        <f>VLOOKUP(E1126,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1127" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1127" s="11" t="s">
-        <v>1138</v>
+        <v>1760</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>225</v>
@@ -42095,13 +42171,12 @@
       </c>
       <c r="G1127" s="1"/>
       <c r="H1127" s="1">
-        <f>VLOOKUP(E1127,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1128" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1128" s="11" t="s">
-        <v>738</v>
+        <v>1138</v>
       </c>
       <c r="B1128" s="3" t="s">
         <v>225</v>
@@ -42126,24 +42201,24 @@
     </row>
     <row r="1129" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1129" s="11" t="s">
-        <v>834</v>
+        <v>738</v>
       </c>
       <c r="B1129" s="3" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C1129" s="3" t="s">
-        <v>1476</v>
+        <v>226</v>
       </c>
       <c r="D1129" s="4">
-        <v>4301051505</v>
+        <v>4301031201</v>
       </c>
       <c r="E1129" s="3">
-        <v>4680115881587</v>
+        <v>4680115881563</v>
       </c>
       <c r="F1129" s="5" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G1129" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="G1129" s="1"/>
       <c r="H1129" s="1">
         <f>VLOOKUP(E1129,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -42151,7 +42226,7 @@
     </row>
     <row r="1130" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1130" s="11" t="s">
-        <v>1382</v>
+        <v>834</v>
       </c>
       <c r="B1130" s="3" t="s">
         <v>272</v>
@@ -42176,7 +42251,7 @@
     </row>
     <row r="1131" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1131" s="11" t="s">
-        <v>609</v>
+        <v>1382</v>
       </c>
       <c r="B1131" s="3" t="s">
         <v>272</v>
@@ -42201,7 +42276,7 @@
     </row>
     <row r="1132" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1132" s="11" t="s">
-        <v>740</v>
+        <v>609</v>
       </c>
       <c r="B1132" s="3" t="s">
         <v>272</v>
@@ -42226,22 +42301,22 @@
     </row>
     <row r="1133" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1133" s="11" t="s">
-        <v>1834</v>
+        <v>740</v>
       </c>
       <c r="B1133" s="3" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C1133" s="3" t="s">
-        <v>256</v>
+        <v>1476</v>
       </c>
       <c r="D1133" s="4">
-        <v>4301051408</v>
+        <v>4301051505</v>
       </c>
       <c r="E1133" s="3">
-        <v>4680115881594</v>
+        <v>4680115881587</v>
       </c>
       <c r="F1133" s="5" t="s">
-        <v>294</v>
+        <v>1477</v>
       </c>
       <c r="G1133" s="6"/>
       <c r="H1133" s="1">
@@ -42251,7 +42326,7 @@
     </row>
     <row r="1134" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="11" t="s">
-        <v>1784</v>
+        <v>1834</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>255</v>
@@ -42275,21 +42350,23 @@
       </c>
     </row>
     <row r="1135" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1135" s="11"/>
+      <c r="A1135" s="11" t="s">
+        <v>1784</v>
+      </c>
       <c r="B1135" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C1135" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D1135" s="4">
-        <v>4301051411</v>
+        <v>4301051408</v>
       </c>
       <c r="E1135" s="3">
-        <v>4680115881617</v>
+        <v>4680115881594</v>
       </c>
       <c r="F1135" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G1135" s="6"/>
       <c r="H1135" s="1">
@@ -42300,54 +42377,52 @@
     <row r="1136" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="11"/>
       <c r="B1136" s="3" t="s">
-        <v>487</v>
+        <v>259</v>
       </c>
       <c r="C1136" s="3" t="s">
-        <v>488</v>
+        <v>260</v>
       </c>
       <c r="D1136" s="4">
-        <v>4301060352</v>
+        <v>4301051411</v>
       </c>
       <c r="E1136" s="3">
-        <v>4680115881648</v>
+        <v>4680115881617</v>
       </c>
       <c r="F1136" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1136" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="G1136" s="6"/>
       <c r="H1136" s="1">
         <f>VLOOKUP(E1136,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1137" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1137" s="11" t="s">
-        <v>727</v>
-      </c>
+      <c r="A1137" s="11"/>
       <c r="B1137" s="3" t="s">
-        <v>239</v>
+        <v>487</v>
       </c>
       <c r="C1137" s="3" t="s">
-        <v>240</v>
+        <v>488</v>
       </c>
       <c r="D1137" s="4">
-        <v>4301031202</v>
+        <v>4301060352</v>
       </c>
       <c r="E1137" s="3">
-        <v>4680115881679</v>
+        <v>4680115881648</v>
       </c>
       <c r="F1137" s="5" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
       <c r="G1137" s="1"/>
       <c r="H1137" s="1">
         <f>VLOOKUP(E1137,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1138" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="11" t="s">
-        <v>868</v>
+        <v>727</v>
       </c>
       <c r="B1138" s="3" t="s">
         <v>239</v>
@@ -42372,7 +42447,7 @@
     </row>
     <row r="1139" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="11" t="s">
-        <v>254</v>
+        <v>868</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>239</v>
@@ -42397,7 +42472,7 @@
     </row>
     <row r="1140" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="11" t="s">
-        <v>1137</v>
+        <v>254</v>
       </c>
       <c r="B1140" s="3" t="s">
         <v>239</v>
@@ -42422,7 +42497,7 @@
     </row>
     <row r="1141" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="11" t="s">
-        <v>1329</v>
+        <v>1137</v>
       </c>
       <c r="B1141" s="3" t="s">
         <v>239</v>
@@ -42447,7 +42522,7 @@
     </row>
     <row r="1142" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="11" t="s">
-        <v>1719</v>
+        <v>1329</v>
       </c>
       <c r="B1142" s="3" t="s">
         <v>239</v>
@@ -42472,7 +42547,7 @@
     </row>
     <row r="1143" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="11" t="s">
-        <v>1270</v>
+        <v>1719</v>
       </c>
       <c r="B1143" s="3" t="s">
         <v>239</v>
@@ -42497,7 +42572,7 @@
     </row>
     <row r="1144" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="11" t="s">
-        <v>640</v>
+        <v>1270</v>
       </c>
       <c r="B1144" s="3" t="s">
         <v>239</v>
@@ -42522,22 +42597,22 @@
     </row>
     <row r="1145" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="11" t="s">
-        <v>866</v>
+        <v>640</v>
       </c>
       <c r="B1145" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C1145" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="D1145" s="4">
-        <v>4301031204</v>
+        <v>4301031202</v>
       </c>
       <c r="E1145" s="3">
-        <v>4680115881761</v>
+        <v>4680115881679</v>
       </c>
       <c r="F1145" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G1145" s="1"/>
       <c r="H1145" s="1">
@@ -42547,7 +42622,7 @@
     </row>
     <row r="1146" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="11" t="s">
-        <v>1527</v>
+        <v>866</v>
       </c>
       <c r="B1146" s="3" t="s">
         <v>223</v>
@@ -42572,7 +42647,7 @@
     </row>
     <row r="1147" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="11" t="s">
-        <v>1810</v>
+        <v>1527</v>
       </c>
       <c r="B1147" s="3" t="s">
         <v>223</v>
@@ -42597,7 +42672,7 @@
     </row>
     <row r="1148" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="11" t="s">
-        <v>1759</v>
+        <v>1810</v>
       </c>
       <c r="B1148" s="3" t="s">
         <v>223</v>
@@ -42616,12 +42691,13 @@
       </c>
       <c r="G1148" s="1"/>
       <c r="H1148" s="1">
+        <f>VLOOKUP(E1148,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1149" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="11" t="s">
-        <v>739</v>
+        <v>1759</v>
       </c>
       <c r="B1149" s="3" t="s">
         <v>223</v>
@@ -42640,28 +42716,27 @@
       </c>
       <c r="G1149" s="1"/>
       <c r="H1149" s="1">
-        <f>VLOOKUP(E1149,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1150" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="11" t="s">
-        <v>867</v>
+        <v>739</v>
       </c>
       <c r="B1150" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C1150" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D1150" s="4">
-        <v>4301031205</v>
+        <v>4301031204</v>
       </c>
       <c r="E1150" s="3">
-        <v>4680115881785</v>
+        <v>4680115881761</v>
       </c>
       <c r="F1150" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G1150" s="1"/>
       <c r="H1150" s="1">
@@ -42671,7 +42746,7 @@
     </row>
     <row r="1151" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="11" t="s">
-        <v>253</v>
+        <v>867</v>
       </c>
       <c r="B1151" s="3" t="s">
         <v>237</v>
@@ -42696,7 +42771,7 @@
     </row>
     <row r="1152" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="11" t="s">
-        <v>639</v>
+        <v>253</v>
       </c>
       <c r="B1152" s="3" t="s">
         <v>237</v>
@@ -42721,32 +42796,32 @@
     </row>
     <row r="1153" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="11" t="s">
-        <v>1332</v>
+        <v>639</v>
       </c>
       <c r="B1153" s="3" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="C1153" s="3" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="D1153" s="4">
-        <v>4301180007</v>
+        <v>4301031205</v>
       </c>
       <c r="E1153" s="3">
-        <v>4680115881808</v>
+        <v>4680115881785</v>
       </c>
       <c r="F1153" s="5" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="G1153" s="1"/>
       <c r="H1153" s="1">
         <f>VLOOKUP(E1153,[1]Лист1!$D:$M,10,0)</f>
-        <v>730</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1154" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="11" t="s">
-        <v>1646</v>
+        <v>1332</v>
       </c>
       <c r="B1154" s="3" t="s">
         <v>344</v>
@@ -42771,7 +42846,7 @@
     </row>
     <row r="1155" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1155" s="11" t="s">
-        <v>860</v>
+        <v>1646</v>
       </c>
       <c r="B1155" s="3" t="s">
         <v>344</v>
@@ -42796,22 +42871,22 @@
     </row>
     <row r="1156" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1156" s="11" t="s">
-        <v>1542</v>
+        <v>860</v>
       </c>
       <c r="B1156" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1156" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D1156" s="4">
-        <v>4301180006</v>
+        <v>4301180007</v>
       </c>
       <c r="E1156" s="3">
-        <v>4680115881822</v>
+        <v>4680115881808</v>
       </c>
       <c r="F1156" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1156" s="1"/>
       <c r="H1156" s="1">
@@ -42821,7 +42896,7 @@
     </row>
     <row r="1157" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1157" s="11" t="s">
-        <v>1647</v>
+        <v>1542</v>
       </c>
       <c r="B1157" s="3" t="s">
         <v>346</v>
@@ -42846,7 +42921,7 @@
     </row>
     <row r="1158" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1158" s="11" t="s">
-        <v>1333</v>
+        <v>1647</v>
       </c>
       <c r="B1158" s="3" t="s">
         <v>346</v>
@@ -42871,32 +42946,32 @@
     </row>
     <row r="1159" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1159" s="11" t="s">
-        <v>16</v>
+        <v>1333</v>
       </c>
       <c r="B1159" s="3" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="C1159" s="3" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="D1159" s="4">
-        <v>4301051426</v>
+        <v>4301180006</v>
       </c>
       <c r="E1159" s="3">
-        <v>4680115881853</v>
+        <v>4680115881822</v>
       </c>
       <c r="F1159" s="5" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="G1159" s="1"/>
       <c r="H1159" s="1">
         <f>VLOOKUP(E1159,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1160" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1160" s="11" t="s">
-        <v>1512</v>
+        <v>16</v>
       </c>
       <c r="B1160" s="3" t="s">
         <v>10</v>
@@ -42921,32 +42996,32 @@
     </row>
     <row r="1161" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1161" s="11" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="B1161" s="3" t="s">
-        <v>1035</v>
+        <v>10</v>
       </c>
       <c r="C1161" s="3" t="s">
-        <v>1036</v>
+        <v>11</v>
       </c>
       <c r="D1161" s="4">
-        <v>4301051444</v>
+        <v>4301051426</v>
       </c>
       <c r="E1161" s="3">
-        <v>4680115881969</v>
+        <v>4680115881853</v>
       </c>
       <c r="F1161" s="5" t="s">
-        <v>1037</v>
+        <v>16</v>
       </c>
       <c r="G1161" s="1"/>
       <c r="H1161" s="1">
         <f>VLOOKUP(E1161,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1162" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1162" s="11" t="s">
-        <v>1038</v>
+        <v>1506</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1035</v>
@@ -42971,22 +43046,22 @@
     </row>
     <row r="1163" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1163" s="11" t="s">
-        <v>1505</v>
+        <v>1038</v>
       </c>
       <c r="B1163" s="3" t="s">
-        <v>943</v>
+        <v>1035</v>
       </c>
       <c r="C1163" s="3" t="s">
-        <v>944</v>
+        <v>1036</v>
       </c>
       <c r="D1163" s="4">
-        <v>4301051445</v>
+        <v>4301051444</v>
       </c>
       <c r="E1163" s="3">
-        <v>4680115881976</v>
+        <v>4680115881969</v>
       </c>
       <c r="F1163" s="5" t="s">
-        <v>946</v>
+        <v>1037</v>
       </c>
       <c r="G1163" s="1"/>
       <c r="H1163" s="1">
@@ -42996,7 +43071,7 @@
     </row>
     <row r="1164" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1164" s="11" t="s">
-        <v>1658</v>
+        <v>1505</v>
       </c>
       <c r="B1164" s="3" t="s">
         <v>943</v>
@@ -43021,7 +43096,7 @@
     </row>
     <row r="1165" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1165" s="11" t="s">
-        <v>945</v>
+        <v>1658</v>
       </c>
       <c r="B1165" s="3" t="s">
         <v>943</v>
@@ -43045,21 +43120,23 @@
       </c>
     </row>
     <row r="1166" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1166" s="11"/>
+      <c r="A1166" s="11" t="s">
+        <v>945</v>
+      </c>
       <c r="B1166" s="3" t="s">
-        <v>501</v>
+        <v>943</v>
       </c>
       <c r="C1166" s="3" t="s">
-        <v>502</v>
+        <v>944</v>
       </c>
       <c r="D1166" s="4">
-        <v>4301031103</v>
+        <v>4301051445</v>
       </c>
       <c r="E1166" s="3">
-        <v>4680115881983</v>
+        <v>4680115881976</v>
       </c>
       <c r="F1166" s="5" t="s">
-        <v>507</v>
+        <v>946</v>
       </c>
       <c r="G1166" s="1"/>
       <c r="H1166" s="1">
@@ -43068,33 +43145,31 @@
       </c>
     </row>
     <row r="1167" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1167" s="11" t="s">
-        <v>1393</v>
-      </c>
+      <c r="A1167" s="11"/>
       <c r="B1167" s="3" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C1167" s="3" t="s">
-        <v>1340</v>
+        <v>502</v>
       </c>
       <c r="D1167" s="4">
-        <v>4301031253</v>
+        <v>4301031103</v>
       </c>
       <c r="E1167" s="3">
-        <v>4680115882096</v>
+        <v>4680115881983</v>
       </c>
       <c r="F1167" s="5" t="s">
-        <v>1339</v>
+        <v>507</v>
       </c>
       <c r="G1167" s="1"/>
       <c r="H1167" s="1">
         <f>VLOOKUP(E1167,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1168" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1168" s="11" t="s">
-        <v>1339</v>
+        <v>1393</v>
       </c>
       <c r="B1168" s="3" t="s">
         <v>529</v>
@@ -43119,22 +43194,22 @@
     </row>
     <row r="1169" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1169" s="11" t="s">
-        <v>1392</v>
+        <v>1339</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C1169" s="3" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D1169" s="4">
-        <v>4301031251</v>
+        <v>4301031253</v>
       </c>
       <c r="E1169" s="3">
-        <v>4680115882102</v>
+        <v>4680115882096</v>
       </c>
       <c r="F1169" s="5" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="G1169" s="1"/>
       <c r="H1169" s="1">
@@ -43144,7 +43219,7 @@
     </row>
     <row r="1170" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1170" s="11" t="s">
-        <v>1337</v>
+        <v>1392</v>
       </c>
       <c r="B1170" s="3" t="s">
         <v>528</v>
@@ -43167,34 +43242,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1171" s="11" t="s">
-        <v>76</v>
+        <v>1337</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>49</v>
+        <v>528</v>
       </c>
       <c r="C1171" s="3" t="s">
-        <v>1749</v>
+        <v>1338</v>
       </c>
       <c r="D1171" s="4">
-        <v>4301011703</v>
+        <v>4301031251</v>
       </c>
       <c r="E1171" s="3">
-        <v>4680115882133</v>
+        <v>4680115882102</v>
       </c>
       <c r="F1171" s="5" t="s">
-        <v>1750</v>
+        <v>1337</v>
       </c>
       <c r="G1171" s="1"/>
       <c r="H1171" s="1">
         <f>VLOOKUP(E1171,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1172" s="11" t="s">
-        <v>1172</v>
+        <v>76</v>
       </c>
       <c r="B1172" s="3" t="s">
         <v>49</v>
@@ -43219,7 +43294,7 @@
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1173" s="11" t="s">
-        <v>1310</v>
+        <v>1172</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>49</v>
@@ -43244,7 +43319,7 @@
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1174" s="11" t="s">
-        <v>1351</v>
+        <v>1310</v>
       </c>
       <c r="B1174" s="3" t="s">
         <v>49</v>
@@ -43269,7 +43344,7 @@
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1175" s="11" t="s">
-        <v>872</v>
+        <v>1351</v>
       </c>
       <c r="B1175" s="3" t="s">
         <v>49</v>
@@ -43292,34 +43367,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1176" s="11" t="s">
-        <v>1177</v>
+        <v>872</v>
       </c>
       <c r="B1176" s="3" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="C1176" s="3" t="s">
-        <v>262</v>
+        <v>1749</v>
       </c>
       <c r="D1176" s="4">
-        <v>4301051410</v>
+        <v>4301011703</v>
       </c>
       <c r="E1176" s="3">
-        <v>4680115882164</v>
+        <v>4680115882133</v>
       </c>
       <c r="F1176" s="5" t="s">
-        <v>297</v>
+        <v>1750</v>
       </c>
       <c r="G1176" s="1"/>
       <c r="H1176" s="1">
         <f>VLOOKUP(E1176,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1177" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="11" t="s">
-        <v>1764</v>
+        <v>1177</v>
       </c>
       <c r="B1177" s="3" t="s">
         <v>261</v>
@@ -43344,7 +43419,7 @@
     </row>
     <row r="1178" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="11" t="s">
-        <v>1923</v>
+        <v>1764</v>
       </c>
       <c r="B1178" s="3" t="s">
         <v>261</v>
@@ -43369,7 +43444,7 @@
     </row>
     <row r="1179" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="11" t="s">
-        <v>1385</v>
+        <v>1923</v>
       </c>
       <c r="B1179" s="3" t="s">
         <v>261</v>
@@ -43394,7 +43469,7 @@
     </row>
     <row r="1180" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="11" t="s">
-        <v>839</v>
+        <v>1385</v>
       </c>
       <c r="B1180" s="3" t="s">
         <v>261</v>
@@ -43411,7 +43486,7 @@
       <c r="F1180" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G1180" s="6"/>
+      <c r="G1180" s="1"/>
       <c r="H1180" s="1">
         <f>VLOOKUP(E1180,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -43419,22 +43494,22 @@
     </row>
     <row r="1181" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="11" t="s">
-        <v>1176</v>
+        <v>839</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C1181" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D1181" s="4">
-        <v>4301051407</v>
+        <v>4301051410</v>
       </c>
       <c r="E1181" s="3">
-        <v>4680115882195</v>
+        <v>4680115882164</v>
       </c>
       <c r="F1181" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G1181" s="6"/>
       <c r="H1181" s="1">
@@ -43444,7 +43519,7 @@
     </row>
     <row r="1182" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="11" t="s">
-        <v>1765</v>
+        <v>1176</v>
       </c>
       <c r="B1182" s="3" t="s">
         <v>257</v>
@@ -43469,7 +43544,7 @@
     </row>
     <row r="1183" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="11" t="s">
-        <v>1922</v>
+        <v>1765</v>
       </c>
       <c r="B1183" s="3" t="s">
         <v>257</v>
@@ -43494,7 +43569,7 @@
     </row>
     <row r="1184" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="11" t="s">
-        <v>1311</v>
+        <v>1922</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>257</v>
@@ -43519,7 +43594,7 @@
     </row>
     <row r="1185" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="11" t="s">
-        <v>838</v>
+        <v>1311</v>
       </c>
       <c r="B1185" s="3" t="s">
         <v>257</v>
@@ -43544,24 +43619,24 @@
     </row>
     <row r="1186" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="11" t="s">
-        <v>896</v>
+        <v>838</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>842</v>
+        <v>257</v>
       </c>
       <c r="C1186" s="3" t="s">
-        <v>843</v>
+        <v>258</v>
       </c>
       <c r="D1186" s="4">
-        <v>4301031220</v>
+        <v>4301051407</v>
       </c>
       <c r="E1186" s="3">
-        <v>4680115882669</v>
+        <v>4680115882195</v>
       </c>
       <c r="F1186" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G1186" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="G1186" s="6"/>
       <c r="H1186" s="1">
         <f>VLOOKUP(E1186,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -43569,7 +43644,7 @@
     </row>
     <row r="1187" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="11" t="s">
-        <v>1814</v>
+        <v>896</v>
       </c>
       <c r="B1187" s="3" t="s">
         <v>842</v>
@@ -43594,7 +43669,7 @@
     </row>
     <row r="1188" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="11" t="s">
-        <v>1573</v>
+        <v>1814</v>
       </c>
       <c r="B1188" s="3" t="s">
         <v>842</v>
@@ -43619,7 +43694,7 @@
     </row>
     <row r="1189" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="11" t="s">
-        <v>1514</v>
+        <v>1573</v>
       </c>
       <c r="B1189" s="3" t="s">
         <v>842</v>
@@ -43644,7 +43719,7 @@
     </row>
     <row r="1190" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="11" t="s">
-        <v>1767</v>
+        <v>1514</v>
       </c>
       <c r="B1190" s="3" t="s">
         <v>842</v>
@@ -43669,7 +43744,7 @@
     </row>
     <row r="1191" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="11" t="s">
-        <v>2046</v>
+        <v>1767</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>842</v>
@@ -43694,7 +43769,7 @@
     </row>
     <row r="1192" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="11" t="s">
-        <v>1533</v>
+        <v>2046</v>
       </c>
       <c r="B1192" s="3" t="s">
         <v>842</v>
@@ -43719,7 +43794,7 @@
     </row>
     <row r="1193" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="11" t="s">
-        <v>845</v>
+        <v>1533</v>
       </c>
       <c r="B1193" s="3" t="s">
         <v>842</v>
@@ -43744,22 +43819,22 @@
     </row>
     <row r="1194" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="11" t="s">
-        <v>897</v>
+        <v>845</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C1194" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D1194" s="4">
-        <v>4301031221</v>
+        <v>4301031220</v>
       </c>
       <c r="E1194" s="3">
-        <v>4680115882676</v>
+        <v>4680115882669</v>
       </c>
       <c r="F1194" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G1194" s="1"/>
       <c r="H1194" s="1">
@@ -43769,7 +43844,7 @@
     </row>
     <row r="1195" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="11" t="s">
-        <v>1815</v>
+        <v>897</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>846</v>
@@ -43794,7 +43869,7 @@
     </row>
     <row r="1196" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="11" t="s">
-        <v>1572</v>
+        <v>1815</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>846</v>
@@ -43819,7 +43894,7 @@
     </row>
     <row r="1197" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="11" t="s">
-        <v>2047</v>
+        <v>1572</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>846</v>
@@ -43844,7 +43919,7 @@
     </row>
     <row r="1198" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="11" t="s">
-        <v>1766</v>
+        <v>2047</v>
       </c>
       <c r="B1198" s="3" t="s">
         <v>846</v>
@@ -43869,7 +43944,7 @@
     </row>
     <row r="1199" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="11" t="s">
-        <v>1515</v>
+        <v>1766</v>
       </c>
       <c r="B1199" s="3" t="s">
         <v>846</v>
@@ -43894,7 +43969,7 @@
     </row>
     <row r="1200" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1200" s="11" t="s">
-        <v>1644</v>
+        <v>1515</v>
       </c>
       <c r="B1200" s="3" t="s">
         <v>846</v>
@@ -43919,7 +43994,7 @@
     </row>
     <row r="1201" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1201" s="11" t="s">
-        <v>1534</v>
+        <v>1644</v>
       </c>
       <c r="B1201" s="3" t="s">
         <v>846</v>
@@ -43944,7 +44019,7 @@
     </row>
     <row r="1202" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="11" t="s">
-        <v>849</v>
+        <v>1534</v>
       </c>
       <c r="B1202" s="3" t="s">
         <v>846</v>
@@ -43969,22 +44044,22 @@
     </row>
     <row r="1203" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1203" s="11" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>213</v>
+        <v>846</v>
       </c>
       <c r="C1203" s="3" t="s">
-        <v>214</v>
+        <v>847</v>
       </c>
       <c r="D1203" s="4">
-        <v>4301031224</v>
+        <v>4301031221</v>
       </c>
       <c r="E1203" s="3">
-        <v>4680115882683</v>
+        <v>4680115882676</v>
       </c>
       <c r="F1203" s="5" t="s">
-        <v>241</v>
+        <v>848</v>
       </c>
       <c r="G1203" s="1"/>
       <c r="H1203" s="1">
@@ -43994,7 +44069,7 @@
     </row>
     <row r="1204" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1204" s="11" t="s">
-        <v>1596</v>
+        <v>894</v>
       </c>
       <c r="B1204" s="3" t="s">
         <v>213</v>
@@ -44019,7 +44094,7 @@
     </row>
     <row r="1205" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1205" s="11" t="s">
-        <v>1812</v>
+        <v>1596</v>
       </c>
       <c r="B1205" s="3" t="s">
         <v>213</v>
@@ -44044,7 +44119,7 @@
     </row>
     <row r="1206" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1206" s="11" t="s">
-        <v>1575</v>
+        <v>1812</v>
       </c>
       <c r="B1206" s="3" t="s">
         <v>213</v>
@@ -44069,7 +44144,7 @@
     </row>
     <row r="1207" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1207" s="11" t="s">
-        <v>1707</v>
+        <v>1575</v>
       </c>
       <c r="B1207" s="3" t="s">
         <v>213</v>
@@ -44094,7 +44169,7 @@
     </row>
     <row r="1208" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1208" s="11" t="s">
-        <v>1285</v>
+        <v>1707</v>
       </c>
       <c r="B1208" s="3" t="s">
         <v>213</v>
@@ -44119,7 +44194,7 @@
     </row>
     <row r="1209" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1209" s="11" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="B1209" s="3" t="s">
         <v>213</v>
@@ -44144,7 +44219,7 @@
     </row>
     <row r="1210" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1210" s="11" t="s">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="B1210" s="3" t="s">
         <v>213</v>
@@ -44169,7 +44244,7 @@
     </row>
     <row r="1211" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1211" s="11" t="s">
-        <v>2035</v>
+        <v>1531</v>
       </c>
       <c r="B1211" s="3" t="s">
         <v>213</v>
@@ -44194,7 +44269,7 @@
     </row>
     <row r="1212" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1212" s="11" t="s">
-        <v>840</v>
+        <v>2035</v>
       </c>
       <c r="B1212" s="3" t="s">
         <v>213</v>
@@ -44219,22 +44294,22 @@
     </row>
     <row r="1213" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1213" s="11" t="s">
-        <v>895</v>
+        <v>840</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1213" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D1213" s="4">
-        <v>4301031230</v>
+        <v>4301031224</v>
       </c>
       <c r="E1213" s="3">
-        <v>4680115882690</v>
+        <v>4680115882683</v>
       </c>
       <c r="F1213" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G1213" s="1"/>
       <c r="H1213" s="1">
@@ -44244,7 +44319,7 @@
     </row>
     <row r="1214" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1214" s="11" t="s">
-        <v>1597</v>
+        <v>895</v>
       </c>
       <c r="B1214" s="3" t="s">
         <v>215</v>
@@ -44269,7 +44344,7 @@
     </row>
     <row r="1215" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1215" s="11" t="s">
-        <v>1813</v>
+        <v>1597</v>
       </c>
       <c r="B1215" s="3" t="s">
         <v>215</v>
@@ -44294,7 +44369,7 @@
     </row>
     <row r="1216" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1216" s="11" t="s">
-        <v>1574</v>
+        <v>1813</v>
       </c>
       <c r="B1216" s="3" t="s">
         <v>215</v>
@@ -44319,7 +44394,7 @@
     </row>
     <row r="1217" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1217" s="11" t="s">
-        <v>1708</v>
+        <v>1574</v>
       </c>
       <c r="B1217" s="3" t="s">
         <v>215</v>
@@ -44344,7 +44419,7 @@
     </row>
     <row r="1218" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1218" s="11" t="s">
-        <v>1286</v>
+        <v>1708</v>
       </c>
       <c r="B1218" s="3" t="s">
         <v>215</v>
@@ -44369,7 +44444,7 @@
     </row>
     <row r="1219" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1219" s="11" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="B1219" s="3" t="s">
         <v>215</v>
@@ -44394,7 +44469,7 @@
     </row>
     <row r="1220" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1220" s="11" t="s">
-        <v>1530</v>
+        <v>1313</v>
       </c>
       <c r="B1220" s="3" t="s">
         <v>215</v>
@@ -44419,7 +44494,7 @@
     </row>
     <row r="1221" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1221" s="11" t="s">
-        <v>841</v>
+        <v>1530</v>
       </c>
       <c r="B1221" s="3" t="s">
         <v>215</v>
@@ -44442,34 +44517,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1222" s="11" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>531</v>
+        <v>215</v>
       </c>
       <c r="C1222" s="3" t="s">
-        <v>1106</v>
+        <v>216</v>
       </c>
       <c r="D1222" s="4">
-        <v>4301031248</v>
+        <v>4301031230</v>
       </c>
       <c r="E1222" s="3">
-        <v>4680115883093</v>
+        <v>4680115882690</v>
       </c>
       <c r="F1222" s="5" t="s">
-        <v>1107</v>
+        <v>242</v>
       </c>
       <c r="G1222" s="1"/>
       <c r="H1222" s="1">
         <f>VLOOKUP(E1222,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1223" s="11" t="s">
-        <v>1983</v>
+        <v>824</v>
       </c>
       <c r="B1223" s="3" t="s">
         <v>531</v>
@@ -44494,7 +44569,7 @@
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1224" s="11" t="s">
-        <v>990</v>
+        <v>1983</v>
       </c>
       <c r="B1224" s="3" t="s">
         <v>531</v>
@@ -44519,7 +44594,7 @@
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1225" s="11" t="s">
-        <v>1793</v>
+        <v>990</v>
       </c>
       <c r="B1225" s="3" t="s">
         <v>531</v>
@@ -44544,7 +44619,7 @@
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1226" s="11" t="s">
-        <v>2014</v>
+        <v>1793</v>
       </c>
       <c r="B1226" s="3" t="s">
         <v>531</v>
@@ -44569,7 +44644,7 @@
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1227" s="11" t="s">
-        <v>775</v>
+        <v>2014</v>
       </c>
       <c r="B1227" s="3" t="s">
         <v>531</v>
@@ -44594,7 +44669,7 @@
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1228" s="11" t="s">
-        <v>1151</v>
+        <v>775</v>
       </c>
       <c r="B1228" s="3" t="s">
         <v>531</v>
@@ -44618,8 +44693,8 @@
       </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1229" s="21" t="s">
-        <v>534</v>
+      <c r="A1229" s="11" t="s">
+        <v>1151</v>
       </c>
       <c r="B1229" s="3" t="s">
         <v>531</v>
@@ -44644,7 +44719,7 @@
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1230" s="21" t="s">
-        <v>1816</v>
+        <v>534</v>
       </c>
       <c r="B1230" s="3" t="s">
         <v>531</v>
@@ -44669,7 +44744,7 @@
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1231" s="21" t="s">
-        <v>1727</v>
+        <v>1816</v>
       </c>
       <c r="B1231" s="3" t="s">
         <v>531</v>
@@ -44694,7 +44769,7 @@
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1232" s="21" t="s">
-        <v>1215</v>
+        <v>1727</v>
       </c>
       <c r="B1232" s="3" t="s">
         <v>531</v>
@@ -44719,7 +44794,7 @@
     </row>
     <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1233" s="21" t="s">
-        <v>1404</v>
+        <v>1215</v>
       </c>
       <c r="B1233" s="3" t="s">
         <v>531</v>
@@ -44744,7 +44819,7 @@
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1234" s="21" t="s">
-        <v>1785</v>
+        <v>1404</v>
       </c>
       <c r="B1234" s="3" t="s">
         <v>531</v>
@@ -44768,8 +44843,8 @@
       </c>
     </row>
     <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1235" s="11" t="s">
-        <v>1683</v>
+      <c r="A1235" s="21" t="s">
+        <v>1785</v>
       </c>
       <c r="B1235" s="3" t="s">
         <v>531</v>
@@ -44792,24 +44867,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1236" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1236" s="11" t="s">
-        <v>777</v>
+        <v>1683</v>
       </c>
       <c r="B1236" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1236" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D1236" s="4">
-        <v>4301031250</v>
+        <v>4301031248</v>
       </c>
       <c r="E1236" s="3">
-        <v>4680115883109</v>
+        <v>4680115883093</v>
       </c>
       <c r="F1236" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="G1236" s="1"/>
       <c r="H1236" s="1">
@@ -44819,7 +44894,7 @@
     </row>
     <row r="1237" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1237" s="11" t="s">
-        <v>825</v>
+        <v>777</v>
       </c>
       <c r="B1237" s="3" t="s">
         <v>532</v>
@@ -44844,7 +44919,7 @@
     </row>
     <row r="1238" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1238" s="11" t="s">
-        <v>1571</v>
+        <v>825</v>
       </c>
       <c r="B1238" s="3" t="s">
         <v>532</v>
@@ -44869,7 +44944,7 @@
     </row>
     <row r="1239" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1239" s="11" t="s">
-        <v>978</v>
+        <v>1571</v>
       </c>
       <c r="B1239" s="3" t="s">
         <v>532</v>
@@ -44894,7 +44969,7 @@
     </row>
     <row r="1240" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1240" s="11" t="s">
-        <v>1929</v>
+        <v>978</v>
       </c>
       <c r="B1240" s="3" t="s">
         <v>532</v>
@@ -44919,7 +44994,7 @@
     </row>
     <row r="1241" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1241" s="11" t="s">
-        <v>1016</v>
+        <v>1929</v>
       </c>
       <c r="B1241" s="3" t="s">
         <v>532</v>
@@ -44944,7 +45019,7 @@
     </row>
     <row r="1242" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1242" s="11" t="s">
-        <v>1216</v>
+        <v>1016</v>
       </c>
       <c r="B1242" s="3" t="s">
         <v>532</v>
@@ -44969,7 +45044,7 @@
     </row>
     <row r="1243" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1243" s="11" t="s">
-        <v>1418</v>
+        <v>1216</v>
       </c>
       <c r="B1243" s="3" t="s">
         <v>532</v>
@@ -44994,7 +45069,7 @@
     </row>
     <row r="1244" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1244" s="11" t="s">
-        <v>1606</v>
+        <v>1418</v>
       </c>
       <c r="B1244" s="3" t="s">
         <v>532</v>
@@ -45019,7 +45094,7 @@
     </row>
     <row r="1245" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1245" s="11" t="s">
-        <v>1684</v>
+        <v>1606</v>
       </c>
       <c r="B1245" s="3" t="s">
         <v>532</v>
@@ -45044,22 +45119,22 @@
     </row>
     <row r="1246" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1246" s="11" t="s">
-        <v>776</v>
+        <v>1684</v>
       </c>
       <c r="B1246" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C1246" s="3" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="D1246" s="4">
-        <v>4301031252</v>
+        <v>4301031250</v>
       </c>
       <c r="E1246" s="3">
-        <v>4680115883116</v>
+        <v>4680115883109</v>
       </c>
       <c r="F1246" s="5" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="G1246" s="1"/>
       <c r="H1246" s="1">
@@ -45069,7 +45144,7 @@
     </row>
     <row r="1247" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1247" s="11" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
       <c r="B1247" s="3" t="s">
         <v>530</v>
@@ -45094,7 +45169,7 @@
     </row>
     <row r="1248" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1248" s="11" t="s">
-        <v>533</v>
+        <v>823</v>
       </c>
       <c r="B1248" s="3" t="s">
         <v>530</v>
@@ -45119,7 +45194,7 @@
     </row>
     <row r="1249" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1249" s="11" t="s">
-        <v>963</v>
+        <v>533</v>
       </c>
       <c r="B1249" s="3" t="s">
         <v>530</v>
@@ -45144,7 +45219,7 @@
     </row>
     <row r="1250" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1250" s="11" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="B1250" s="3" t="s">
         <v>530</v>
@@ -45169,7 +45244,7 @@
     </row>
     <row r="1251" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1251" s="11" t="s">
-        <v>1214</v>
+        <v>989</v>
       </c>
       <c r="B1251" s="3" t="s">
         <v>530</v>
@@ -45194,7 +45269,7 @@
     </row>
     <row r="1252" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1252" s="11" t="s">
-        <v>1819</v>
+        <v>1214</v>
       </c>
       <c r="B1252" s="3" t="s">
         <v>530</v>
@@ -45219,7 +45294,7 @@
     </row>
     <row r="1253" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1253" s="11" t="s">
-        <v>1761</v>
+        <v>1819</v>
       </c>
       <c r="B1253" s="3" t="s">
         <v>530</v>
@@ -45238,12 +45313,13 @@
       </c>
       <c r="G1253" s="1"/>
       <c r="H1253" s="1">
+        <f>VLOOKUP(E1253,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1254" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1254" s="11" t="s">
-        <v>1786</v>
+        <v>1761</v>
       </c>
       <c r="B1254" s="3" t="s">
         <v>530</v>
@@ -45267,7 +45343,7 @@
     </row>
     <row r="1255" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1255" s="11" t="s">
-        <v>1956</v>
+        <v>1786</v>
       </c>
       <c r="B1255" s="3" t="s">
         <v>530</v>
@@ -45291,7 +45367,7 @@
     </row>
     <row r="1256" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1256" s="11" t="s">
-        <v>1682</v>
+        <v>1956</v>
       </c>
       <c r="B1256" s="3" t="s">
         <v>530</v>
@@ -45310,38 +45386,37 @@
       </c>
       <c r="G1256" s="1"/>
       <c r="H1256" s="1">
-        <f>VLOOKUP(E1256,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1257" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1257" s="11" t="s">
-        <v>1140</v>
+        <v>1682</v>
       </c>
       <c r="B1257" s="3" t="s">
-        <v>1092</v>
+        <v>530</v>
       </c>
       <c r="C1257" s="3" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="D1257" s="4">
-        <v>4301031257</v>
+        <v>4301031252</v>
       </c>
       <c r="E1257" s="3">
-        <v>4680115883147</v>
+        <v>4680115883116</v>
       </c>
       <c r="F1257" s="5" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="G1257" s="1"/>
       <c r="H1257" s="1">
         <f>VLOOKUP(E1257,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1258" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1258" s="11" t="s">
-        <v>1094</v>
+        <v>1140</v>
       </c>
       <c r="B1258" s="3" t="s">
         <v>1092</v>
@@ -45364,24 +45439,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1259" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1259" s="11" t="s">
-        <v>1142</v>
+        <v>1094</v>
       </c>
       <c r="B1259" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C1259" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D1259" s="4">
-        <v>4301031258</v>
+        <v>4301031257</v>
       </c>
       <c r="E1259" s="3">
-        <v>4680115883161</v>
+        <v>4680115883147</v>
       </c>
       <c r="F1259" s="5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G1259" s="1"/>
       <c r="H1259" s="1">
@@ -45391,7 +45466,7 @@
     </row>
     <row r="1260" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1260" s="11" t="s">
-        <v>1097</v>
+        <v>1142</v>
       </c>
       <c r="B1260" s="3" t="s">
         <v>1095</v>
@@ -45414,34 +45489,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1261" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1261" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C1261" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D1261" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E1261" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="F1261" s="1" t="s">
-        <v>712</v>
+        <v>1097</v>
+      </c>
+      <c r="B1261" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1261" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1261" s="4">
+        <v>4301031258</v>
+      </c>
+      <c r="E1261" s="3">
+        <v>4680115883161</v>
+      </c>
+      <c r="F1261" s="5" t="s">
+        <v>1097</v>
       </c>
       <c r="G1261" s="1"/>
-      <c r="H1261" s="1" t="e">
+      <c r="H1261" s="1">
         <f>VLOOKUP(E1261,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1262" s="11" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B1262" s="1" t="s">
         <v>712</v>
@@ -45466,7 +45541,7 @@
     </row>
     <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1263" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B1263" s="1" t="s">
         <v>712</v>
@@ -45489,24 +45564,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1264" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1264" s="11" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B1264" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1264" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D1264" s="4">
-        <v>4301031198</v>
-      </c>
-      <c r="E1264" s="3">
-        <v>4607091383348</v>
-      </c>
-      <c r="F1264" s="5" t="s">
-        <v>533</v>
+        <v>716</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1264" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="F1264" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="G1264" s="1"/>
       <c r="H1264" s="1" t="e">
@@ -45516,22 +45591,22 @@
     </row>
     <row r="1265" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1265" s="11" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="B1265" s="3" t="s">
-        <v>1183</v>
+        <v>530</v>
       </c>
       <c r="C1265" s="3" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="D1265" s="4">
-        <v>4301032044</v>
+        <v>4301031198</v>
       </c>
       <c r="E1265" s="3">
-        <v>4680115883000</v>
+        <v>4607091383348</v>
       </c>
       <c r="F1265" s="5" t="s">
-        <v>1185</v>
+        <v>533</v>
       </c>
       <c r="G1265" s="1"/>
       <c r="H1265" s="1" t="e">
@@ -45541,7 +45616,7 @@
     </row>
     <row r="1266" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1266" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1266" s="3" t="s">
         <v>1183</v>
@@ -45566,22 +45641,22 @@
     </row>
     <row r="1267" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1267" s="11" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B1267" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="C1267" s="3" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="D1267" s="4">
-        <v>4301032042</v>
+        <v>4301032044</v>
       </c>
       <c r="E1267" s="3">
-        <v>4680115883017</v>
+        <v>4680115883000</v>
       </c>
       <c r="F1267" s="5" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="G1267" s="1"/>
       <c r="H1267" s="1" t="e">
@@ -45591,32 +45666,32 @@
     </row>
     <row r="1268" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1268" s="11" t="s">
-        <v>1781</v>
+        <v>1182</v>
       </c>
       <c r="B1268" s="3" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="C1268" s="3" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="D1268" s="4">
-        <v>4301170008</v>
+        <v>4301032042</v>
       </c>
       <c r="E1268" s="3">
-        <v>4680115882980</v>
+        <v>4680115883017</v>
       </c>
       <c r="F1268" s="5" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="G1268" s="1"/>
-      <c r="H1268" s="1">
+      <c r="H1268" s="1" t="e">
         <f>VLOOKUP(E1268,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1269" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1269" s="11" t="s">
-        <v>1190</v>
+        <v>1781</v>
       </c>
       <c r="B1269" s="3" t="s">
         <v>1187</v>
@@ -45641,82 +45716,82 @@
     </row>
     <row r="1270" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1270" s="11" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="C1270" s="3" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="D1270" s="4">
-        <v>4301011450</v>
+        <v>4301170008</v>
       </c>
       <c r="E1270" s="3">
-        <v>4680115881402</v>
+        <v>4680115882980</v>
       </c>
       <c r="F1270" s="5" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="G1270" s="1"/>
       <c r="H1270" s="1">
         <f>VLOOKUP(E1270,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1271" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1271" s="11" t="s">
-        <v>1241</v>
+        <v>1204</v>
       </c>
       <c r="B1271" s="3" t="s">
-        <v>1242</v>
+        <v>1201</v>
       </c>
       <c r="C1271" s="3" t="s">
-        <v>1243</v>
+        <v>1202</v>
       </c>
       <c r="D1271" s="4">
-        <v>4301020262</v>
+        <v>4301011450</v>
       </c>
       <c r="E1271" s="3">
-        <v>4680115882935</v>
+        <v>4680115881402</v>
       </c>
       <c r="F1271" s="5" t="s">
-        <v>1244</v>
+        <v>1203</v>
       </c>
       <c r="G1271" s="1"/>
       <c r="H1271" s="1">
         <f>VLOOKUP(E1271,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1272" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="11" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C1272" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D1272" s="4">
-        <v>4301170009</v>
+        <v>4301020262</v>
       </c>
       <c r="E1272" s="3">
-        <v>4680115882997</v>
+        <v>4680115882935</v>
       </c>
       <c r="F1272" s="5" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G1272" s="1"/>
       <c r="H1272" s="1">
         <f>VLOOKUP(E1272,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1273" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="11" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B1273" s="3" t="s">
         <v>1246</v>
@@ -45741,32 +45816,32 @@
     </row>
     <row r="1274" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="11" t="s">
-        <v>1615</v>
+        <v>1245</v>
       </c>
       <c r="B1274" s="3" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C1274" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D1274" s="4">
-        <v>4301011367</v>
+        <v>4301170009</v>
       </c>
       <c r="E1274" s="3">
-        <v>4680115880603</v>
+        <v>4680115882997</v>
       </c>
       <c r="F1274" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G1274" s="1"/>
       <c r="H1274" s="1">
         <f>VLOOKUP(E1274,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1275" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="11" t="s">
-        <v>1252</v>
+        <v>1615</v>
       </c>
       <c r="B1275" s="3" t="s">
         <v>1250</v>
@@ -45791,7 +45866,7 @@
     </row>
     <row r="1276" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="11" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B1276" s="3" t="s">
         <v>1250</v>
@@ -45816,22 +45891,22 @@
     </row>
     <row r="1277" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="11" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B1277" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C1277" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D1277" s="4">
-        <v>4301011366</v>
+        <v>4301011367</v>
       </c>
       <c r="E1277" s="3">
-        <v>4607091389982</v>
+        <v>4680115880603</v>
       </c>
       <c r="F1277" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="G1277" s="1"/>
       <c r="H1277" s="1">
@@ -45841,82 +45916,82 @@
     </row>
     <row r="1278" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="11" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
       <c r="B1278" s="3" t="s">
-        <v>1280</v>
+        <v>1254</v>
       </c>
       <c r="C1278" s="3" t="s">
-        <v>1281</v>
+        <v>1255</v>
       </c>
       <c r="D1278" s="4">
-        <v>4301032043</v>
+        <v>4301011366</v>
       </c>
       <c r="E1278" s="3">
-        <v>4680115883031</v>
+        <v>4607091389982</v>
       </c>
       <c r="F1278" s="5" t="s">
-        <v>1282</v>
+        <v>1256</v>
       </c>
       <c r="G1278" s="1"/>
-      <c r="H1278" s="1" t="e">
+      <c r="H1278" s="1">
         <f>VLOOKUP(E1278,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1279" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="11" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
       <c r="B1279" s="3" t="s">
-        <v>1306</v>
+        <v>1280</v>
       </c>
       <c r="C1279" s="3" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
       <c r="D1279" s="4">
-        <v>4301031247</v>
+        <v>4301032043</v>
       </c>
       <c r="E1279" s="3">
-        <v>4680115883048</v>
+        <v>4680115883031</v>
       </c>
       <c r="F1279" s="5" t="s">
-        <v>1308</v>
+        <v>1282</v>
       </c>
       <c r="G1279" s="1"/>
-      <c r="H1279" s="1">
+      <c r="H1279" s="1" t="e">
         <f>VLOOKUP(E1279,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1280" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="11" t="s">
-        <v>1456</v>
+        <v>1305</v>
       </c>
       <c r="B1280" s="3" t="s">
-        <v>1335</v>
+        <v>1306</v>
       </c>
       <c r="C1280" s="3" t="s">
-        <v>1336</v>
+        <v>1307</v>
       </c>
       <c r="D1280" s="4">
-        <v>4301031249</v>
+        <v>4301031247</v>
       </c>
       <c r="E1280" s="3">
-        <v>4680115882072</v>
+        <v>4680115883048</v>
       </c>
       <c r="F1280" s="5" t="s">
-        <v>1334</v>
+        <v>1308</v>
       </c>
       <c r="G1280" s="1"/>
       <c r="H1280" s="1">
         <f>VLOOKUP(E1280,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1281" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="11" t="s">
-        <v>1334</v>
+        <v>1456</v>
       </c>
       <c r="B1281" s="3" t="s">
         <v>1335</v>
@@ -45941,32 +46016,32 @@
     </row>
     <row r="1282" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="11" t="s">
-        <v>1388</v>
+        <v>1334</v>
       </c>
       <c r="B1282" s="3" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="C1282" s="3" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="D1282" s="4">
-        <v>4301011562</v>
+        <v>4301031249</v>
       </c>
       <c r="E1282" s="3">
-        <v>4680115882577</v>
+        <v>4680115882072</v>
       </c>
       <c r="F1282" s="5" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="G1282" s="1"/>
       <c r="H1282" s="1">
         <f>VLOOKUP(E1282,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1283" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="11" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="B1283" s="3" t="s">
         <v>1344</v>
@@ -45991,7 +46066,7 @@
     </row>
     <row r="1284" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="11" t="s">
-        <v>1918</v>
+        <v>1409</v>
       </c>
       <c r="B1284" s="3" t="s">
         <v>1344</v>
@@ -46016,7 +46091,7 @@
     </row>
     <row r="1285" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="11" t="s">
-        <v>1346</v>
+        <v>1918</v>
       </c>
       <c r="B1285" s="3" t="s">
         <v>1344</v>
@@ -46041,7 +46116,7 @@
     </row>
     <row r="1286" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="11" t="s">
-        <v>2050</v>
+        <v>1346</v>
       </c>
       <c r="B1286" s="3" t="s">
         <v>1344</v>
@@ -46066,7 +46141,7 @@
     </row>
     <row r="1287" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="11" t="s">
-        <v>1343</v>
+        <v>2050</v>
       </c>
       <c r="B1287" s="3" t="s">
         <v>1344</v>
@@ -46091,32 +46166,32 @@
     </row>
     <row r="1288" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="11" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B1288" s="3" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C1288" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D1288" s="4">
-        <v>4301051476</v>
+        <v>4301011562</v>
       </c>
       <c r="E1288" s="3">
-        <v>4680115882584</v>
+        <v>4680115882577</v>
       </c>
       <c r="F1288" s="5" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G1288" s="1"/>
       <c r="H1288" s="1">
         <f>VLOOKUP(E1288,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1289" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="11" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B1289" s="3" t="s">
         <v>1348</v>
@@ -46141,7 +46216,7 @@
     </row>
     <row r="1290" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="11" t="s">
-        <v>1410</v>
+        <v>1350</v>
       </c>
       <c r="B1290" s="3" t="s">
         <v>1348</v>
@@ -46166,7 +46241,7 @@
     </row>
     <row r="1291" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="11" t="s">
-        <v>1919</v>
+        <v>1410</v>
       </c>
       <c r="B1291" s="3" t="s">
         <v>1348</v>
@@ -46191,7 +46266,7 @@
     </row>
     <row r="1292" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="11" t="s">
-        <v>1383</v>
+        <v>1919</v>
       </c>
       <c r="B1292" s="3" t="s">
         <v>1348</v>
@@ -46216,32 +46291,32 @@
     </row>
     <row r="1293" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1293" s="11" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="B1293" s="3" t="s">
-        <v>1397</v>
+        <v>1348</v>
       </c>
       <c r="C1293" s="3" t="s">
-        <v>1398</v>
+        <v>1349</v>
       </c>
       <c r="D1293" s="4">
-        <v>4301031234</v>
+        <v>4301051476</v>
       </c>
       <c r="E1293" s="3">
-        <v>4680115883444</v>
+        <v>4680115882584</v>
       </c>
       <c r="F1293" s="5" t="s">
-        <v>1399</v>
+        <v>1350</v>
       </c>
       <c r="G1293" s="1"/>
       <c r="H1293" s="1">
         <f>VLOOKUP(E1293,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1294" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="11" t="s">
-        <v>2051</v>
+        <v>1468</v>
       </c>
       <c r="B1294" s="3" t="s">
         <v>1397</v>
@@ -46266,7 +46341,7 @@
     </row>
     <row r="1295" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1295" s="11" t="s">
-        <v>1400</v>
+        <v>2051</v>
       </c>
       <c r="B1295" s="3" t="s">
         <v>1397</v>
@@ -46291,22 +46366,22 @@
     </row>
     <row r="1296" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1296" s="11" t="s">
-        <v>1628</v>
+        <v>1400</v>
       </c>
       <c r="B1296" s="3" t="s">
-        <v>1452</v>
+        <v>1397</v>
       </c>
       <c r="C1296" s="3" t="s">
-        <v>1453</v>
+        <v>1398</v>
       </c>
       <c r="D1296" s="4">
-        <v>4301020254</v>
+        <v>4301031234</v>
       </c>
       <c r="E1296" s="3">
-        <v>4680115881914</v>
+        <v>4680115883444</v>
       </c>
       <c r="F1296" s="5" t="s">
-        <v>1454</v>
+        <v>1399</v>
       </c>
       <c r="G1296" s="1"/>
       <c r="H1296" s="1">
@@ -46316,7 +46391,7 @@
     </row>
     <row r="1297" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1297" s="11" t="s">
-        <v>1455</v>
+        <v>1628</v>
       </c>
       <c r="B1297" s="3" t="s">
         <v>1452</v>
@@ -46341,47 +46416,47 @@
     </row>
     <row r="1298" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1298" s="11" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="B1298" s="3" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="C1298" s="3" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="D1298" s="4">
-        <v>4301031254</v>
+        <v>4301020254</v>
       </c>
       <c r="E1298" s="3">
-        <v>4680115883154</v>
+        <v>4680115881914</v>
       </c>
       <c r="F1298" s="5" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="G1298" s="1"/>
       <c r="H1298" s="1">
         <f>VLOOKUP(E1298,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1299" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1299" s="11" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1299" s="3" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C1299" s="3" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="D1299" s="4">
-        <v>4301031256</v>
+        <v>4301031254</v>
       </c>
       <c r="E1299" s="3">
-        <v>4680115883178</v>
+        <v>4680115883154</v>
       </c>
       <c r="F1299" s="5" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="G1299" s="1"/>
       <c r="H1299" s="1">
@@ -46391,32 +46466,32 @@
     </row>
     <row r="1300" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1300" s="11" t="s">
-        <v>654</v>
+        <v>1463</v>
       </c>
       <c r="B1300" s="3" t="s">
-        <v>1301</v>
+        <v>1464</v>
       </c>
       <c r="C1300" s="3" t="s">
-        <v>1483</v>
+        <v>1465</v>
       </c>
       <c r="D1300" s="4">
-        <v>4301031244</v>
+        <v>4301031256</v>
       </c>
       <c r="E1300" s="3">
-        <v>4640242180595</v>
+        <v>4680115883178</v>
       </c>
       <c r="F1300" s="5" t="s">
-        <v>1484</v>
+        <v>1466</v>
       </c>
       <c r="G1300" s="1"/>
       <c r="H1300" s="1">
         <f>VLOOKUP(E1300,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1301" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1301" s="11" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B1301" s="3" t="s">
         <v>1301</v>
@@ -46441,7 +46516,7 @@
     </row>
     <row r="1302" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1302" s="11" t="s">
-        <v>1422</v>
+        <v>657</v>
       </c>
       <c r="B1302" s="3" t="s">
         <v>1301</v>
@@ -46466,7 +46541,7 @@
     </row>
     <row r="1303" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1303" s="11" t="s">
-        <v>938</v>
+        <v>1422</v>
       </c>
       <c r="B1303" s="3" t="s">
         <v>1301</v>
@@ -46490,8 +46565,8 @@
       </c>
     </row>
     <row r="1304" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1304" s="22" t="s">
-        <v>607</v>
+      <c r="A1304" s="11" t="s">
+        <v>938</v>
       </c>
       <c r="B1304" s="3" t="s">
         <v>1301</v>
@@ -46515,8 +46590,8 @@
       </c>
     </row>
     <row r="1305" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1305" s="11" t="s">
-        <v>792</v>
+      <c r="A1305" s="22" t="s">
+        <v>607</v>
       </c>
       <c r="B1305" s="3" t="s">
         <v>1301</v>
@@ -46533,9 +46608,7 @@
       <c r="F1305" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="G1305" s="1" t="s">
-        <v>1529</v>
-      </c>
+      <c r="G1305" s="1"/>
       <c r="H1305" s="1">
         <f>VLOOKUP(E1305,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -46543,7 +46616,7 @@
     </row>
     <row r="1306" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1306" s="11" t="s">
-        <v>1359</v>
+        <v>792</v>
       </c>
       <c r="B1306" s="3" t="s">
         <v>1301</v>
@@ -46560,7 +46633,9 @@
       <c r="F1306" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="G1306" s="1"/>
+      <c r="G1306" s="1" t="s">
+        <v>1529</v>
+      </c>
       <c r="H1306" s="1">
         <f>VLOOKUP(E1306,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -46568,7 +46643,7 @@
     </row>
     <row r="1307" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1307" s="11" t="s">
-        <v>1009</v>
+        <v>1359</v>
       </c>
       <c r="B1307" s="3" t="s">
         <v>1301</v>
@@ -46593,7 +46668,7 @@
     </row>
     <row r="1308" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1308" s="11" t="s">
-        <v>1724</v>
+        <v>1009</v>
       </c>
       <c r="B1308" s="3" t="s">
         <v>1301</v>
@@ -46618,7 +46693,7 @@
     </row>
     <row r="1309" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1309" s="11" t="s">
-        <v>2022</v>
+        <v>1724</v>
       </c>
       <c r="B1309" s="3" t="s">
         <v>1301</v>
@@ -46643,7 +46718,7 @@
     </row>
     <row r="1310" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1310" s="11" t="s">
-        <v>1608</v>
+        <v>2022</v>
       </c>
       <c r="B1310" s="3" t="s">
         <v>1301</v>
@@ -46668,7 +46743,7 @@
     </row>
     <row r="1311" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1311" s="11" t="s">
-        <v>1300</v>
+        <v>1608</v>
       </c>
       <c r="B1311" s="3" t="s">
         <v>1301</v>
@@ -46685,9 +46760,7 @@
       <c r="F1311" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="G1311" s="1" t="s">
-        <v>1538</v>
-      </c>
+      <c r="G1311" s="1"/>
       <c r="H1311" s="1">
         <f>VLOOKUP(E1311,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -46695,7 +46768,7 @@
     </row>
     <row r="1312" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1312" s="11" t="s">
-        <v>691</v>
+        <v>1300</v>
       </c>
       <c r="B1312" s="3" t="s">
         <v>1301</v>
@@ -46713,7 +46786,7 @@
         <v>1484</v>
       </c>
       <c r="G1312" s="1" t="s">
-        <v>1485</v>
+        <v>1538</v>
       </c>
       <c r="H1312" s="1">
         <f>VLOOKUP(E1312,[1]Лист1!$D:$M,10,0)</f>
@@ -46722,32 +46795,34 @@
     </row>
     <row r="1313" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1313" s="11" t="s">
-        <v>1494</v>
+        <v>691</v>
       </c>
       <c r="B1313" s="3" t="s">
-        <v>541</v>
+        <v>1301</v>
       </c>
       <c r="C1313" s="3" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="D1313" s="4">
-        <v>4301011585</v>
+        <v>4301031244</v>
       </c>
       <c r="E1313" s="3">
-        <v>4640242180441</v>
+        <v>4640242180595</v>
       </c>
       <c r="F1313" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G1313" s="1"/>
+        <v>1484</v>
+      </c>
+      <c r="G1313" s="1" t="s">
+        <v>1485</v>
+      </c>
       <c r="H1313" s="1">
         <f>VLOOKUP(E1313,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1314" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1314" s="11" t="s">
-        <v>1780</v>
+        <v>1494</v>
       </c>
       <c r="B1314" s="3" t="s">
         <v>541</v>
@@ -46772,7 +46847,7 @@
     </row>
     <row r="1315" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1315" s="11" t="s">
-        <v>1492</v>
+        <v>1780</v>
       </c>
       <c r="B1315" s="3" t="s">
         <v>541</v>
@@ -46795,49 +46870,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1316" s="11" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B1316" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C1316" s="3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D1316" s="4">
-        <v>4301051510</v>
+        <v>4301011585</v>
       </c>
       <c r="E1316" s="3">
-        <v>4640242180540</v>
+        <v>4640242180441</v>
       </c>
       <c r="F1316" s="5" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="G1316" s="1"/>
       <c r="H1316" s="1">
         <f>VLOOKUP(E1316,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1317" s="11" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B1317" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C1317" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D1317" s="4">
-        <v>4301051508</v>
+        <v>4301051510</v>
       </c>
       <c r="E1317" s="3">
-        <v>4640242180557</v>
+        <v>4640242180540</v>
       </c>
       <c r="F1317" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G1317" s="1"/>
       <c r="H1317" s="1">
@@ -46845,99 +46920,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1318" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1318" s="11" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
       <c r="B1318" s="3" t="s">
-        <v>1517</v>
+        <v>553</v>
       </c>
       <c r="C1318" s="3" t="s">
-        <v>1518</v>
+        <v>1500</v>
       </c>
       <c r="D1318" s="4">
-        <v>4301011483</v>
+        <v>4301051508</v>
       </c>
       <c r="E1318" s="3">
-        <v>4680115881907</v>
+        <v>4640242180557</v>
       </c>
       <c r="F1318" s="5" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="G1318" s="1"/>
       <c r="H1318" s="1">
         <f>VLOOKUP(E1318,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1319" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1319" s="11" t="s">
-        <v>1543</v>
+        <v>1516</v>
       </c>
       <c r="B1319" s="3" t="s">
-        <v>1544</v>
+        <v>1517</v>
       </c>
       <c r="C1319" s="3" t="s">
-        <v>1545</v>
+        <v>1518</v>
       </c>
       <c r="D1319" s="4">
-        <v>4301031255</v>
+        <v>4301011483</v>
       </c>
       <c r="E1319" s="3">
-        <v>4680115883185</v>
+        <v>4680115881907</v>
       </c>
       <c r="F1319" s="5" t="s">
-        <v>1546</v>
+        <v>1516</v>
       </c>
       <c r="G1319" s="1"/>
       <c r="H1319" s="1">
         <f>VLOOKUP(E1319,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1320" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1320" s="11" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="B1320" s="3" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="C1320" s="3" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="D1320" s="4">
-        <v>4301011168</v>
+        <v>4301031255</v>
       </c>
       <c r="E1320" s="3">
-        <v>4607091389999</v>
+        <v>4680115883185</v>
       </c>
       <c r="F1320" s="5" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="G1320" s="1"/>
       <c r="H1320" s="1">
         <f>VLOOKUP(E1320,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1321" s="11" t="s">
-        <v>1618</v>
+        <v>1559</v>
       </c>
       <c r="B1321" s="3" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C1321" s="3" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D1321" s="4">
-        <v>4301020206</v>
+        <v>4301011168</v>
       </c>
       <c r="E1321" s="3">
-        <v>4680115880054</v>
+        <v>4607091389999</v>
       </c>
       <c r="F1321" s="5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="G1321" s="1"/>
       <c r="H1321" s="1">
@@ -46947,7 +47022,7 @@
     </row>
     <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1322" s="11" t="s">
-        <v>1979</v>
+        <v>1618</v>
       </c>
       <c r="B1322" s="3" t="s">
         <v>1563</v>
@@ -46972,7 +47047,7 @@
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1323" s="11" t="s">
-        <v>2029</v>
+        <v>1979</v>
       </c>
       <c r="B1323" s="3" t="s">
         <v>1563</v>
@@ -46997,7 +47072,7 @@
     </row>
     <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1324" s="11" t="s">
-        <v>1809</v>
+        <v>2029</v>
       </c>
       <c r="B1324" s="3" t="s">
         <v>1563</v>
@@ -47022,7 +47097,7 @@
     </row>
     <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1325" s="11" t="s">
-        <v>1758</v>
+        <v>1809</v>
       </c>
       <c r="B1325" s="3" t="s">
         <v>1563</v>
@@ -47041,12 +47116,13 @@
       </c>
       <c r="G1325" s="1"/>
       <c r="H1325" s="1">
+        <f>VLOOKUP(E1325,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1326" s="11" t="s">
-        <v>1566</v>
+        <v>1758</v>
       </c>
       <c r="B1326" s="3" t="s">
         <v>1563</v>
@@ -47063,132 +47139,131 @@
       <c r="F1326" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="G1326" s="1" t="s">
+      <c r="G1326" s="1"/>
+      <c r="H1326" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1327" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1327" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1327" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D1327" s="4">
+        <v>4301020206</v>
+      </c>
+      <c r="E1327" s="3">
+        <v>4680115880054</v>
+      </c>
+      <c r="F1327" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1327" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="H1326" s="1">
-        <f>VLOOKUP(E1326,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1327" s="11" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B1327" s="3" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C1327" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D1327" s="4">
-        <v>4301020196</v>
-      </c>
-      <c r="E1327" s="3">
-        <v>4607091389388</v>
-      </c>
-      <c r="F1327" s="5" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G1327" s="1"/>
       <c r="H1327" s="1">
         <f>VLOOKUP(E1327,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1328" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1328" s="11" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="B1328" s="3" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="C1328" s="3" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="D1328" s="4">
-        <v>4301011565</v>
+        <v>4301020196</v>
       </c>
       <c r="E1328" s="3">
-        <v>4680115882539</v>
+        <v>4607091389388</v>
       </c>
       <c r="F1328" s="5" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="G1328" s="1"/>
       <c r="H1328" s="1">
         <f>VLOOKUP(E1328,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1329" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1329" s="11" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B1329" s="3" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="C1329" s="3" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="D1329" s="4">
-        <v>4301060351</v>
+        <v>4301011565</v>
       </c>
       <c r="E1329" s="3">
-        <v>4680115881464</v>
+        <v>4680115882539</v>
       </c>
       <c r="F1329" s="5" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="G1329" s="1"/>
       <c r="H1329" s="1">
         <f>VLOOKUP(E1329,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1330" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1330" s="11" t="s">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="B1330" s="3" t="s">
-        <v>1634</v>
+        <v>1620</v>
       </c>
       <c r="C1330" s="3" t="s">
-        <v>1635</v>
+        <v>1621</v>
       </c>
       <c r="D1330" s="4">
-        <v>4301011433</v>
+        <v>4301060351</v>
       </c>
       <c r="E1330" s="3">
-        <v>4680115882638</v>
+        <v>4680115881464</v>
       </c>
       <c r="F1330" s="5" t="s">
-        <v>1636</v>
+        <v>1622</v>
       </c>
       <c r="G1330" s="1"/>
       <c r="H1330" s="1">
         <f>VLOOKUP(E1330,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1331" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1331" s="11" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B1331" s="3" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C1331" s="3" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="D1331" s="4">
-        <v>4301011573</v>
+        <v>4301011433</v>
       </c>
       <c r="E1331" s="3">
-        <v>4680115881938</v>
+        <v>4680115882638</v>
       </c>
       <c r="F1331" s="5" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G1331" s="1"/>
       <c r="H1331" s="1">
@@ -47198,47 +47273,47 @@
     </row>
     <row r="1332" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1332" s="11" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="B1332" s="3" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="C1332" s="3" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="D1332" s="4">
-        <v>4301060356</v>
+        <v>4301011573</v>
       </c>
       <c r="E1332" s="3">
-        <v>4680115882652</v>
+        <v>4680115881938</v>
       </c>
       <c r="F1332" s="5" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="G1332" s="1"/>
       <c r="H1332" s="1">
         <f>VLOOKUP(E1332,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1333" s="11" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B1333" s="3" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C1333" s="3" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="D1333" s="4">
-        <v>4301051480</v>
+        <v>4301060356</v>
       </c>
       <c r="E1333" s="3">
-        <v>4680115882645</v>
+        <v>4680115882652</v>
       </c>
       <c r="F1333" s="5" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="G1333" s="1"/>
       <c r="H1333" s="1">
@@ -47246,83 +47321,84 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1334" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1334" s="11" t="s">
-        <v>1852</v>
+        <v>1653</v>
       </c>
       <c r="B1334" s="3" t="s">
-        <v>1853</v>
+        <v>1654</v>
       </c>
       <c r="C1334" s="3" t="s">
-        <v>1854</v>
+        <v>1655</v>
       </c>
       <c r="D1334" s="4">
-        <v>4301020258</v>
+        <v>4301051480</v>
       </c>
       <c r="E1334" s="3">
-        <v>4680115882775</v>
+        <v>4680115882645</v>
       </c>
       <c r="F1334" s="5" t="s">
-        <v>1855</v>
+        <v>1656</v>
       </c>
       <c r="G1334" s="1"/>
       <c r="H1334" s="1">
         <f>VLOOKUP(E1334,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1335" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1335" s="11" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="B1335" s="3" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="C1335" s="3" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="D1335" s="4">
-        <v>4301051479</v>
+        <v>4301020258</v>
       </c>
       <c r="E1335" s="3">
-        <v>4680115882607</v>
+        <v>4680115882775</v>
       </c>
       <c r="F1335" s="5" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="G1335" s="1"/>
       <c r="H1335" s="1">
         <f>VLOOKUP(E1335,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1336" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1336" s="11" t="s">
-        <v>1910</v>
+        <v>1857</v>
       </c>
       <c r="B1336" s="3" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="C1336" s="3" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="D1336" s="4">
-        <v>4301011625</v>
+        <v>4301051479</v>
       </c>
       <c r="E1336" s="3">
-        <v>4680115883956</v>
+        <v>4680115882607</v>
       </c>
       <c r="F1336" s="5" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="G1336" s="1"/>
       <c r="H1336" s="1">
-        <v>50</v>
+        <f>VLOOKUP(E1336,[1]Лист1!$D:$M,10,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="1337" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1337" s="11" t="s">
-        <v>1864</v>
+        <v>1910</v>
       </c>
       <c r="B1337" s="3" t="s">
         <v>1865</v>
@@ -47346,29 +47422,31 @@
     </row>
     <row r="1338" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1338" s="11" t="s">
-        <v>1974</v>
+        <v>1864</v>
       </c>
       <c r="B1338" s="3" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="C1338" s="3" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="D1338" s="4">
-        <v>4301170010</v>
+        <v>4301011625</v>
       </c>
       <c r="E1338" s="3">
-        <v>4680115884090</v>
+        <v>4680115883956</v>
       </c>
       <c r="F1338" s="5" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="G1338" s="1"/>
-      <c r="H1338" s="1"/>
+      <c r="H1338" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="1339" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1339" s="11" t="s">
-        <v>1871</v>
+        <v>1974</v>
       </c>
       <c r="B1339" s="3" t="s">
         <v>1872</v>
@@ -47390,31 +47468,29 @@
     </row>
     <row r="1340" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1340" s="11" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="B1340" s="3" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="C1340" s="3" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="D1340" s="4">
-        <v>4301032047</v>
+        <v>4301170010</v>
       </c>
       <c r="E1340" s="3">
-        <v>4680115884342</v>
+        <v>4680115884090</v>
       </c>
       <c r="F1340" s="5" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="G1340" s="1"/>
-      <c r="H1340" s="1">
-        <v>60</v>
-      </c>
+      <c r="H1340" s="1"/>
     </row>
     <row r="1341" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1341" s="11" t="s">
-        <v>1967</v>
+        <v>1878</v>
       </c>
       <c r="B1341" s="3" t="s">
         <v>1876</v>
@@ -47438,7 +47514,7 @@
     </row>
     <row r="1342" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1342" s="11" t="s">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="B1342" s="3" t="s">
         <v>1876</v>
@@ -47462,7 +47538,7 @@
     </row>
     <row r="1343" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1343" s="11" t="s">
-        <v>1875</v>
+        <v>1958</v>
       </c>
       <c r="B1343" s="3" t="s">
         <v>1876</v>
@@ -47486,22 +47562,22 @@
     </row>
     <row r="1344" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1344" s="11" t="s">
-        <v>1966</v>
+        <v>1875</v>
       </c>
       <c r="B1344" s="3" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="C1344" s="3" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="D1344" s="4">
-        <v>4301032046</v>
+        <v>4301032047</v>
       </c>
       <c r="E1344" s="3">
-        <v>4680115884359</v>
+        <v>4680115884342</v>
       </c>
       <c r="F1344" s="5" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G1344" s="1"/>
       <c r="H1344" s="1">
@@ -47510,7 +47586,7 @@
     </row>
     <row r="1345" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1345" s="11" t="s">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="B1345" s="3" t="s">
         <v>1880</v>
@@ -47534,7 +47610,7 @@
     </row>
     <row r="1346" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1346" s="11" t="s">
-        <v>1879</v>
+        <v>1957</v>
       </c>
       <c r="B1346" s="3" t="s">
         <v>1880</v>
@@ -47558,22 +47634,22 @@
     </row>
     <row r="1347" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1347" s="11" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="B1347" s="3" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="C1347" s="3" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="D1347" s="4">
-        <v>4301032045</v>
+        <v>4301032046</v>
       </c>
       <c r="E1347" s="3">
-        <v>4680115884335</v>
+        <v>4680115884359</v>
       </c>
       <c r="F1347" s="5" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="G1347" s="1"/>
       <c r="H1347" s="1">
@@ -47582,7 +47658,7 @@
     </row>
     <row r="1348" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1348" s="11" t="s">
-        <v>1968</v>
+        <v>1886</v>
       </c>
       <c r="B1348" s="3" t="s">
         <v>1884</v>
@@ -47606,7 +47682,7 @@
     </row>
     <row r="1349" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1349" s="11" t="s">
-        <v>1959</v>
+        <v>1968</v>
       </c>
       <c r="B1349" s="3" t="s">
         <v>1884</v>
@@ -47630,7 +47706,7 @@
     </row>
     <row r="1350" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1350" s="11" t="s">
-        <v>1883</v>
+        <v>1959</v>
       </c>
       <c r="B1350" s="3" t="s">
         <v>1884</v>
@@ -47652,77 +47728,79 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1351" s="11" t="s">
-        <v>1904</v>
+        <v>1883</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
       <c r="C1351" s="3" t="s">
-        <v>1906</v>
+        <v>1885</v>
       </c>
       <c r="D1351" s="4">
-        <v>4301031245</v>
+        <v>4301032045</v>
       </c>
       <c r="E1351" s="3">
-        <v>4680115883963</v>
+        <v>4680115884335</v>
       </c>
       <c r="F1351" s="5" t="s">
-        <v>1907</v>
+        <v>1886</v>
       </c>
       <c r="G1351" s="1"/>
       <c r="H1351" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1352" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1352" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1352" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1352" s="4">
+        <v>4301031245</v>
+      </c>
+      <c r="E1352" s="3">
+        <v>4680115883963</v>
+      </c>
+      <c r="F1352" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G1352" s="1"/>
+      <c r="H1352" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="1352" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1352" s="11" t="s">
+    <row r="1353" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1353" s="11" t="s">
         <v>1913</v>
       </c>
-      <c r="B1352" s="3" t="s">
+      <c r="B1353" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="C1352" s="3" t="s">
+      <c r="C1353" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="D1352" s="4">
+      <c r="D1353" s="4">
         <v>4301051523</v>
       </c>
-      <c r="E1352" s="3">
+      <c r="E1353" s="3">
         <v>4680115882942</v>
       </c>
-      <c r="F1352" s="5" t="s">
+      <c r="F1353" s="5" t="s">
         <v>1916</v>
-      </c>
-      <c r="G1352" s="1"/>
-      <c r="H1352" s="1"/>
-    </row>
-    <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1353" s="11" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B1353" s="3" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C1353" s="3" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D1353" s="4">
-        <v>4301051390</v>
-      </c>
-      <c r="E1353" s="3">
-        <v>4640242181233</v>
-      </c>
-      <c r="F1353" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="G1353" s="1"/>
       <c r="H1353" s="1"/>
     </row>
     <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1354" s="11" t="s">
-        <v>1941</v>
+        <v>2001</v>
       </c>
       <c r="B1354" s="3" t="s">
         <v>1942</v>
@@ -47742,31 +47820,31 @@
       <c r="G1354" s="1"/>
       <c r="H1354" s="1"/>
     </row>
-    <row r="1355" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1355" s="11" t="s">
-        <v>1999</v>
+        <v>1941</v>
       </c>
       <c r="B1355" s="3" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="C1355" s="3" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D1355" s="4">
-        <v>4301031200</v>
+        <v>4301051390</v>
       </c>
       <c r="E1355" s="3">
-        <v>4640242180489</v>
+        <v>4640242181233</v>
       </c>
       <c r="F1355" s="5" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="G1355" s="1"/>
       <c r="H1355" s="1"/>
     </row>
     <row r="1356" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1356" s="11" t="s">
-        <v>1944</v>
+        <v>1999</v>
       </c>
       <c r="B1356" s="3" t="s">
         <v>1945</v>
@@ -47788,29 +47866,29 @@
     </row>
     <row r="1357" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1357" s="11" t="s">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="B1357" s="3" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="C1357" s="3" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D1357" s="4">
-        <v>4301031203</v>
+        <v>4301031200</v>
       </c>
       <c r="E1357" s="3">
-        <v>4640242180908</v>
+        <v>4640242180489</v>
       </c>
       <c r="F1357" s="5" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="G1357" s="1"/>
       <c r="H1357" s="1"/>
     </row>
     <row r="1358" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1358" s="11" t="s">
-        <v>1947</v>
+        <v>2000</v>
       </c>
       <c r="B1358" s="3" t="s">
         <v>1948</v>
@@ -47832,29 +47910,29 @@
     </row>
     <row r="1359" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1359" s="11" t="s">
-        <v>1998</v>
+        <v>1947</v>
       </c>
       <c r="B1359" s="3" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="C1359" s="3" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D1359" s="4">
-        <v>4301040357</v>
+        <v>4301031203</v>
       </c>
       <c r="E1359" s="3">
-        <v>4680115884564</v>
+        <v>4640242180908</v>
       </c>
       <c r="F1359" s="5" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="G1359" s="1"/>
       <c r="H1359" s="1"/>
     </row>
     <row r="1360" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1360" s="11" t="s">
-        <v>1950</v>
+        <v>1998</v>
       </c>
       <c r="B1360" s="3" t="s">
         <v>1951</v>
@@ -47876,51 +47954,51 @@
     </row>
     <row r="1361" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1361" s="11" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B1361" s="3" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="C1361" s="3" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D1361" s="4">
-        <v>4301040358</v>
+        <v>4301040357</v>
       </c>
       <c r="E1361" s="3">
-        <v>4680115884571</v>
+        <v>4680115884564</v>
       </c>
       <c r="F1361" s="5" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="G1361" s="1"/>
       <c r="H1361" s="1"/>
     </row>
     <row r="1362" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1362" s="11" t="s">
-        <v>1997</v>
+        <v>1953</v>
       </c>
       <c r="B1362" s="3" t="s">
-        <v>1971</v>
+        <v>1954</v>
       </c>
       <c r="C1362" s="3" t="s">
-        <v>1972</v>
+        <v>1955</v>
       </c>
       <c r="D1362" s="4">
-        <v>4301170011</v>
+        <v>4301040358</v>
       </c>
       <c r="E1362" s="3">
-        <v>4680115884113</v>
+        <v>4680115884571</v>
       </c>
       <c r="F1362" s="5" t="s">
-        <v>1973</v>
+        <v>1953</v>
       </c>
       <c r="G1362" s="1"/>
       <c r="H1362" s="1"/>
     </row>
     <row r="1363" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1363" s="11" t="s">
-        <v>1970</v>
+        <v>1997</v>
       </c>
       <c r="B1363" s="3" t="s">
         <v>1971</v>
@@ -47942,122 +48020,364 @@
     </row>
     <row r="1364" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1364" s="11" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B1364" s="3" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C1364" s="3" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="D1364" s="4">
-        <v>4301051277</v>
+        <v>4301170011</v>
       </c>
       <c r="E1364" s="3">
-        <v>4680115880511</v>
+        <v>4680115884113</v>
       </c>
       <c r="F1364" s="5" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="G1364" s="1"/>
       <c r="H1364" s="1"/>
     </row>
     <row r="1365" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1365" s="11" t="s">
-        <v>2005</v>
+        <v>1975</v>
       </c>
       <c r="B1365" s="3" t="s">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="C1365" s="3" t="s">
-        <v>2007</v>
+        <v>1977</v>
       </c>
       <c r="D1365" s="4">
-        <v>4301051344</v>
+        <v>4301051277</v>
       </c>
       <c r="E1365" s="3">
-        <v>4680115880412</v>
+        <v>4680115880511</v>
       </c>
       <c r="F1365" s="5" t="s">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="G1365" s="1"/>
       <c r="H1365" s="1"/>
     </row>
     <row r="1366" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1366" s="11" t="s">
-        <v>2036</v>
+        <v>2005</v>
       </c>
       <c r="B1366" s="3" t="s">
-        <v>2037</v>
+        <v>2006</v>
       </c>
       <c r="C1366" s="3" t="s">
-        <v>2038</v>
+        <v>2007</v>
       </c>
       <c r="D1366" s="4">
-        <v>4301031164</v>
+        <v>4301051344</v>
       </c>
       <c r="E1366" s="3">
-        <v>4680115880481</v>
+        <v>4680115880412</v>
       </c>
       <c r="F1366" s="5" t="s">
-        <v>2039</v>
+        <v>2008</v>
       </c>
       <c r="G1366" s="1"/>
       <c r="H1366" s="1"/>
     </row>
-    <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1367" s="11"/>
-      <c r="B1367" s="3"/>
-      <c r="C1367" s="3"/>
-      <c r="D1367" s="4"/>
-      <c r="E1367" s="3"/>
-      <c r="F1367" s="5"/>
+    <row r="1367" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1367" s="11" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1367" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1367" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D1367" s="4">
+        <v>4301031164</v>
+      </c>
+      <c r="E1367" s="3">
+        <v>4680115880481</v>
+      </c>
+      <c r="F1367" s="5" t="s">
+        <v>2039</v>
+      </c>
       <c r="G1367" s="1"/>
       <c r="H1367" s="1"/>
     </row>
-    <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1368" s="11"/>
-      <c r="B1368" s="3"/>
-      <c r="C1368" s="3"/>
-      <c r="D1368" s="4"/>
-      <c r="E1368" s="3"/>
-      <c r="F1368" s="5"/>
+    <row r="1368" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1368" s="11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1368" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1368" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D1368" s="4">
+        <v>4301011722</v>
+      </c>
+      <c r="E1368" s="3">
+        <v>4680115884205</v>
+      </c>
+      <c r="F1368" s="5" t="s">
+        <v>2055</v>
+      </c>
       <c r="G1368" s="1"/>
       <c r="H1368" s="1"/>
     </row>
-    <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1369" s="11"/>
-      <c r="B1369" s="3"/>
-      <c r="C1369" s="3"/>
-      <c r="D1369" s="4"/>
-      <c r="E1369" s="3"/>
-      <c r="F1369" s="5"/>
+    <row r="1369" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1369" s="11" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1369" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1369" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D1369" s="4">
+        <v>4301011824</v>
+      </c>
+      <c r="E1369" s="3">
+        <v>4680115884144</v>
+      </c>
+      <c r="F1369" s="5" t="s">
+        <v>2058</v>
+      </c>
       <c r="G1369" s="1"/>
       <c r="H1369" s="1"/>
     </row>
-    <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1370" s="11"/>
-      <c r="B1370" s="3"/>
-      <c r="C1370" s="3"/>
-      <c r="D1370" s="4"/>
-      <c r="E1370" s="3"/>
-      <c r="F1370" s="5"/>
+    <row r="1370" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1370" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1370" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1370" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D1370" s="4">
+        <v>4301011726</v>
+      </c>
+      <c r="E1370" s="3">
+        <v>4680115884182</v>
+      </c>
+      <c r="F1370" s="5" t="s">
+        <v>2061</v>
+      </c>
       <c r="G1370" s="1"/>
       <c r="H1370" s="1"/>
     </row>
-    <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1371" s="11"/>
-      <c r="B1371" s="3"/>
-      <c r="C1371" s="3"/>
-      <c r="D1371" s="4"/>
-      <c r="E1371" s="3"/>
-      <c r="F1371" s="5"/>
+    <row r="1371" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1371" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1371" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1371" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D1371" s="4">
+        <v>4301011721</v>
+      </c>
+      <c r="E1371" s="3">
+        <v>4680115884175</v>
+      </c>
+      <c r="F1371" s="5" t="s">
+        <v>2064</v>
+      </c>
       <c r="G1371" s="1"/>
       <c r="H1371" s="1"/>
     </row>
+    <row r="1372" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1372" s="11" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1372" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1372" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D1372" s="4">
+        <v>4301011826</v>
+      </c>
+      <c r="E1372" s="3">
+        <v>4680115884137</v>
+      </c>
+      <c r="F1372" s="5" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G1372" s="1"/>
+      <c r="H1372" s="1"/>
+    </row>
+    <row r="1373" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1373" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1373" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1373" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D1373" s="4">
+        <v>4301011724</v>
+      </c>
+      <c r="E1373" s="3">
+        <v>4680115884236</v>
+      </c>
+      <c r="F1373" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G1373" s="1"/>
+      <c r="H1373" s="1"/>
+    </row>
+    <row r="1374" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1374" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1374" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1374" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1374" s="4">
+        <v>4301011717</v>
+      </c>
+      <c r="E1374" s="3">
+        <v>4680115884274</v>
+      </c>
+      <c r="F1374" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G1374" s="1"/>
+      <c r="H1374" s="1"/>
+    </row>
+    <row r="1375" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1375" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1375" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1375" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1375" s="4">
+        <v>4301011733</v>
+      </c>
+      <c r="E1375" s="3">
+        <v>4680115884250</v>
+      </c>
+      <c r="F1375" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G1375" s="1"/>
+      <c r="H1375" s="1"/>
+    </row>
+    <row r="1376" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1376" s="11" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1376" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1376" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D1376" s="4">
+        <v>4301011826</v>
+      </c>
+      <c r="E1376" s="3">
+        <v>4680115884137</v>
+      </c>
+      <c r="F1376" s="5" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G1376" s="1"/>
+      <c r="H1376" s="1"/>
+    </row>
+    <row r="1377" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1377" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1377" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1377" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D1377" s="4">
+        <v>4301011721</v>
+      </c>
+      <c r="E1377" s="3">
+        <v>4680115884175</v>
+      </c>
+      <c r="F1377" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G1377" s="1"/>
+      <c r="H1377" s="1"/>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1378" s="11"/>
+      <c r="B1378" s="3"/>
+      <c r="C1378" s="3"/>
+      <c r="D1378" s="4"/>
+      <c r="E1378" s="3"/>
+      <c r="F1378" s="5"/>
+      <c r="G1378" s="1"/>
+      <c r="H1378" s="1"/>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1379" s="11"/>
+      <c r="B1379" s="3"/>
+      <c r="C1379" s="3"/>
+      <c r="D1379" s="4"/>
+      <c r="E1379" s="3"/>
+      <c r="F1379" s="5"/>
+      <c r="G1379" s="1"/>
+      <c r="H1379" s="1"/>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1380" s="11"/>
+      <c r="B1380" s="3"/>
+      <c r="C1380" s="3"/>
+      <c r="D1380" s="4"/>
+      <c r="E1380" s="3"/>
+      <c r="F1380" s="5"/>
+      <c r="G1380" s="1"/>
+      <c r="H1380" s="1"/>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1381" s="11"/>
+      <c r="B1381" s="3"/>
+      <c r="C1381" s="3"/>
+      <c r="D1381" s="4"/>
+      <c r="E1381" s="3"/>
+      <c r="F1381" s="5"/>
+      <c r="G1381" s="1"/>
+      <c r="H1381" s="1"/>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1382" s="11"/>
+      <c r="B1382" s="3"/>
+      <c r="C1382" s="3"/>
+      <c r="D1382" s="4"/>
+      <c r="E1382" s="3"/>
+      <c r="F1382" s="5"/>
+      <c r="G1382" s="1"/>
+      <c r="H1382" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1366" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
+  <autoFilter ref="A1:H1377" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E23E5-1AC3-4F20-85DC-3C73ADABCB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176C2C8-3B40-413C-89C7-3CBED7CC3A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1492</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="2173">
   <si>
     <t>SU002447</t>
   </si>
@@ -6532,6 +6532,30 @@
   </si>
   <si>
     <t>Колбаса полукопченая Краковюрст ТМ Баварушка с душистым чесноком черева в/у ф/в 0,2 кг</t>
+  </si>
+  <si>
+    <t>Колбаса Вареная Молокуша ТМ Вязанка</t>
+  </si>
+  <si>
+    <t>Колбаса Стародвворская с окороком</t>
+  </si>
+  <si>
+    <t>Колбаса Стародворская со шпиком</t>
+  </si>
+  <si>
+    <t>492 Деликатесы Бекон Балыкбургский 0,15 кг. ТМ Баварушка с натуральным копчением  Поком</t>
+  </si>
+  <si>
+    <t>448  Сосиски Сливушки по-венски ТМ Вязанка. 0,3 кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003336</t>
+  </si>
+  <si>
+    <t>P004116</t>
+  </si>
+  <si>
+    <t>Сосиски «Сливушки по-венски» ф/в 0,3 п/а ТМ «Вязанка»</t>
   </si>
 </sst>
 </file>
@@ -14212,11 +14236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1491"/>
+  <dimension ref="A1:H1495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1489" sqref="B1489"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41857,7 +41881,7 @@
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" s="7" t="s">
-        <v>1374</v>
+        <v>2165</v>
       </c>
       <c r="B1108" s="3" t="s">
         <v>44</v>
@@ -41882,7 +41906,7 @@
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" s="7" t="s">
-        <v>2139</v>
+        <v>1374</v>
       </c>
       <c r="B1109" s="3" t="s">
         <v>44</v>
@@ -41907,7 +41931,7 @@
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110" s="7" t="s">
-        <v>942</v>
+        <v>2139</v>
       </c>
       <c r="B1110" s="3" t="s">
         <v>44</v>
@@ -41932,7 +41956,7 @@
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" s="7" t="s">
-        <v>1787</v>
+        <v>942</v>
       </c>
       <c r="B1111" s="3" t="s">
         <v>44</v>
@@ -41957,7 +41981,7 @@
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112" s="7" t="s">
-        <v>1035</v>
+        <v>1787</v>
       </c>
       <c r="B1112" s="3" t="s">
         <v>44</v>
@@ -41982,7 +42006,7 @@
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113" s="7" t="s">
-        <v>988</v>
+        <v>1035</v>
       </c>
       <c r="B1113" s="3" t="s">
         <v>44</v>
@@ -42007,7 +42031,7 @@
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1114" s="7" t="s">
-        <v>1098</v>
+        <v>988</v>
       </c>
       <c r="B1114" s="3" t="s">
         <v>44</v>
@@ -42032,7 +42056,7 @@
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1115" s="7" t="s">
-        <v>1153</v>
+        <v>1098</v>
       </c>
       <c r="B1115" s="3" t="s">
         <v>44</v>
@@ -42057,7 +42081,7 @@
     </row>
     <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1116" s="7" t="s">
-        <v>1672</v>
+        <v>1153</v>
       </c>
       <c r="B1116" s="3" t="s">
         <v>44</v>
@@ -42082,7 +42106,7 @@
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1117" s="7" t="s">
-        <v>1466</v>
+        <v>1672</v>
       </c>
       <c r="B1117" s="3" t="s">
         <v>44</v>
@@ -42107,7 +42131,7 @@
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1118" s="7" t="s">
-        <v>587</v>
+        <v>1466</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>44</v>
@@ -42130,34 +42154,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1119" s="7" t="s">
-        <v>1777</v>
+        <v>587</v>
       </c>
       <c r="B1119" s="3" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="C1119" s="3" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="D1119" s="4">
-        <v>4301011454</v>
+        <v>4301011468</v>
       </c>
       <c r="E1119" s="3">
-        <v>4680115881396</v>
+        <v>4680115881327</v>
       </c>
       <c r="F1119" s="5" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="G1119" s="1"/>
       <c r="H1119" s="1">
         <f>VLOOKUP(E1119,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1120" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1120" s="7" t="s">
-        <v>2021</v>
+        <v>1777</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>189</v>
@@ -42182,7 +42206,7 @@
     </row>
     <row r="1121" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1121" s="7" t="s">
-        <v>1724</v>
+        <v>2021</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>189</v>
@@ -42207,32 +42231,32 @@
     </row>
     <row r="1122" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1122" s="7" t="s">
-        <v>632</v>
+        <v>1724</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="C1122" s="3" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="D1122" s="4">
-        <v>4301011437</v>
+        <v>4301011454</v>
       </c>
       <c r="E1122" s="3">
-        <v>4680115881419</v>
+        <v>4680115881396</v>
       </c>
       <c r="F1122" s="5" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="G1122" s="1"/>
       <c r="H1122" s="1">
         <f>VLOOKUP(E1122,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1123" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1123" s="7" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="B1123" s="3" t="s">
         <v>38</v>
@@ -42247,7 +42271,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F1123" s="5" t="s">
-        <v>650</v>
+        <v>41</v>
       </c>
       <c r="G1123" s="1"/>
       <c r="H1123" s="1">
@@ -42257,7 +42281,7 @@
     </row>
     <row r="1124" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1124" s="7" t="s">
-        <v>692</v>
+        <v>649</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>38</v>
@@ -42272,7 +42296,7 @@
         <v>4680115881419</v>
       </c>
       <c r="F1124" s="5" t="s">
-        <v>41</v>
+        <v>650</v>
       </c>
       <c r="G1124" s="1"/>
       <c r="H1124" s="1">
@@ -42282,7 +42306,7 @@
     </row>
     <row r="1125" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1125" s="7" t="s">
-        <v>41</v>
+        <v>692</v>
       </c>
       <c r="B1125" s="3" t="s">
         <v>38</v>
@@ -42307,7 +42331,7 @@
     </row>
     <row r="1126" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1126" s="7" t="s">
-        <v>1984</v>
+        <v>41</v>
       </c>
       <c r="B1126" s="3" t="s">
         <v>38</v>
@@ -42332,7 +42356,7 @@
     </row>
     <row r="1127" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1127" s="7" t="s">
-        <v>932</v>
+        <v>1984</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>38</v>
@@ -42357,7 +42381,7 @@
     </row>
     <row r="1128" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1128" s="7" t="s">
-        <v>1837</v>
+        <v>932</v>
       </c>
       <c r="B1128" s="3" t="s">
         <v>38</v>
@@ -42382,7 +42406,7 @@
     </row>
     <row r="1129" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1129" s="7" t="s">
-        <v>1058</v>
+        <v>1837</v>
       </c>
       <c r="B1129" s="3" t="s">
         <v>38</v>
@@ -42407,7 +42431,7 @@
     </row>
     <row r="1130" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1130" s="7" t="s">
-        <v>1316</v>
+        <v>1058</v>
       </c>
       <c r="B1130" s="3" t="s">
         <v>38</v>
@@ -42432,7 +42456,7 @@
     </row>
     <row r="1131" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1131" s="7" t="s">
-        <v>1970</v>
+        <v>1316</v>
       </c>
       <c r="B1131" s="3" t="s">
         <v>38</v>
@@ -42457,7 +42481,7 @@
     </row>
     <row r="1132" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1132" s="7" t="s">
-        <v>557</v>
+        <v>1970</v>
       </c>
       <c r="B1132" s="3" t="s">
         <v>38</v>
@@ -42482,32 +42506,32 @@
     </row>
     <row r="1133" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1133" s="7" t="s">
-        <v>630</v>
+        <v>557</v>
       </c>
       <c r="B1133" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1133" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1133" s="4">
-        <v>4301011452</v>
+        <v>4301011437</v>
       </c>
       <c r="E1133" s="3">
-        <v>4680115881426</v>
+        <v>4680115881419</v>
       </c>
       <c r="F1133" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1133" s="1"/>
       <c r="H1133" s="1">
         <f>VLOOKUP(E1133,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1134" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="7" t="s">
-        <v>1540</v>
+        <v>630</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>36</v>
@@ -42532,7 +42556,7 @@
     </row>
     <row r="1135" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1135" s="7" t="s">
-        <v>1662</v>
+        <v>1540</v>
       </c>
       <c r="B1135" s="3" t="s">
         <v>36</v>
@@ -42551,12 +42575,13 @@
       </c>
       <c r="G1135" s="1"/>
       <c r="H1135" s="1">
+        <f>VLOOKUP(E1135,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1136" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="7" t="s">
-        <v>640</v>
+        <v>1662</v>
       </c>
       <c r="B1136" s="3" t="s">
         <v>36</v>
@@ -42575,13 +42600,12 @@
       </c>
       <c r="G1136" s="1"/>
       <c r="H1136" s="1">
-        <f>VLOOKUP(E1136,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1137" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="7" t="s">
-        <v>1521</v>
+        <v>640</v>
       </c>
       <c r="B1137" s="3" t="s">
         <v>36</v>
@@ -42606,7 +42630,7 @@
     </row>
     <row r="1138" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="7" t="s">
-        <v>693</v>
+        <v>1521</v>
       </c>
       <c r="B1138" s="3" t="s">
         <v>36</v>
@@ -42631,7 +42655,7 @@
     </row>
     <row r="1139" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="7" t="s">
-        <v>40</v>
+        <v>693</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>36</v>
@@ -42656,7 +42680,7 @@
     </row>
     <row r="1140" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="7" t="s">
-        <v>762</v>
+        <v>40</v>
       </c>
       <c r="B1140" s="3" t="s">
         <v>36</v>
@@ -42681,7 +42705,7 @@
     </row>
     <row r="1141" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="7" t="s">
-        <v>1218</v>
+        <v>762</v>
       </c>
       <c r="B1141" s="3" t="s">
         <v>36</v>
@@ -42706,7 +42730,7 @@
     </row>
     <row r="1142" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="7" t="s">
-        <v>1836</v>
+        <v>1218</v>
       </c>
       <c r="B1142" s="3" t="s">
         <v>36</v>
@@ -42731,7 +42755,7 @@
     </row>
     <row r="1143" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="7" t="s">
-        <v>1110</v>
+        <v>1836</v>
       </c>
       <c r="B1143" s="3" t="s">
         <v>36</v>
@@ -42756,7 +42780,7 @@
     </row>
     <row r="1144" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="7" t="s">
-        <v>936</v>
+        <v>1110</v>
       </c>
       <c r="B1144" s="3" t="s">
         <v>36</v>
@@ -42781,7 +42805,7 @@
     </row>
     <row r="1145" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="7" t="s">
-        <v>1154</v>
+        <v>936</v>
       </c>
       <c r="B1145" s="3" t="s">
         <v>36</v>
@@ -42806,7 +42830,7 @@
     </row>
     <row r="1146" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="7" t="s">
-        <v>1798</v>
+        <v>1154</v>
       </c>
       <c r="B1146" s="3" t="s">
         <v>36</v>
@@ -42831,7 +42855,7 @@
     </row>
     <row r="1147" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="7" t="s">
-        <v>1713</v>
+        <v>1798</v>
       </c>
       <c r="B1147" s="3" t="s">
         <v>36</v>
@@ -42856,7 +42880,7 @@
     </row>
     <row r="1148" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="7" t="s">
-        <v>738</v>
+        <v>1713</v>
       </c>
       <c r="B1148" s="3" t="s">
         <v>36</v>
@@ -42881,7 +42905,7 @@
     </row>
     <row r="1149" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="7" t="s">
-        <v>1944</v>
+        <v>738</v>
       </c>
       <c r="B1149" s="3" t="s">
         <v>36</v>
@@ -42906,7 +42930,7 @@
     </row>
     <row r="1150" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="7" t="s">
-        <v>1966</v>
+        <v>1944</v>
       </c>
       <c r="B1150" s="3" t="s">
         <v>36</v>
@@ -42931,7 +42955,7 @@
     </row>
     <row r="1151" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="7" t="s">
-        <v>591</v>
+        <v>1966</v>
       </c>
       <c r="B1151" s="3" t="s">
         <v>36</v>
@@ -42956,7 +42980,7 @@
     </row>
     <row r="1152" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="7" t="s">
-        <v>1036</v>
+        <v>591</v>
       </c>
       <c r="B1152" s="3" t="s">
         <v>36</v>
@@ -42970,9 +42994,8 @@
       <c r="E1152" s="3">
         <v>4680115881426</v>
       </c>
-      <c r="F1152" s="5" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
-        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
+      <c r="F1152" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G1152" s="1"/>
       <c r="H1152" s="1">
@@ -42982,7 +43005,7 @@
     </row>
     <row r="1153" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="7" t="s">
-        <v>1169</v>
+        <v>1036</v>
       </c>
       <c r="B1153" s="3" t="s">
         <v>36</v>
@@ -43008,7 +43031,7 @@
     </row>
     <row r="1154" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="7" t="s">
-        <v>1422</v>
+        <v>1169</v>
       </c>
       <c r="B1154" s="3" t="s">
         <v>36</v>
@@ -43034,7 +43057,7 @@
     </row>
     <row r="1155" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1155" s="7" t="s">
-        <v>555</v>
+        <v>1422</v>
       </c>
       <c r="B1155" s="3" t="s">
         <v>36</v>
@@ -43058,34 +43081,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1156" s="7" t="s">
-        <v>687</v>
+        <v>555</v>
       </c>
       <c r="B1156" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1156" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1156" s="4">
-        <v>4301020232</v>
+        <v>4301011452</v>
       </c>
       <c r="E1156" s="3">
-        <v>4680115881433</v>
-      </c>
-      <c r="F1156" s="5" t="s">
-        <v>35</v>
+        <v>4680115881426</v>
+      </c>
+      <c r="F1156" s="5" t="str">
+        <f>HYPERLINK("https://abi.ru/products/Охлажденные/Вязанка/Классическая/Вареные колбасы/P003235/","Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»")</f>
+        <v>Вареные колбасы «Филейская» Весовые Вектор ТМ «Вязанка»</v>
       </c>
       <c r="G1156" s="1"/>
       <c r="H1156" s="1">
         <f>VLOOKUP(E1156,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1157" s="7" t="s">
-        <v>35</v>
+        <v>687</v>
       </c>
       <c r="B1157" s="3" t="s">
         <v>32</v>
@@ -43110,7 +43134,7 @@
     </row>
     <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1158" s="7" t="s">
-        <v>742</v>
+        <v>35</v>
       </c>
       <c r="B1158" s="3" t="s">
         <v>32</v>
@@ -43135,7 +43159,7 @@
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1159" s="7" t="s">
-        <v>920</v>
+        <v>742</v>
       </c>
       <c r="B1159" s="3" t="s">
         <v>32</v>
@@ -43160,7 +43184,7 @@
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1160" s="7" t="s">
-        <v>1297</v>
+        <v>920</v>
       </c>
       <c r="B1160" s="3" t="s">
         <v>32</v>
@@ -43185,7 +43209,7 @@
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1161" s="7" t="s">
-        <v>1933</v>
+        <v>1297</v>
       </c>
       <c r="B1161" s="3" t="s">
         <v>32</v>
@@ -43210,7 +43234,7 @@
     </row>
     <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1162" s="7" t="s">
-        <v>2136</v>
+        <v>1933</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>32</v>
@@ -43235,7 +43259,7 @@
     </row>
     <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1163" s="7" t="s">
-        <v>929</v>
+        <v>2136</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>32</v>
@@ -43260,7 +43284,7 @@
     </row>
     <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1164" s="7" t="s">
-        <v>1869</v>
+        <v>929</v>
       </c>
       <c r="B1164" s="3" t="s">
         <v>32</v>
@@ -43285,7 +43309,7 @@
     </row>
     <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1165" s="7" t="s">
-        <v>1831</v>
+        <v>1869</v>
       </c>
       <c r="B1165" s="3" t="s">
         <v>32</v>
@@ -43310,7 +43334,7 @@
     </row>
     <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1166" s="7" t="s">
-        <v>1312</v>
+        <v>1831</v>
       </c>
       <c r="B1166" s="3" t="s">
         <v>32</v>
@@ -43335,7 +43359,7 @@
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1167" s="7" t="s">
-        <v>1479</v>
+        <v>1312</v>
       </c>
       <c r="B1167" s="3" t="s">
         <v>32</v>
@@ -43352,9 +43376,7 @@
       <c r="F1167" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1167" s="1" t="s">
-        <v>1922</v>
-      </c>
+      <c r="G1167" s="1"/>
       <c r="H1167" s="1">
         <f>VLOOKUP(E1167,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -43362,7 +43384,7 @@
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1168" s="7" t="s">
-        <v>1854</v>
+        <v>1479</v>
       </c>
       <c r="B1168" s="3" t="s">
         <v>32</v>
@@ -43379,7 +43401,9 @@
       <c r="F1168" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1168" s="1"/>
+      <c r="G1168" s="1" t="s">
+        <v>1922</v>
+      </c>
       <c r="H1168" s="1">
         <f>VLOOKUP(E1168,[1]Лист1!$D:$M,10,0)</f>
         <v>50</v>
@@ -43387,7 +43411,7 @@
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1169" s="7" t="s">
-        <v>590</v>
+        <v>1854</v>
       </c>
       <c r="B1169" s="3" t="s">
         <v>32</v>
@@ -43412,22 +43436,22 @@
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1170" s="7" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="B1170" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1170" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1170" s="4">
-        <v>4301020234</v>
+        <v>4301020232</v>
       </c>
       <c r="E1170" s="3">
-        <v>4680115881440</v>
+        <v>4680115881433</v>
       </c>
       <c r="F1170" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1170" s="1"/>
       <c r="H1170" s="1">
@@ -43437,7 +43461,7 @@
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171" s="7" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="B1171" s="3" t="s">
         <v>30</v>
@@ -43462,7 +43486,7 @@
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1172" s="7" t="s">
-        <v>1093</v>
+        <v>648</v>
       </c>
       <c r="B1172" s="3" t="s">
         <v>30</v>
@@ -43487,7 +43511,7 @@
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1173" s="7" t="s">
-        <v>686</v>
+        <v>1093</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>30</v>
@@ -43512,7 +43536,7 @@
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1174" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B1174" s="3" t="s">
         <v>30</v>
@@ -43537,7 +43561,7 @@
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1175" s="7" t="s">
-        <v>1168</v>
+        <v>678</v>
       </c>
       <c r="B1175" s="3" t="s">
         <v>30</v>
@@ -43562,7 +43586,7 @@
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1176" s="7" t="s">
-        <v>1423</v>
+        <v>1168</v>
       </c>
       <c r="B1176" s="3" t="s">
         <v>30</v>
@@ -43587,7 +43611,7 @@
     </row>
     <row r="1177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1177" s="7" t="s">
-        <v>586</v>
+        <v>1423</v>
       </c>
       <c r="B1177" s="3" t="s">
         <v>30</v>
@@ -43612,7 +43636,7 @@
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1178" s="7" t="s">
-        <v>34</v>
+        <v>586</v>
       </c>
       <c r="B1178" s="3" t="s">
         <v>30</v>
@@ -43637,7 +43661,7 @@
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1179" s="7" t="s">
-        <v>928</v>
+        <v>34</v>
       </c>
       <c r="B1179" s="3" t="s">
         <v>30</v>
@@ -43662,7 +43686,7 @@
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1180" s="7" t="s">
-        <v>1881</v>
+        <v>928</v>
       </c>
       <c r="B1180" s="3" t="s">
         <v>30</v>
@@ -43687,7 +43711,7 @@
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1181" s="7" t="s">
-        <v>1216</v>
+        <v>1881</v>
       </c>
       <c r="B1181" s="3" t="s">
         <v>30</v>
@@ -43712,7 +43736,7 @@
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1182" s="7" t="s">
-        <v>1152</v>
+        <v>1216</v>
       </c>
       <c r="B1182" s="3" t="s">
         <v>30</v>
@@ -43737,7 +43761,7 @@
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1183" s="7" t="s">
-        <v>1356</v>
+        <v>1152</v>
       </c>
       <c r="B1183" s="3" t="s">
         <v>30</v>
@@ -43762,7 +43786,7 @@
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1184" s="7" t="s">
-        <v>1664</v>
+        <v>1356</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>30</v>
@@ -43787,7 +43811,7 @@
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1185" s="7" t="s">
-        <v>739</v>
+        <v>1664</v>
       </c>
       <c r="B1185" s="3" t="s">
         <v>30</v>
@@ -43810,22 +43834,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1186" s="7"/>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1186" s="7" t="s">
+        <v>739</v>
+      </c>
       <c r="B1186" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C1186" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D1186" s="4">
-        <v>4301011462</v>
+        <v>4301020234</v>
       </c>
       <c r="E1186" s="3">
-        <v>4680115881457</v>
+        <v>4680115881440</v>
       </c>
       <c r="F1186" s="5" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G1186" s="1"/>
       <c r="H1186" s="1">
@@ -43834,23 +43860,21 @@
       </c>
     </row>
     <row r="1187" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1187" s="7" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A1187" s="7"/>
       <c r="B1187" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C1187" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D1187" s="4">
-        <v>4301011476</v>
+        <v>4301011462</v>
       </c>
       <c r="E1187" s="3">
-        <v>4680115881518</v>
+        <v>4680115881457</v>
       </c>
       <c r="F1187" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G1187" s="1"/>
       <c r="H1187" s="1">
@@ -43860,22 +43884,22 @@
     </row>
     <row r="1188" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="7" t="s">
-        <v>1047</v>
+        <v>1573</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>1044</v>
+        <v>56</v>
       </c>
       <c r="C1188" s="3" t="s">
-        <v>1045</v>
+        <v>57</v>
       </c>
       <c r="D1188" s="4">
-        <v>4301011458</v>
+        <v>4301011476</v>
       </c>
       <c r="E1188" s="3">
-        <v>4680115881525</v>
+        <v>4680115881518</v>
       </c>
       <c r="F1188" s="5" t="s">
-        <v>1046</v>
+        <v>79</v>
       </c>
       <c r="G1188" s="1"/>
       <c r="H1188" s="1">
@@ -43885,32 +43909,32 @@
     </row>
     <row r="1189" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="7" t="s">
-        <v>295</v>
+        <v>1047</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>260</v>
+        <v>1044</v>
       </c>
       <c r="C1189" s="3" t="s">
-        <v>261</v>
+        <v>1045</v>
       </c>
       <c r="D1189" s="4">
-        <v>4301051409</v>
+        <v>4301011458</v>
       </c>
       <c r="E1189" s="3">
-        <v>4680115881556</v>
+        <v>4680115881525</v>
       </c>
       <c r="F1189" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1189" s="6"/>
+        <v>1046</v>
+      </c>
+      <c r="G1189" s="1"/>
       <c r="H1189" s="1">
         <f>VLOOKUP(E1189,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1190" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="7" t="s">
-        <v>1772</v>
+        <v>295</v>
       </c>
       <c r="B1190" s="3" t="s">
         <v>260</v>
@@ -43935,7 +43959,7 @@
     </row>
     <row r="1191" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="7" t="s">
-        <v>1536</v>
+        <v>1772</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>260</v>
@@ -43960,7 +43984,7 @@
     </row>
     <row r="1192" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="7" t="s">
-        <v>615</v>
+        <v>1536</v>
       </c>
       <c r="B1192" s="3" t="s">
         <v>260</v>
@@ -43985,32 +44009,32 @@
     </row>
     <row r="1193" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="7" t="s">
-        <v>814</v>
+        <v>615</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C1193" s="3" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D1193" s="4">
-        <v>4301031201</v>
+        <v>4301051409</v>
       </c>
       <c r="E1193" s="3">
-        <v>4680115881563</v>
+        <v>4680115881556</v>
       </c>
       <c r="F1193" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1193" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="G1193" s="6"/>
       <c r="H1193" s="1">
         <f>VLOOKUP(E1193,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1194" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="7" t="s">
-        <v>244</v>
+        <v>814</v>
       </c>
       <c r="B1194" s="3" t="s">
         <v>222</v>
@@ -44035,7 +44059,7 @@
     </row>
     <row r="1195" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="7" t="s">
-        <v>1348</v>
+        <v>244</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>222</v>
@@ -44060,7 +44084,7 @@
     </row>
     <row r="1196" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="7" t="s">
-        <v>1753</v>
+        <v>1348</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>222</v>
@@ -44085,7 +44109,7 @@
     </row>
     <row r="1197" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="7" t="s">
-        <v>1702</v>
+        <v>1753</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>222</v>
@@ -44104,12 +44128,13 @@
       </c>
       <c r="G1197" s="1"/>
       <c r="H1197" s="1">
+        <f>VLOOKUP(E1197,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1198" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="7" t="s">
-        <v>1083</v>
+        <v>1702</v>
       </c>
       <c r="B1198" s="3" t="s">
         <v>222</v>
@@ -44128,13 +44153,12 @@
       </c>
       <c r="G1198" s="1"/>
       <c r="H1198" s="1">
-        <f>VLOOKUP(E1198,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1199" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="7" t="s">
-        <v>683</v>
+        <v>1083</v>
       </c>
       <c r="B1199" s="3" t="s">
         <v>222</v>
@@ -44159,24 +44183,24 @@
     </row>
     <row r="1200" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1200" s="7" t="s">
-        <v>779</v>
+        <v>683</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="C1200" s="3" t="s">
-        <v>1419</v>
+        <v>223</v>
       </c>
       <c r="D1200" s="4">
-        <v>4301051505</v>
+        <v>4301031201</v>
       </c>
       <c r="E1200" s="3">
-        <v>4680115881587</v>
+        <v>4680115881563</v>
       </c>
       <c r="F1200" s="5" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1200" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="G1200" s="1"/>
       <c r="H1200" s="1">
         <f>VLOOKUP(E1200,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -44184,7 +44208,7 @@
     </row>
     <row r="1201" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1201" s="7" t="s">
-        <v>1325</v>
+        <v>779</v>
       </c>
       <c r="B1201" s="3" t="s">
         <v>269</v>
@@ -44209,7 +44233,7 @@
     </row>
     <row r="1202" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1202" s="7" t="s">
-        <v>564</v>
+        <v>1325</v>
       </c>
       <c r="B1202" s="3" t="s">
         <v>269</v>
@@ -44234,7 +44258,7 @@
     </row>
     <row r="1203" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1203" s="7" t="s">
-        <v>685</v>
+        <v>564</v>
       </c>
       <c r="B1203" s="3" t="s">
         <v>269</v>
@@ -44259,22 +44283,22 @@
     </row>
     <row r="1204" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1204" s="7" t="s">
-        <v>1776</v>
+        <v>685</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C1204" s="3" t="s">
-        <v>253</v>
+        <v>1419</v>
       </c>
       <c r="D1204" s="4">
-        <v>4301051408</v>
+        <v>4301051505</v>
       </c>
       <c r="E1204" s="3">
-        <v>4680115881594</v>
+        <v>4680115881587</v>
       </c>
       <c r="F1204" s="5" t="s">
-        <v>291</v>
+        <v>1420</v>
       </c>
       <c r="G1204" s="6"/>
       <c r="H1204" s="1">
@@ -44284,7 +44308,7 @@
     </row>
     <row r="1205" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1205" s="7" t="s">
-        <v>1726</v>
+        <v>1776</v>
       </c>
       <c r="B1205" s="3" t="s">
         <v>252</v>
@@ -44309,22 +44333,22 @@
     </row>
     <row r="1206" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1206" s="7" t="s">
-        <v>293</v>
+        <v>1726</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C1206" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D1206" s="4">
-        <v>4301051411</v>
+        <v>4301051408</v>
       </c>
       <c r="E1206" s="3">
-        <v>4680115881617</v>
+        <v>4680115881594</v>
       </c>
       <c r="F1206" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G1206" s="6"/>
       <c r="H1206" s="1">
@@ -44333,56 +44357,56 @@
       </c>
     </row>
     <row r="1207" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1207" s="7"/>
+      <c r="A1207" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="B1207" s="3" t="s">
-        <v>484</v>
+        <v>256</v>
       </c>
       <c r="C1207" s="3" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
       <c r="D1207" s="4">
-        <v>4301060352</v>
+        <v>4301051411</v>
       </c>
       <c r="E1207" s="3">
-        <v>4680115881648</v>
+        <v>4680115881617</v>
       </c>
       <c r="F1207" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="G1207" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="G1207" s="6"/>
       <c r="H1207" s="1">
         <f>VLOOKUP(E1207,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1208" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1208" s="7" t="s">
-        <v>672</v>
-      </c>
+      <c r="A1208" s="7"/>
       <c r="B1208" s="3" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
       <c r="C1208" s="3" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="D1208" s="4">
-        <v>4301031202</v>
+        <v>4301060352</v>
       </c>
       <c r="E1208" s="3">
-        <v>4680115881679</v>
+        <v>4680115881648</v>
       </c>
       <c r="F1208" s="5" t="s">
-        <v>251</v>
+        <v>486</v>
       </c>
       <c r="G1208" s="1"/>
       <c r="H1208" s="1">
         <f>VLOOKUP(E1208,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1209" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1209" s="7" t="s">
-        <v>813</v>
+        <v>672</v>
       </c>
       <c r="B1209" s="3" t="s">
         <v>236</v>
@@ -44407,7 +44431,7 @@
     </row>
     <row r="1210" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1210" s="7" t="s">
-        <v>251</v>
+        <v>813</v>
       </c>
       <c r="B1210" s="3" t="s">
         <v>236</v>
@@ -44432,7 +44456,7 @@
     </row>
     <row r="1211" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1211" s="7" t="s">
-        <v>1082</v>
+        <v>251</v>
       </c>
       <c r="B1211" s="3" t="s">
         <v>236</v>
@@ -44457,7 +44481,7 @@
     </row>
     <row r="1212" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1212" s="7" t="s">
-        <v>1272</v>
+        <v>1082</v>
       </c>
       <c r="B1212" s="3" t="s">
         <v>236</v>
@@ -44482,7 +44506,7 @@
     </row>
     <row r="1213" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1213" s="7" t="s">
-        <v>1661</v>
+        <v>1272</v>
       </c>
       <c r="B1213" s="3" t="s">
         <v>236</v>
@@ -44507,7 +44531,7 @@
     </row>
     <row r="1214" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1214" s="7" t="s">
-        <v>1213</v>
+        <v>1661</v>
       </c>
       <c r="B1214" s="3" t="s">
         <v>236</v>
@@ -44532,7 +44556,7 @@
     </row>
     <row r="1215" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1215" s="7" t="s">
-        <v>585</v>
+        <v>1213</v>
       </c>
       <c r="B1215" s="3" t="s">
         <v>236</v>
@@ -44557,22 +44581,22 @@
     </row>
     <row r="1216" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1216" s="7" t="s">
-        <v>811</v>
+        <v>585</v>
       </c>
       <c r="B1216" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C1216" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D1216" s="4">
-        <v>4301031204</v>
+        <v>4301031202</v>
       </c>
       <c r="E1216" s="3">
-        <v>4680115881761</v>
+        <v>4680115881679</v>
       </c>
       <c r="F1216" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G1216" s="1"/>
       <c r="H1216" s="1">
@@ -44582,7 +44606,7 @@
     </row>
     <row r="1217" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1217" s="7" t="s">
-        <v>1470</v>
+        <v>811</v>
       </c>
       <c r="B1217" s="3" t="s">
         <v>220</v>
@@ -44607,7 +44631,7 @@
     </row>
     <row r="1218" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1218" s="7" t="s">
-        <v>1752</v>
+        <v>1470</v>
       </c>
       <c r="B1218" s="3" t="s">
         <v>220</v>
@@ -44632,7 +44656,7 @@
     </row>
     <row r="1219" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1219" s="7" t="s">
-        <v>1701</v>
+        <v>1752</v>
       </c>
       <c r="B1219" s="3" t="s">
         <v>220</v>
@@ -44651,12 +44675,13 @@
       </c>
       <c r="G1219" s="1"/>
       <c r="H1219" s="1">
+        <f>VLOOKUP(E1219,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1220" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1220" s="7" t="s">
-        <v>684</v>
+        <v>1701</v>
       </c>
       <c r="B1220" s="3" t="s">
         <v>220</v>
@@ -44675,28 +44700,27 @@
       </c>
       <c r="G1220" s="1"/>
       <c r="H1220" s="1">
-        <f>VLOOKUP(E1220,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="1221" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1221" s="7" t="s">
-        <v>812</v>
+        <v>684</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C1221" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D1221" s="4">
-        <v>4301031205</v>
+        <v>4301031204</v>
       </c>
       <c r="E1221" s="3">
-        <v>4680115881785</v>
+        <v>4680115881761</v>
       </c>
       <c r="F1221" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G1221" s="1"/>
       <c r="H1221" s="1">
@@ -44706,7 +44730,7 @@
     </row>
     <row r="1222" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1222" s="7" t="s">
-        <v>250</v>
+        <v>812</v>
       </c>
       <c r="B1222" s="3" t="s">
         <v>234</v>
@@ -44731,7 +44755,7 @@
     </row>
     <row r="1223" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1223" s="7" t="s">
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="B1223" s="3" t="s">
         <v>234</v>
@@ -44756,32 +44780,32 @@
     </row>
     <row r="1224" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1224" s="7" t="s">
-        <v>1275</v>
+        <v>584</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="C1224" s="3" t="s">
-        <v>342</v>
+        <v>235</v>
       </c>
       <c r="D1224" s="4">
-        <v>4301180007</v>
+        <v>4301031205</v>
       </c>
       <c r="E1224" s="3">
-        <v>4680115881808</v>
+        <v>4680115881785</v>
       </c>
       <c r="F1224" s="5" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="G1224" s="1"/>
       <c r="H1224" s="1">
         <f>VLOOKUP(E1224,[1]Лист1!$D:$M,10,0)</f>
-        <v>730</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1225" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1225" s="7" t="s">
-        <v>1588</v>
+        <v>1275</v>
       </c>
       <c r="B1225" s="3" t="s">
         <v>341</v>
@@ -44806,7 +44830,7 @@
     </row>
     <row r="1226" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1226" s="7" t="s">
-        <v>805</v>
+        <v>1588</v>
       </c>
       <c r="B1226" s="3" t="s">
         <v>341</v>
@@ -44831,22 +44855,22 @@
     </row>
     <row r="1227" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1227" s="7" t="s">
-        <v>1485</v>
+        <v>805</v>
       </c>
       <c r="B1227" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1227" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D1227" s="4">
-        <v>4301180006</v>
+        <v>4301180007</v>
       </c>
       <c r="E1227" s="3">
-        <v>4680115881822</v>
+        <v>4680115881808</v>
       </c>
       <c r="F1227" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1227" s="1"/>
       <c r="H1227" s="1">
@@ -44856,7 +44880,7 @@
     </row>
     <row r="1228" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1228" s="7" t="s">
-        <v>1589</v>
+        <v>1485</v>
       </c>
       <c r="B1228" s="3" t="s">
         <v>343</v>
@@ -44881,7 +44905,7 @@
     </row>
     <row r="1229" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1229" s="7" t="s">
-        <v>1276</v>
+        <v>1589</v>
       </c>
       <c r="B1229" s="3" t="s">
         <v>343</v>
@@ -44906,32 +44930,32 @@
     </row>
     <row r="1230" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1230" s="7" t="s">
-        <v>16</v>
+        <v>1276</v>
       </c>
       <c r="B1230" s="3" t="s">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="C1230" s="3" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="D1230" s="4">
-        <v>4301051426</v>
+        <v>4301180006</v>
       </c>
       <c r="E1230" s="3">
-        <v>4680115881853</v>
+        <v>4680115881822</v>
       </c>
       <c r="F1230" s="5" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="G1230" s="1"/>
       <c r="H1230" s="1">
         <f>VLOOKUP(E1230,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1231" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1231" s="7" t="s">
-        <v>1455</v>
+        <v>16</v>
       </c>
       <c r="B1231" s="3" t="s">
         <v>10</v>
@@ -44956,32 +44980,32 @@
     </row>
     <row r="1232" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1232" s="7" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="B1232" s="3" t="s">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="C1232" s="3" t="s">
-        <v>981</v>
+        <v>11</v>
       </c>
       <c r="D1232" s="4">
-        <v>4301051444</v>
+        <v>4301051426</v>
       </c>
       <c r="E1232" s="3">
-        <v>4680115881969</v>
+        <v>4680115881853</v>
       </c>
       <c r="F1232" s="5" t="s">
-        <v>982</v>
+        <v>16</v>
       </c>
       <c r="G1232" s="1"/>
       <c r="H1232" s="1">
         <f>VLOOKUP(E1232,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1233" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1233" s="7" t="s">
-        <v>983</v>
+        <v>1449</v>
       </c>
       <c r="B1233" s="3" t="s">
         <v>980</v>
@@ -45006,22 +45030,22 @@
     </row>
     <row r="1234" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1234" s="7" t="s">
-        <v>1448</v>
+        <v>983</v>
       </c>
       <c r="B1234" s="3" t="s">
-        <v>888</v>
+        <v>980</v>
       </c>
       <c r="C1234" s="3" t="s">
-        <v>889</v>
+        <v>981</v>
       </c>
       <c r="D1234" s="4">
-        <v>4301051445</v>
+        <v>4301051444</v>
       </c>
       <c r="E1234" s="3">
-        <v>4680115881976</v>
+        <v>4680115881969</v>
       </c>
       <c r="F1234" s="5" t="s">
-        <v>891</v>
+        <v>982</v>
       </c>
       <c r="G1234" s="1"/>
       <c r="H1234" s="1">
@@ -45031,7 +45055,7 @@
     </row>
     <row r="1235" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1235" s="7" t="s">
-        <v>1600</v>
+        <v>1448</v>
       </c>
       <c r="B1235" s="3" t="s">
         <v>888</v>
@@ -45056,7 +45080,7 @@
     </row>
     <row r="1236" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1236" s="7" t="s">
-        <v>890</v>
+        <v>1600</v>
       </c>
       <c r="B1236" s="3" t="s">
         <v>888</v>
@@ -45080,21 +45104,23 @@
       </c>
     </row>
     <row r="1237" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1237" s="7"/>
+      <c r="A1237" s="7" t="s">
+        <v>890</v>
+      </c>
       <c r="B1237" s="3" t="s">
-        <v>498</v>
+        <v>888</v>
       </c>
       <c r="C1237" s="3" t="s">
-        <v>499</v>
+        <v>889</v>
       </c>
       <c r="D1237" s="4">
-        <v>4301031103</v>
+        <v>4301051445</v>
       </c>
       <c r="E1237" s="3">
-        <v>4680115881983</v>
+        <v>4680115881976</v>
       </c>
       <c r="F1237" s="5" t="s">
-        <v>504</v>
+        <v>891</v>
       </c>
       <c r="G1237" s="1"/>
       <c r="H1237" s="1">
@@ -45103,33 +45129,31 @@
       </c>
     </row>
     <row r="1238" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1238" s="7" t="s">
-        <v>1336</v>
-      </c>
+      <c r="A1238" s="7"/>
       <c r="B1238" s="3" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C1238" s="3" t="s">
-        <v>1283</v>
+        <v>499</v>
       </c>
       <c r="D1238" s="4">
-        <v>4301031253</v>
+        <v>4301031103</v>
       </c>
       <c r="E1238" s="3">
-        <v>4680115882096</v>
+        <v>4680115881983</v>
       </c>
       <c r="F1238" s="5" t="s">
-        <v>1282</v>
+        <v>504</v>
       </c>
       <c r="G1238" s="1"/>
       <c r="H1238" s="1">
         <f>VLOOKUP(E1238,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1239" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1239" s="7" t="s">
-        <v>1282</v>
+        <v>1336</v>
       </c>
       <c r="B1239" s="3" t="s">
         <v>523</v>
@@ -45154,22 +45178,22 @@
     </row>
     <row r="1240" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1240" s="7" t="s">
-        <v>1335</v>
+        <v>1282</v>
       </c>
       <c r="B1240" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C1240" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D1240" s="4">
-        <v>4301031251</v>
+        <v>4301031253</v>
       </c>
       <c r="E1240" s="3">
-        <v>4680115882102</v>
+        <v>4680115882096</v>
       </c>
       <c r="F1240" s="5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="G1240" s="1"/>
       <c r="H1240" s="1">
@@ -45179,7 +45203,7 @@
     </row>
     <row r="1241" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1241" s="7" t="s">
-        <v>1280</v>
+        <v>1335</v>
       </c>
       <c r="B1241" s="3" t="s">
         <v>522</v>
@@ -45202,34 +45226,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1242" s="7" t="s">
-        <v>74</v>
+        <v>1280</v>
       </c>
       <c r="B1242" s="3" t="s">
-        <v>48</v>
+        <v>522</v>
       </c>
       <c r="C1242" s="3" t="s">
-        <v>1691</v>
+        <v>1281</v>
       </c>
       <c r="D1242" s="4">
-        <v>4301011703</v>
+        <v>4301031251</v>
       </c>
       <c r="E1242" s="3">
-        <v>4680115882133</v>
+        <v>4680115882102</v>
       </c>
       <c r="F1242" s="5" t="s">
-        <v>1692</v>
+        <v>1280</v>
       </c>
       <c r="G1242" s="1"/>
       <c r="H1242" s="1">
         <f>VLOOKUP(E1242,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1243" s="7" t="s">
-        <v>1117</v>
+        <v>74</v>
       </c>
       <c r="B1243" s="3" t="s">
         <v>48</v>
@@ -45254,7 +45278,7 @@
     </row>
     <row r="1244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1244" s="7" t="s">
-        <v>1253</v>
+        <v>1117</v>
       </c>
       <c r="B1244" s="3" t="s">
         <v>48</v>
@@ -45279,7 +45303,7 @@
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1245" s="7" t="s">
-        <v>1294</v>
+        <v>1253</v>
       </c>
       <c r="B1245" s="3" t="s">
         <v>48</v>
@@ -45304,7 +45328,7 @@
     </row>
     <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1246" s="7" t="s">
-        <v>2069</v>
+        <v>1294</v>
       </c>
       <c r="B1246" s="3" t="s">
         <v>48</v>
@@ -45329,7 +45353,7 @@
     </row>
     <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1247" s="7" t="s">
-        <v>817</v>
+        <v>2069</v>
       </c>
       <c r="B1247" s="3" t="s">
         <v>48</v>
@@ -45352,34 +45376,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1248" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1248" s="7" t="s">
-        <v>1122</v>
+        <v>817</v>
       </c>
       <c r="B1248" s="3" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="C1248" s="3" t="s">
-        <v>259</v>
+        <v>1691</v>
       </c>
       <c r="D1248" s="4">
-        <v>4301051410</v>
+        <v>4301011703</v>
       </c>
       <c r="E1248" s="3">
-        <v>4680115882164</v>
+        <v>4680115882133</v>
       </c>
       <c r="F1248" s="5" t="s">
-        <v>294</v>
+        <v>1692</v>
       </c>
       <c r="G1248" s="1"/>
       <c r="H1248" s="1">
         <f>VLOOKUP(E1248,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1249" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1249" s="7" t="s">
-        <v>1706</v>
+        <v>1122</v>
       </c>
       <c r="B1249" s="3" t="s">
         <v>258</v>
@@ -45404,7 +45428,7 @@
     </row>
     <row r="1250" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1250" s="7" t="s">
-        <v>1865</v>
+        <v>1706</v>
       </c>
       <c r="B1250" s="3" t="s">
         <v>258</v>
@@ -45429,7 +45453,7 @@
     </row>
     <row r="1251" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1251" s="7" t="s">
-        <v>1328</v>
+        <v>1865</v>
       </c>
       <c r="B1251" s="3" t="s">
         <v>258</v>
@@ -45454,7 +45478,7 @@
     </row>
     <row r="1252" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1252" s="7" t="s">
-        <v>784</v>
+        <v>1328</v>
       </c>
       <c r="B1252" s="3" t="s">
         <v>258</v>
@@ -45471,7 +45495,7 @@
       <c r="F1252" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G1252" s="6"/>
+      <c r="G1252" s="1"/>
       <c r="H1252" s="1">
         <f>VLOOKUP(E1252,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -45479,22 +45503,22 @@
     </row>
     <row r="1253" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1253" s="7" t="s">
-        <v>1121</v>
+        <v>784</v>
       </c>
       <c r="B1253" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C1253" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D1253" s="4">
-        <v>4301051407</v>
+        <v>4301051410</v>
       </c>
       <c r="E1253" s="3">
-        <v>4680115882195</v>
+        <v>4680115882164</v>
       </c>
       <c r="F1253" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G1253" s="6"/>
       <c r="H1253" s="1">
@@ -45504,7 +45528,7 @@
     </row>
     <row r="1254" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1254" s="7" t="s">
-        <v>1707</v>
+        <v>1121</v>
       </c>
       <c r="B1254" s="3" t="s">
         <v>254</v>
@@ -45529,7 +45553,7 @@
     </row>
     <row r="1255" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1255" s="7" t="s">
-        <v>1864</v>
+        <v>1707</v>
       </c>
       <c r="B1255" s="3" t="s">
         <v>254</v>
@@ -45554,7 +45578,7 @@
     </row>
     <row r="1256" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1256" s="7" t="s">
-        <v>1254</v>
+        <v>1864</v>
       </c>
       <c r="B1256" s="3" t="s">
         <v>254</v>
@@ -45579,7 +45603,7 @@
     </row>
     <row r="1257" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1257" s="7" t="s">
-        <v>783</v>
+        <v>1254</v>
       </c>
       <c r="B1257" s="3" t="s">
         <v>254</v>
@@ -45604,24 +45628,24 @@
     </row>
     <row r="1258" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1258" s="7" t="s">
-        <v>841</v>
+        <v>783</v>
       </c>
       <c r="B1258" s="3" t="s">
-        <v>787</v>
+        <v>254</v>
       </c>
       <c r="C1258" s="3" t="s">
-        <v>788</v>
+        <v>255</v>
       </c>
       <c r="D1258" s="4">
-        <v>4301031220</v>
+        <v>4301051407</v>
       </c>
       <c r="E1258" s="3">
-        <v>4680115882669</v>
+        <v>4680115882195</v>
       </c>
       <c r="F1258" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="G1258" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="G1258" s="6"/>
       <c r="H1258" s="1">
         <f>VLOOKUP(E1258,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -45629,7 +45653,7 @@
     </row>
     <row r="1259" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1259" s="7" t="s">
-        <v>1756</v>
+        <v>841</v>
       </c>
       <c r="B1259" s="3" t="s">
         <v>787</v>
@@ -45654,7 +45678,7 @@
     </row>
     <row r="1260" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1260" s="7" t="s">
-        <v>1515</v>
+        <v>1756</v>
       </c>
       <c r="B1260" s="3" t="s">
         <v>787</v>
@@ -45679,7 +45703,7 @@
     </row>
     <row r="1261" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1261" s="7" t="s">
-        <v>1457</v>
+        <v>1515</v>
       </c>
       <c r="B1261" s="3" t="s">
         <v>787</v>
@@ -45704,7 +45728,7 @@
     </row>
     <row r="1262" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1262" s="7" t="s">
-        <v>1709</v>
+        <v>1457</v>
       </c>
       <c r="B1262" s="3" t="s">
         <v>787</v>
@@ -45729,7 +45753,7 @@
     </row>
     <row r="1263" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1263" s="7" t="s">
-        <v>1988</v>
+        <v>1709</v>
       </c>
       <c r="B1263" s="3" t="s">
         <v>787</v>
@@ -45754,7 +45778,7 @@
     </row>
     <row r="1264" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1264" s="7" t="s">
-        <v>1476</v>
+        <v>1988</v>
       </c>
       <c r="B1264" s="3" t="s">
         <v>787</v>
@@ -45779,7 +45803,7 @@
     </row>
     <row r="1265" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1265" s="7" t="s">
-        <v>790</v>
+        <v>1476</v>
       </c>
       <c r="B1265" s="3" t="s">
         <v>787</v>
@@ -45804,22 +45828,22 @@
     </row>
     <row r="1266" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1266" s="7" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
       <c r="B1266" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C1266" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D1266" s="4">
-        <v>4301031221</v>
+        <v>4301031220</v>
       </c>
       <c r="E1266" s="3">
-        <v>4680115882676</v>
+        <v>4680115882669</v>
       </c>
       <c r="F1266" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="G1266" s="1"/>
       <c r="H1266" s="1">
@@ -45829,7 +45853,7 @@
     </row>
     <row r="1267" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1267" s="7" t="s">
-        <v>1757</v>
+        <v>842</v>
       </c>
       <c r="B1267" s="3" t="s">
         <v>791</v>
@@ -45854,7 +45878,7 @@
     </row>
     <row r="1268" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1268" s="7" t="s">
-        <v>1514</v>
+        <v>1757</v>
       </c>
       <c r="B1268" s="3" t="s">
         <v>791</v>
@@ -45879,7 +45903,7 @@
     </row>
     <row r="1269" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1269" s="7" t="s">
-        <v>2027</v>
+        <v>1514</v>
       </c>
       <c r="B1269" s="3" t="s">
         <v>791</v>
@@ -45904,7 +45928,7 @@
     </row>
     <row r="1270" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1270" s="7" t="s">
-        <v>1989</v>
+        <v>2027</v>
       </c>
       <c r="B1270" s="3" t="s">
         <v>791</v>
@@ -45929,7 +45953,7 @@
     </row>
     <row r="1271" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1271" s="7" t="s">
-        <v>1708</v>
+        <v>1989</v>
       </c>
       <c r="B1271" s="3" t="s">
         <v>791</v>
@@ -45954,7 +45978,7 @@
     </row>
     <row r="1272" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="7" t="s">
-        <v>1458</v>
+        <v>1708</v>
       </c>
       <c r="B1272" s="3" t="s">
         <v>791</v>
@@ -45979,7 +46003,7 @@
     </row>
     <row r="1273" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1273" s="7" t="s">
-        <v>1586</v>
+        <v>1458</v>
       </c>
       <c r="B1273" s="3" t="s">
         <v>791</v>
@@ -46004,7 +46028,7 @@
     </row>
     <row r="1274" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="7" t="s">
-        <v>1477</v>
+        <v>1586</v>
       </c>
       <c r="B1274" s="3" t="s">
         <v>791</v>
@@ -46029,7 +46053,7 @@
     </row>
     <row r="1275" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="7" t="s">
-        <v>794</v>
+        <v>1477</v>
       </c>
       <c r="B1275" s="3" t="s">
         <v>791</v>
@@ -46054,22 +46078,22 @@
     </row>
     <row r="1276" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1276" s="7" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="B1276" s="3" t="s">
-        <v>210</v>
+        <v>791</v>
       </c>
       <c r="C1276" s="3" t="s">
-        <v>211</v>
+        <v>792</v>
       </c>
       <c r="D1276" s="4">
-        <v>4301031224</v>
+        <v>4301031221</v>
       </c>
       <c r="E1276" s="3">
-        <v>4680115882683</v>
+        <v>4680115882676</v>
       </c>
       <c r="F1276" s="5" t="s">
-        <v>238</v>
+        <v>793</v>
       </c>
       <c r="G1276" s="1"/>
       <c r="H1276" s="1">
@@ -46079,7 +46103,7 @@
     </row>
     <row r="1277" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="7" t="s">
-        <v>1538</v>
+        <v>839</v>
       </c>
       <c r="B1277" s="3" t="s">
         <v>210</v>
@@ -46104,7 +46128,7 @@
     </row>
     <row r="1278" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1278" s="7" t="s">
-        <v>1754</v>
+        <v>1538</v>
       </c>
       <c r="B1278" s="3" t="s">
         <v>210</v>
@@ -46129,7 +46153,7 @@
     </row>
     <row r="1279" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1279" s="7" t="s">
-        <v>1517</v>
+        <v>1754</v>
       </c>
       <c r="B1279" s="3" t="s">
         <v>210</v>
@@ -46154,7 +46178,7 @@
     </row>
     <row r="1280" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1280" s="7" t="s">
-        <v>2100</v>
+        <v>1517</v>
       </c>
       <c r="B1280" s="3" t="s">
         <v>210</v>
@@ -46179,7 +46203,7 @@
     </row>
     <row r="1281" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1281" s="7" t="s">
-        <v>1649</v>
+        <v>2100</v>
       </c>
       <c r="B1281" s="3" t="s">
         <v>210</v>
@@ -46204,7 +46228,7 @@
     </row>
     <row r="1282" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="7" t="s">
-        <v>1228</v>
+        <v>1649</v>
       </c>
       <c r="B1282" s="3" t="s">
         <v>210</v>
@@ -46229,7 +46253,7 @@
     </row>
     <row r="1283" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="7" t="s">
-        <v>1255</v>
+        <v>1228</v>
       </c>
       <c r="B1283" s="3" t="s">
         <v>210</v>
@@ -46254,7 +46278,7 @@
     </row>
     <row r="1284" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="7" t="s">
-        <v>1474</v>
+        <v>1255</v>
       </c>
       <c r="B1284" s="3" t="s">
         <v>210</v>
@@ -46279,7 +46303,7 @@
     </row>
     <row r="1285" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1285" s="7" t="s">
-        <v>1977</v>
+        <v>1474</v>
       </c>
       <c r="B1285" s="3" t="s">
         <v>210</v>
@@ -46304,7 +46328,7 @@
     </row>
     <row r="1286" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1286" s="7" t="s">
-        <v>785</v>
+        <v>1977</v>
       </c>
       <c r="B1286" s="3" t="s">
         <v>210</v>
@@ -46329,22 +46353,22 @@
     </row>
     <row r="1287" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1287" s="7" t="s">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="B1287" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1287" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D1287" s="4">
-        <v>4301031230</v>
+        <v>4301031224</v>
       </c>
       <c r="E1287" s="3">
-        <v>4680115882690</v>
+        <v>4680115882683</v>
       </c>
       <c r="F1287" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1287" s="1"/>
       <c r="H1287" s="1">
@@ -46354,7 +46378,7 @@
     </row>
     <row r="1288" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="7" t="s">
-        <v>1539</v>
+        <v>840</v>
       </c>
       <c r="B1288" s="3" t="s">
         <v>212</v>
@@ -46379,7 +46403,7 @@
     </row>
     <row r="1289" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="7" t="s">
-        <v>1755</v>
+        <v>1539</v>
       </c>
       <c r="B1289" s="3" t="s">
         <v>212</v>
@@ -46404,7 +46428,7 @@
     </row>
     <row r="1290" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1290" s="7" t="s">
-        <v>1516</v>
+        <v>1755</v>
       </c>
       <c r="B1290" s="3" t="s">
         <v>212</v>
@@ -46429,7 +46453,7 @@
     </row>
     <row r="1291" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="7" t="s">
-        <v>1650</v>
+        <v>1516</v>
       </c>
       <c r="B1291" s="3" t="s">
         <v>212</v>
@@ -46454,7 +46478,7 @@
     </row>
     <row r="1292" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="7" t="s">
-        <v>1229</v>
+        <v>1650</v>
       </c>
       <c r="B1292" s="3" t="s">
         <v>212</v>
@@ -46479,7 +46503,7 @@
     </row>
     <row r="1293" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1293" s="7" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="B1293" s="3" t="s">
         <v>212</v>
@@ -46504,7 +46528,7 @@
     </row>
     <row r="1294" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="7" t="s">
-        <v>1473</v>
+        <v>1256</v>
       </c>
       <c r="B1294" s="3" t="s">
         <v>212</v>
@@ -46529,7 +46553,7 @@
     </row>
     <row r="1295" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1295" s="7" t="s">
-        <v>786</v>
+        <v>1473</v>
       </c>
       <c r="B1295" s="3" t="s">
         <v>212</v>
@@ -46552,34 +46576,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1296" s="7" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="B1296" s="3" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="C1296" s="3" t="s">
-        <v>1051</v>
+        <v>213</v>
       </c>
       <c r="D1296" s="4">
-        <v>4301031248</v>
+        <v>4301031230</v>
       </c>
       <c r="E1296" s="3">
-        <v>4680115883093</v>
+        <v>4680115882690</v>
       </c>
       <c r="F1296" s="5" t="s">
-        <v>1052</v>
+        <v>239</v>
       </c>
       <c r="G1296" s="1"/>
       <c r="H1296" s="1">
         <f>VLOOKUP(E1296,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1297" s="7" t="s">
-        <v>1925</v>
+        <v>769</v>
       </c>
       <c r="B1297" s="3" t="s">
         <v>525</v>
@@ -46604,7 +46628,7 @@
     </row>
     <row r="1298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1298" s="7" t="s">
-        <v>935</v>
+        <v>1925</v>
       </c>
       <c r="B1298" s="3" t="s">
         <v>525</v>
@@ -46629,7 +46653,7 @@
     </row>
     <row r="1299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1299" s="7" t="s">
-        <v>1735</v>
+        <v>935</v>
       </c>
       <c r="B1299" s="3" t="s">
         <v>525</v>
@@ -46654,7 +46678,7 @@
     </row>
     <row r="1300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1300" s="7" t="s">
-        <v>1956</v>
+        <v>1735</v>
       </c>
       <c r="B1300" s="3" t="s">
         <v>525</v>
@@ -46679,7 +46703,7 @@
     </row>
     <row r="1301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1301" s="7" t="s">
-        <v>720</v>
+        <v>1956</v>
       </c>
       <c r="B1301" s="3" t="s">
         <v>525</v>
@@ -46704,7 +46728,7 @@
     </row>
     <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1302" s="7" t="s">
-        <v>1096</v>
+        <v>720</v>
       </c>
       <c r="B1302" s="3" t="s">
         <v>525</v>
@@ -46728,8 +46752,8 @@
       </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1303" s="17" t="s">
-        <v>528</v>
+      <c r="A1303" s="7" t="s">
+        <v>1096</v>
       </c>
       <c r="B1303" s="3" t="s">
         <v>525</v>
@@ -46754,7 +46778,7 @@
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1304" s="17" t="s">
-        <v>1758</v>
+        <v>528</v>
       </c>
       <c r="B1304" s="3" t="s">
         <v>525</v>
@@ -46779,7 +46803,7 @@
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1305" s="17" t="s">
-        <v>1669</v>
+        <v>1758</v>
       </c>
       <c r="B1305" s="3" t="s">
         <v>525</v>
@@ -46804,7 +46828,7 @@
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1306" s="17" t="s">
-        <v>1160</v>
+        <v>1669</v>
       </c>
       <c r="B1306" s="3" t="s">
         <v>525</v>
@@ -46829,7 +46853,7 @@
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1307" s="17" t="s">
-        <v>1347</v>
+        <v>1160</v>
       </c>
       <c r="B1307" s="3" t="s">
         <v>525</v>
@@ -46854,7 +46878,7 @@
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1308" s="17" t="s">
-        <v>1727</v>
+        <v>1347</v>
       </c>
       <c r="B1308" s="3" t="s">
         <v>525</v>
@@ -46878,8 +46902,8 @@
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1309" s="7" t="s">
-        <v>1625</v>
+      <c r="A1309" s="17" t="s">
+        <v>1727</v>
       </c>
       <c r="B1309" s="3" t="s">
         <v>525</v>
@@ -46902,24 +46926,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1310" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1310" s="7" t="s">
-        <v>722</v>
+        <v>1625</v>
       </c>
       <c r="B1310" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1310" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D1310" s="4">
-        <v>4301031250</v>
+        <v>4301031248</v>
       </c>
       <c r="E1310" s="3">
-        <v>4680115883109</v>
+        <v>4680115883093</v>
       </c>
       <c r="F1310" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G1310" s="1"/>
       <c r="H1310" s="1">
@@ -46929,7 +46953,7 @@
     </row>
     <row r="1311" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1311" s="7" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
       <c r="B1311" s="3" t="s">
         <v>526</v>
@@ -46954,7 +46978,7 @@
     </row>
     <row r="1312" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1312" s="7" t="s">
-        <v>1513</v>
+        <v>770</v>
       </c>
       <c r="B1312" s="3" t="s">
         <v>526</v>
@@ -46979,7 +47003,7 @@
     </row>
     <row r="1313" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1313" s="7" t="s">
-        <v>923</v>
+        <v>1513</v>
       </c>
       <c r="B1313" s="3" t="s">
         <v>526</v>
@@ -47004,7 +47028,7 @@
     </row>
     <row r="1314" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1314" s="7" t="s">
-        <v>1871</v>
+        <v>923</v>
       </c>
       <c r="B1314" s="3" t="s">
         <v>526</v>
@@ -47029,7 +47053,7 @@
     </row>
     <row r="1315" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1315" s="7" t="s">
-        <v>961</v>
+        <v>1871</v>
       </c>
       <c r="B1315" s="3" t="s">
         <v>526</v>
@@ -47054,7 +47078,7 @@
     </row>
     <row r="1316" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1316" s="7" t="s">
-        <v>1161</v>
+        <v>961</v>
       </c>
       <c r="B1316" s="3" t="s">
         <v>526</v>
@@ -47079,7 +47103,7 @@
     </row>
     <row r="1317" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1317" s="7" t="s">
-        <v>1361</v>
+        <v>1161</v>
       </c>
       <c r="B1317" s="3" t="s">
         <v>526</v>
@@ -47104,7 +47128,7 @@
     </row>
     <row r="1318" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1318" s="7" t="s">
-        <v>2121</v>
+        <v>1361</v>
       </c>
       <c r="B1318" s="3" t="s">
         <v>526</v>
@@ -47129,7 +47153,7 @@
     </row>
     <row r="1319" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1319" s="7" t="s">
-        <v>1548</v>
+        <v>2121</v>
       </c>
       <c r="B1319" s="3" t="s">
         <v>526</v>
@@ -47154,7 +47178,7 @@
     </row>
     <row r="1320" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1320" s="7" t="s">
-        <v>1626</v>
+        <v>1548</v>
       </c>
       <c r="B1320" s="3" t="s">
         <v>526</v>
@@ -47179,22 +47203,22 @@
     </row>
     <row r="1321" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1321" s="7" t="s">
-        <v>721</v>
+        <v>1626</v>
       </c>
       <c r="B1321" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C1321" s="3" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D1321" s="4">
-        <v>4301031252</v>
+        <v>4301031250</v>
       </c>
       <c r="E1321" s="3">
-        <v>4680115883116</v>
+        <v>4680115883109</v>
       </c>
       <c r="F1321" s="5" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="G1321" s="1"/>
       <c r="H1321" s="1">
@@ -47204,7 +47228,7 @@
     </row>
     <row r="1322" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1322" s="7" t="s">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="B1322" s="3" t="s">
         <v>524</v>
@@ -47229,7 +47253,7 @@
     </row>
     <row r="1323" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1323" s="7" t="s">
-        <v>527</v>
+        <v>768</v>
       </c>
       <c r="B1323" s="3" t="s">
         <v>524</v>
@@ -47254,7 +47278,7 @@
     </row>
     <row r="1324" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1324" s="7" t="s">
-        <v>908</v>
+        <v>527</v>
       </c>
       <c r="B1324" s="3" t="s">
         <v>524</v>
@@ -47279,7 +47303,7 @@
     </row>
     <row r="1325" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1325" s="7" t="s">
-        <v>2032</v>
+        <v>908</v>
       </c>
       <c r="B1325" s="3" t="s">
         <v>524</v>
@@ -47304,7 +47328,7 @@
     </row>
     <row r="1326" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1326" s="7" t="s">
-        <v>934</v>
+        <v>2032</v>
       </c>
       <c r="B1326" s="3" t="s">
         <v>524</v>
@@ -47329,7 +47353,7 @@
     </row>
     <row r="1327" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1327" s="7" t="s">
-        <v>2113</v>
+        <v>934</v>
       </c>
       <c r="B1327" s="3" t="s">
         <v>524</v>
@@ -47354,7 +47378,7 @@
     </row>
     <row r="1328" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1328" s="7" t="s">
-        <v>1159</v>
+        <v>2113</v>
       </c>
       <c r="B1328" s="3" t="s">
         <v>524</v>
@@ -47379,7 +47403,7 @@
     </row>
     <row r="1329" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1329" s="7" t="s">
-        <v>1761</v>
+        <v>1159</v>
       </c>
       <c r="B1329" s="3" t="s">
         <v>524</v>
@@ -47404,7 +47428,7 @@
     </row>
     <row r="1330" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1330" s="7" t="s">
-        <v>1703</v>
+        <v>1761</v>
       </c>
       <c r="B1330" s="3" t="s">
         <v>524</v>
@@ -47423,12 +47447,13 @@
       </c>
       <c r="G1330" s="1"/>
       <c r="H1330" s="1">
+        <f>VLOOKUP(E1330,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1331" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1331" s="7" t="s">
-        <v>1728</v>
+        <v>1703</v>
       </c>
       <c r="B1331" s="3" t="s">
         <v>524</v>
@@ -47452,7 +47477,7 @@
     </row>
     <row r="1332" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1332" s="7" t="s">
-        <v>1898</v>
+        <v>1728</v>
       </c>
       <c r="B1332" s="3" t="s">
         <v>524</v>
@@ -47476,7 +47501,7 @@
     </row>
     <row r="1333" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1333" s="7" t="s">
-        <v>1624</v>
+        <v>1898</v>
       </c>
       <c r="B1333" s="3" t="s">
         <v>524</v>
@@ -47495,38 +47520,37 @@
       </c>
       <c r="G1333" s="1"/>
       <c r="H1333" s="1">
-        <f>VLOOKUP(E1333,[1]Лист1!$D:$M,10,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="1334" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1334" s="7" t="s">
-        <v>1085</v>
+        <v>1624</v>
       </c>
       <c r="B1334" s="3" t="s">
-        <v>1037</v>
+        <v>524</v>
       </c>
       <c r="C1334" s="3" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="D1334" s="4">
-        <v>4301031257</v>
+        <v>4301031252</v>
       </c>
       <c r="E1334" s="3">
-        <v>4680115883147</v>
+        <v>4680115883116</v>
       </c>
       <c r="F1334" s="5" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="G1334" s="1"/>
       <c r="H1334" s="1">
         <f>VLOOKUP(E1334,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1335" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1335" s="7" t="s">
-        <v>1039</v>
+        <v>1085</v>
       </c>
       <c r="B1335" s="3" t="s">
         <v>1037</v>
@@ -47549,24 +47573,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1336" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1336" s="7" t="s">
-        <v>1087</v>
+        <v>1039</v>
       </c>
       <c r="B1336" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C1336" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D1336" s="4">
-        <v>4301031258</v>
+        <v>4301031257</v>
       </c>
       <c r="E1336" s="3">
-        <v>4680115883161</v>
+        <v>4680115883147</v>
       </c>
       <c r="F1336" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G1336" s="1"/>
       <c r="H1336" s="1">
@@ -47576,7 +47600,7 @@
     </row>
     <row r="1337" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1337" s="7" t="s">
-        <v>1042</v>
+        <v>1087</v>
       </c>
       <c r="B1337" s="3" t="s">
         <v>1040</v>
@@ -47599,34 +47623,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1338" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1338" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1338" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D1338" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1338" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F1338" s="1" t="s">
-        <v>657</v>
+        <v>1042</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1338" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1338" s="4">
+        <v>4301031258</v>
+      </c>
+      <c r="E1338" s="3">
+        <v>4680115883161</v>
+      </c>
+      <c r="F1338" s="5" t="s">
+        <v>1042</v>
       </c>
       <c r="G1338" s="1"/>
-      <c r="H1338" s="1" t="e">
+      <c r="H1338" s="1">
         <f>VLOOKUP(E1338,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1339" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>657</v>
@@ -47651,7 +47675,7 @@
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1340" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>657</v>
@@ -47674,24 +47698,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1341" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1341" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B1341" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C1341" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D1341" s="4">
-        <v>4301031198</v>
-      </c>
-      <c r="E1341" s="3">
-        <v>4607091383348</v>
-      </c>
-      <c r="F1341" s="5" t="s">
-        <v>527</v>
+        <v>661</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1341" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1341" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1341" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="G1341" s="1"/>
       <c r="H1341" s="1" t="e">
@@ -47701,22 +47725,22 @@
     </row>
     <row r="1342" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1342" s="7" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="B1342" s="3" t="s">
-        <v>1128</v>
+        <v>524</v>
       </c>
       <c r="C1342" s="3" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="D1342" s="4">
-        <v>4301032044</v>
+        <v>4301031198</v>
       </c>
       <c r="E1342" s="3">
-        <v>4680115883000</v>
+        <v>4607091383348</v>
       </c>
       <c r="F1342" s="5" t="s">
-        <v>1130</v>
+        <v>527</v>
       </c>
       <c r="G1342" s="1"/>
       <c r="H1342" s="1" t="e">
@@ -47726,7 +47750,7 @@
     </row>
     <row r="1343" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1343" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1343" s="3" t="s">
         <v>1128</v>
@@ -47751,22 +47775,22 @@
     </row>
     <row r="1344" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1344" s="7" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B1344" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="C1344" s="3" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="D1344" s="4">
-        <v>4301032042</v>
+        <v>4301032044</v>
       </c>
       <c r="E1344" s="3">
-        <v>4680115883017</v>
+        <v>4680115883000</v>
       </c>
       <c r="F1344" s="5" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="G1344" s="1"/>
       <c r="H1344" s="1" t="e">
@@ -47776,32 +47800,32 @@
     </row>
     <row r="1345" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1345" s="7" t="s">
-        <v>1723</v>
+        <v>1127</v>
       </c>
       <c r="B1345" s="3" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="C1345" s="3" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="D1345" s="4">
-        <v>4301170008</v>
+        <v>4301032042</v>
       </c>
       <c r="E1345" s="3">
-        <v>4680115882980</v>
+        <v>4680115883017</v>
       </c>
       <c r="F1345" s="5" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="G1345" s="1"/>
-      <c r="H1345" s="1">
+      <c r="H1345" s="1" t="e">
         <f>VLOOKUP(E1345,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1346" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1346" s="7" t="s">
-        <v>1135</v>
+        <v>1723</v>
       </c>
       <c r="B1346" s="3" t="s">
         <v>1132</v>
@@ -47826,82 +47850,82 @@
     </row>
     <row r="1347" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1347" s="7" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B1347" s="3" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="C1347" s="3" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="D1347" s="4">
-        <v>4301011450</v>
+        <v>4301170008</v>
       </c>
       <c r="E1347" s="3">
-        <v>4680115881402</v>
+        <v>4680115882980</v>
       </c>
       <c r="F1347" s="5" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="G1347" s="1"/>
       <c r="H1347" s="1">
         <f>VLOOKUP(E1347,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1348" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1348" s="7" t="s">
-        <v>1186</v>
+        <v>1149</v>
       </c>
       <c r="B1348" s="3" t="s">
-        <v>1187</v>
+        <v>1146</v>
       </c>
       <c r="C1348" s="3" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="D1348" s="4">
-        <v>4301020262</v>
+        <v>4301011450</v>
       </c>
       <c r="E1348" s="3">
-        <v>4680115882935</v>
+        <v>4680115881402</v>
       </c>
       <c r="F1348" s="5" t="s">
-        <v>1189</v>
+        <v>1148</v>
       </c>
       <c r="G1348" s="1"/>
       <c r="H1348" s="1">
         <f>VLOOKUP(E1348,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1349" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1349" s="7" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B1349" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C1349" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D1349" s="4">
-        <v>4301170009</v>
+        <v>4301020262</v>
       </c>
       <c r="E1349" s="3">
-        <v>4680115882997</v>
+        <v>4680115882935</v>
       </c>
       <c r="F1349" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="G1349" s="1"/>
       <c r="H1349" s="1">
         <f>VLOOKUP(E1349,[1]Лист1!$D:$M,10,0)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1350" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1350" s="7" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B1350" s="3" t="s">
         <v>1191</v>
@@ -47926,32 +47950,32 @@
     </row>
     <row r="1351" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1351" s="7" t="s">
-        <v>1557</v>
+        <v>1190</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C1351" s="3" t="s">
-        <v>2043</v>
+        <v>1192</v>
       </c>
       <c r="D1351" s="4">
-        <v>4301011778</v>
+        <v>4301170009</v>
       </c>
       <c r="E1351" s="3">
-        <v>4680115880603</v>
+        <v>4680115882997</v>
       </c>
       <c r="F1351" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G1351" s="1"/>
       <c r="H1351" s="1">
         <f>VLOOKUP(E1351,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1352" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1352" s="7" t="s">
-        <v>1196</v>
+        <v>1557</v>
       </c>
       <c r="B1352" s="3" t="s">
         <v>1195</v>
@@ -47976,7 +48000,7 @@
     </row>
     <row r="1353" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1353" s="7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B1353" s="3" t="s">
         <v>1195</v>
@@ -48001,22 +48025,22 @@
     </row>
     <row r="1354" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1354" s="7" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B1354" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C1354" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D1354" s="4">
-        <v>4301011784</v>
+        <v>4301011778</v>
       </c>
       <c r="E1354" s="3">
-        <v>4607091389982</v>
+        <v>4680115880603</v>
       </c>
       <c r="F1354" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="G1354" s="1"/>
       <c r="H1354" s="1">
@@ -48026,82 +48050,82 @@
     </row>
     <row r="1355" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1355" s="7" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
       <c r="B1355" s="3" t="s">
-        <v>1223</v>
+        <v>1198</v>
       </c>
       <c r="C1355" s="3" t="s">
-        <v>1224</v>
+        <v>2044</v>
       </c>
       <c r="D1355" s="4">
-        <v>4301032043</v>
+        <v>4301011784</v>
       </c>
       <c r="E1355" s="3">
-        <v>4680115883031</v>
+        <v>4607091389982</v>
       </c>
       <c r="F1355" s="5" t="s">
-        <v>1225</v>
+        <v>1199</v>
       </c>
       <c r="G1355" s="1"/>
-      <c r="H1355" s="1" t="e">
+      <c r="H1355" s="1">
         <f>VLOOKUP(E1355,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1356" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1356" s="7" t="s">
-        <v>1248</v>
+        <v>1226</v>
       </c>
       <c r="B1356" s="3" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
       <c r="C1356" s="3" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
       <c r="D1356" s="4">
-        <v>4301031247</v>
+        <v>4301032043</v>
       </c>
       <c r="E1356" s="3">
-        <v>4680115883048</v>
+        <v>4680115883031</v>
       </c>
       <c r="F1356" s="5" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
       <c r="G1356" s="1"/>
-      <c r="H1356" s="1">
+      <c r="H1356" s="1" t="e">
         <f>VLOOKUP(E1356,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1357" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1357" s="7" t="s">
-        <v>1399</v>
+        <v>1248</v>
       </c>
       <c r="B1357" s="3" t="s">
-        <v>1278</v>
+        <v>1249</v>
       </c>
       <c r="C1357" s="3" t="s">
-        <v>1279</v>
+        <v>1250</v>
       </c>
       <c r="D1357" s="4">
-        <v>4301031249</v>
+        <v>4301031247</v>
       </c>
       <c r="E1357" s="3">
-        <v>4680115882072</v>
+        <v>4680115883048</v>
       </c>
       <c r="F1357" s="5" t="s">
-        <v>1277</v>
+        <v>1251</v>
       </c>
       <c r="G1357" s="1"/>
       <c r="H1357" s="1">
         <f>VLOOKUP(E1357,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1358" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1358" s="7" t="s">
-        <v>1277</v>
+        <v>1399</v>
       </c>
       <c r="B1358" s="3" t="s">
         <v>1278</v>
@@ -48126,32 +48150,32 @@
     </row>
     <row r="1359" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1359" s="7" t="s">
-        <v>1331</v>
+        <v>1277</v>
       </c>
       <c r="B1359" s="3" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="C1359" s="3" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="D1359" s="4">
-        <v>4301011562</v>
+        <v>4301031249</v>
       </c>
       <c r="E1359" s="3">
-        <v>4680115882577</v>
+        <v>4680115882072</v>
       </c>
       <c r="F1359" s="5" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="G1359" s="1"/>
       <c r="H1359" s="1">
         <f>VLOOKUP(E1359,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1360" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1360" s="7" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="B1360" s="3" t="s">
         <v>1287</v>
@@ -48176,7 +48200,7 @@
     </row>
     <row r="1361" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1361" s="7" t="s">
-        <v>1860</v>
+        <v>1352</v>
       </c>
       <c r="B1361" s="3" t="s">
         <v>1287</v>
@@ -48201,7 +48225,7 @@
     </row>
     <row r="1362" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1362" s="7" t="s">
-        <v>1289</v>
+        <v>1860</v>
       </c>
       <c r="B1362" s="3" t="s">
         <v>1287</v>
@@ -48226,7 +48250,7 @@
     </row>
     <row r="1363" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1363" s="7" t="s">
-        <v>1992</v>
+        <v>1289</v>
       </c>
       <c r="B1363" s="3" t="s">
         <v>1287</v>
@@ -48251,7 +48275,7 @@
     </row>
     <row r="1364" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1364" s="7" t="s">
-        <v>2086</v>
+        <v>1992</v>
       </c>
       <c r="B1364" s="3" t="s">
         <v>1287</v>
@@ -48276,7 +48300,7 @@
     </row>
     <row r="1365" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1365" s="7" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1365" s="3" t="s">
         <v>1287</v>
@@ -48301,7 +48325,7 @@
     </row>
     <row r="1366" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1366" s="7" t="s">
-        <v>2117</v>
+        <v>2087</v>
       </c>
       <c r="B1366" s="3" t="s">
         <v>1287</v>
@@ -48326,7 +48350,7 @@
     </row>
     <row r="1367" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1367" s="7" t="s">
-        <v>2146</v>
+        <v>2117</v>
       </c>
       <c r="B1367" s="3" t="s">
         <v>1287</v>
@@ -48351,7 +48375,7 @@
     </row>
     <row r="1368" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1368" s="7" t="s">
-        <v>2050</v>
+        <v>2146</v>
       </c>
       <c r="B1368" s="3" t="s">
         <v>1287</v>
@@ -48376,7 +48400,7 @@
     </row>
     <row r="1369" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1369" s="7" t="s">
-        <v>2103</v>
+        <v>2050</v>
       </c>
       <c r="B1369" s="3" t="s">
         <v>1287</v>
@@ -48401,7 +48425,7 @@
     </row>
     <row r="1370" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1370" s="7" t="s">
-        <v>1286</v>
+        <v>2103</v>
       </c>
       <c r="B1370" s="3" t="s">
         <v>1287</v>
@@ -48426,32 +48450,32 @@
     </row>
     <row r="1371" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1371" s="7" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B1371" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C1371" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D1371" s="4">
-        <v>4301051476</v>
+        <v>4301011562</v>
       </c>
       <c r="E1371" s="3">
-        <v>4680115882584</v>
+        <v>4680115882577</v>
       </c>
       <c r="F1371" s="5" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G1371" s="1"/>
       <c r="H1371" s="1">
         <f>VLOOKUP(E1371,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1372" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1372" s="7" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B1372" s="3" t="s">
         <v>1291</v>
@@ -48476,7 +48500,7 @@
     </row>
     <row r="1373" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1373" s="7" t="s">
-        <v>1353</v>
+        <v>1293</v>
       </c>
       <c r="B1373" s="3" t="s">
         <v>1291</v>
@@ -48501,7 +48525,7 @@
     </row>
     <row r="1374" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1374" s="7" t="s">
-        <v>1861</v>
+        <v>1353</v>
       </c>
       <c r="B1374" s="3" t="s">
         <v>1291</v>
@@ -48526,7 +48550,7 @@
     </row>
     <row r="1375" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1375" s="7" t="s">
-        <v>1326</v>
+        <v>1861</v>
       </c>
       <c r="B1375" s="3" t="s">
         <v>1291</v>
@@ -48551,32 +48575,32 @@
     </row>
     <row r="1376" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1376" s="7" t="s">
-        <v>1411</v>
+        <v>1326</v>
       </c>
       <c r="B1376" s="3" t="s">
-        <v>1340</v>
+        <v>1291</v>
       </c>
       <c r="C1376" s="3" t="s">
-        <v>1341</v>
+        <v>1292</v>
       </c>
       <c r="D1376" s="4">
-        <v>4301031234</v>
+        <v>4301051476</v>
       </c>
       <c r="E1376" s="3">
-        <v>4680115883444</v>
+        <v>4680115882584</v>
       </c>
       <c r="F1376" s="5" t="s">
-        <v>1342</v>
+        <v>1293</v>
       </c>
       <c r="G1376" s="1"/>
       <c r="H1376" s="1">
         <f>VLOOKUP(E1376,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1377" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1377" s="7" t="s">
-        <v>1993</v>
+        <v>1411</v>
       </c>
       <c r="B1377" s="3" t="s">
         <v>1340</v>
@@ -48601,7 +48625,7 @@
     </row>
     <row r="1378" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1378" s="7" t="s">
-        <v>2051</v>
+        <v>1993</v>
       </c>
       <c r="B1378" s="3" t="s">
         <v>1340</v>
@@ -48626,7 +48650,7 @@
     </row>
     <row r="1379" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1379" s="7" t="s">
-        <v>2079</v>
+        <v>2051</v>
       </c>
       <c r="B1379" s="3" t="s">
         <v>1340</v>
@@ -48651,7 +48675,7 @@
     </row>
     <row r="1380" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1380" s="7" t="s">
-        <v>1343</v>
+        <v>2079</v>
       </c>
       <c r="B1380" s="3" t="s">
         <v>1340</v>
@@ -48676,22 +48700,22 @@
     </row>
     <row r="1381" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1381" s="7" t="s">
-        <v>1570</v>
+        <v>1343</v>
       </c>
       <c r="B1381" s="3" t="s">
-        <v>1395</v>
+        <v>1340</v>
       </c>
       <c r="C1381" s="3" t="s">
-        <v>1396</v>
+        <v>1341</v>
       </c>
       <c r="D1381" s="4">
-        <v>4301020254</v>
+        <v>4301031234</v>
       </c>
       <c r="E1381" s="3">
-        <v>4680115881914</v>
+        <v>4680115883444</v>
       </c>
       <c r="F1381" s="5" t="s">
-        <v>1397</v>
+        <v>1342</v>
       </c>
       <c r="G1381" s="1"/>
       <c r="H1381" s="1">
@@ -48701,7 +48725,7 @@
     </row>
     <row r="1382" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1382" s="7" t="s">
-        <v>1398</v>
+        <v>1570</v>
       </c>
       <c r="B1382" s="3" t="s">
         <v>1395</v>
@@ -48726,47 +48750,47 @@
     </row>
     <row r="1383" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1383" s="7" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="B1383" s="3" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="C1383" s="3" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="D1383" s="4">
-        <v>4301031254</v>
+        <v>4301020254</v>
       </c>
       <c r="E1383" s="3">
-        <v>4680115883154</v>
+        <v>4680115881914</v>
       </c>
       <c r="F1383" s="5" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="G1383" s="1"/>
       <c r="H1383" s="1">
         <f>VLOOKUP(E1383,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1384" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1384" s="7" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1384" s="3" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="C1384" s="3" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="D1384" s="4">
-        <v>4301031256</v>
+        <v>4301031254</v>
       </c>
       <c r="E1384" s="3">
-        <v>4680115883178</v>
+        <v>4680115883154</v>
       </c>
       <c r="F1384" s="5" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="G1384" s="1"/>
       <c r="H1384" s="1">
@@ -48776,32 +48800,32 @@
     </row>
     <row r="1385" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1385" s="7" t="s">
-        <v>599</v>
+        <v>1406</v>
       </c>
       <c r="B1385" s="3" t="s">
-        <v>1244</v>
+        <v>1407</v>
       </c>
       <c r="C1385" s="3" t="s">
-        <v>1426</v>
+        <v>1408</v>
       </c>
       <c r="D1385" s="4">
-        <v>4301031244</v>
+        <v>4301031256</v>
       </c>
       <c r="E1385" s="3">
-        <v>4640242180595</v>
+        <v>4680115883178</v>
       </c>
       <c r="F1385" s="5" t="s">
-        <v>1427</v>
+        <v>1409</v>
       </c>
       <c r="G1385" s="1"/>
       <c r="H1385" s="1">
         <f>VLOOKUP(E1385,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1386" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1386" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B1386" s="3" t="s">
         <v>1244</v>
@@ -48826,7 +48850,7 @@
     </row>
     <row r="1387" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1387" s="7" t="s">
-        <v>1365</v>
+        <v>602</v>
       </c>
       <c r="B1387" s="3" t="s">
         <v>1244</v>
@@ -48851,7 +48875,7 @@
     </row>
     <row r="1388" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1388" s="7" t="s">
-        <v>883</v>
+        <v>1365</v>
       </c>
       <c r="B1388" s="3" t="s">
         <v>1244</v>
@@ -48875,8 +48899,8 @@
       </c>
     </row>
     <row r="1389" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1389" s="18" t="s">
-        <v>562</v>
+      <c r="A1389" s="7" t="s">
+        <v>883</v>
       </c>
       <c r="B1389" s="3" t="s">
         <v>1244</v>
@@ -48900,8 +48924,8 @@
       </c>
     </row>
     <row r="1390" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1390" s="7" t="s">
-        <v>737</v>
+      <c r="A1390" s="18" t="s">
+        <v>562</v>
       </c>
       <c r="B1390" s="3" t="s">
         <v>1244</v>
@@ -48918,9 +48942,7 @@
       <c r="F1390" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="G1390" s="1" t="s">
-        <v>1472</v>
-      </c>
+      <c r="G1390" s="1"/>
       <c r="H1390" s="1">
         <f>VLOOKUP(E1390,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -48928,7 +48950,7 @@
     </row>
     <row r="1391" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1391" s="7" t="s">
-        <v>1302</v>
+        <v>737</v>
       </c>
       <c r="B1391" s="3" t="s">
         <v>1244</v>
@@ -48945,7 +48967,9 @@
       <c r="F1391" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="G1391" s="1"/>
+      <c r="G1391" s="1" t="s">
+        <v>1472</v>
+      </c>
       <c r="H1391" s="1">
         <f>VLOOKUP(E1391,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -48953,7 +48977,7 @@
     </row>
     <row r="1392" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1392" s="7" t="s">
-        <v>954</v>
+        <v>1302</v>
       </c>
       <c r="B1392" s="3" t="s">
         <v>1244</v>
@@ -48978,7 +49002,7 @@
     </row>
     <row r="1393" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1393" s="7" t="s">
-        <v>2098</v>
+        <v>954</v>
       </c>
       <c r="B1393" s="3" t="s">
         <v>1244</v>
@@ -49003,7 +49027,7 @@
     </row>
     <row r="1394" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1394" s="7" t="s">
-        <v>1666</v>
+        <v>2098</v>
       </c>
       <c r="B1394" s="3" t="s">
         <v>1244</v>
@@ -49028,7 +49052,7 @@
     </row>
     <row r="1395" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1395" s="7" t="s">
-        <v>1964</v>
+        <v>1666</v>
       </c>
       <c r="B1395" s="3" t="s">
         <v>1244</v>
@@ -49053,7 +49077,7 @@
     </row>
     <row r="1396" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1396" s="7" t="s">
-        <v>1550</v>
+        <v>1964</v>
       </c>
       <c r="B1396" s="3" t="s">
         <v>1244</v>
@@ -49078,7 +49102,7 @@
     </row>
     <row r="1397" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1397" s="7" t="s">
-        <v>1243</v>
+        <v>1550</v>
       </c>
       <c r="B1397" s="3" t="s">
         <v>1244</v>
@@ -49095,9 +49119,7 @@
       <c r="F1397" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="G1397" s="1" t="s">
-        <v>1481</v>
-      </c>
+      <c r="G1397" s="1"/>
       <c r="H1397" s="1">
         <f>VLOOKUP(E1397,[1]Лист1!$D:$M,10,0)</f>
         <v>40</v>
@@ -49105,7 +49127,7 @@
     </row>
     <row r="1398" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1398" s="7" t="s">
-        <v>636</v>
+        <v>1243</v>
       </c>
       <c r="B1398" s="3" t="s">
         <v>1244</v>
@@ -49123,7 +49145,7 @@
         <v>1427</v>
       </c>
       <c r="G1398" s="1" t="s">
-        <v>1428</v>
+        <v>1481</v>
       </c>
       <c r="H1398" s="1">
         <f>VLOOKUP(E1398,[1]Лист1!$D:$M,10,0)</f>
@@ -49132,32 +49154,34 @@
     </row>
     <row r="1399" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1399" s="7" t="s">
-        <v>1437</v>
+        <v>636</v>
       </c>
       <c r="B1399" s="3" t="s">
-        <v>535</v>
+        <v>1244</v>
       </c>
       <c r="C1399" s="3" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="D1399" s="4">
-        <v>4301011585</v>
+        <v>4301031244</v>
       </c>
       <c r="E1399" s="3">
-        <v>4640242180441</v>
+        <v>4640242180595</v>
       </c>
       <c r="F1399" s="5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G1399" s="1"/>
+        <v>1427</v>
+      </c>
+      <c r="G1399" s="1" t="s">
+        <v>1428</v>
+      </c>
       <c r="H1399" s="1">
         <f>VLOOKUP(E1399,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1400" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1400" s="7" t="s">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="B1400" s="3" t="s">
         <v>535</v>
@@ -49182,7 +49206,7 @@
     </row>
     <row r="1401" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1401" s="7" t="s">
-        <v>1435</v>
+        <v>1722</v>
       </c>
       <c r="B1401" s="3" t="s">
         <v>535</v>
@@ -49205,49 +49229,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1402" s="7" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B1402" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C1402" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D1402" s="4">
-        <v>4301051510</v>
+        <v>4301011585</v>
       </c>
       <c r="E1402" s="3">
-        <v>4640242180540</v>
+        <v>4640242180441</v>
       </c>
       <c r="F1402" s="5" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G1402" s="1"/>
       <c r="H1402" s="1">
         <f>VLOOKUP(E1402,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1403" s="7" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B1403" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C1403" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D1403" s="4">
-        <v>4301051508</v>
+        <v>4301051510</v>
       </c>
       <c r="E1403" s="3">
-        <v>4640242180557</v>
+        <v>4640242180540</v>
       </c>
       <c r="F1403" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="G1403" s="1"/>
       <c r="H1403" s="1">
@@ -49255,99 +49279,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1404" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1404" s="7" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="B1404" s="3" t="s">
-        <v>1460</v>
+        <v>547</v>
       </c>
       <c r="C1404" s="3" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="D1404" s="4">
-        <v>4301011483</v>
+        <v>4301051508</v>
       </c>
       <c r="E1404" s="3">
-        <v>4680115881907</v>
+        <v>4640242180557</v>
       </c>
       <c r="F1404" s="5" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="G1404" s="1"/>
       <c r="H1404" s="1">
         <f>VLOOKUP(E1404,[1]Лист1!$D:$M,10,0)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1405" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1405" s="7" t="s">
-        <v>1486</v>
+        <v>1459</v>
       </c>
       <c r="B1405" s="3" t="s">
-        <v>1487</v>
+        <v>1460</v>
       </c>
       <c r="C1405" s="3" t="s">
-        <v>1488</v>
+        <v>1461</v>
       </c>
       <c r="D1405" s="4">
-        <v>4301031255</v>
+        <v>4301011483</v>
       </c>
       <c r="E1405" s="3">
-        <v>4680115883185</v>
+        <v>4680115881907</v>
       </c>
       <c r="F1405" s="5" t="s">
-        <v>1489</v>
+        <v>1459</v>
       </c>
       <c r="G1405" s="1"/>
       <c r="H1405" s="1">
         <f>VLOOKUP(E1405,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1406" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1406" s="7" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="B1406" s="3" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="C1406" s="3" t="s">
-        <v>2092</v>
+        <v>1488</v>
       </c>
       <c r="D1406" s="4">
-        <v>4301011775</v>
+        <v>4301031255</v>
       </c>
       <c r="E1406" s="3">
-        <v>4607091389999</v>
+        <v>4680115883185</v>
       </c>
       <c r="F1406" s="5" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="G1406" s="1"/>
       <c r="H1406" s="1">
         <f>VLOOKUP(E1406,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1407" s="7" t="s">
-        <v>1560</v>
+        <v>1502</v>
       </c>
       <c r="B1407" s="3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C1407" s="3" t="s">
-        <v>1506</v>
+        <v>2092</v>
       </c>
       <c r="D1407" s="4">
-        <v>4301020206</v>
+        <v>4301011775</v>
       </c>
       <c r="E1407" s="3">
-        <v>4680115880054</v>
+        <v>4607091389999</v>
       </c>
       <c r="F1407" s="5" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="G1407" s="1"/>
       <c r="H1407" s="1">
@@ -49357,7 +49381,7 @@
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1408" s="7" t="s">
-        <v>1921</v>
+        <v>1560</v>
       </c>
       <c r="B1408" s="3" t="s">
         <v>1505</v>
@@ -49382,7 +49406,7 @@
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1409" s="7" t="s">
-        <v>1971</v>
+        <v>1921</v>
       </c>
       <c r="B1409" s="3" t="s">
         <v>1505</v>
@@ -49407,7 +49431,7 @@
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1410" s="7" t="s">
-        <v>1751</v>
+        <v>1971</v>
       </c>
       <c r="B1410" s="3" t="s">
         <v>1505</v>
@@ -49432,7 +49456,7 @@
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1411" s="7" t="s">
-        <v>1700</v>
+        <v>1751</v>
       </c>
       <c r="B1411" s="3" t="s">
         <v>1505</v>
@@ -49451,12 +49475,13 @@
       </c>
       <c r="G1411" s="1"/>
       <c r="H1411" s="1">
+        <f>VLOOKUP(E1411,[1]Лист1!$D:$M,10,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1412" s="7" t="s">
-        <v>1508</v>
+        <v>1700</v>
       </c>
       <c r="B1412" s="3" t="s">
         <v>1505</v>
@@ -49473,132 +49498,131 @@
       <c r="F1412" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="G1412" s="1" t="s">
+      <c r="G1412" s="1"/>
+      <c r="H1412" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1413" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1413" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1413" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1413" s="4">
+        <v>4301020206</v>
+      </c>
+      <c r="E1413" s="3">
+        <v>4680115880054</v>
+      </c>
+      <c r="F1413" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G1413" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="H1412" s="1">
-        <f>VLOOKUP(E1412,[1]Лист1!$D:$M,10,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1413" s="7" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B1413" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C1413" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D1413" s="4">
-        <v>4301020214</v>
-      </c>
-      <c r="E1413" s="3">
-        <v>4607091389388</v>
-      </c>
-      <c r="F1413" s="5" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G1413" s="1"/>
       <c r="H1413" s="1">
         <f>VLOOKUP(E1413,[1]Лист1!$D:$M,10,0)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1414" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1414" s="7" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="B1414" s="3" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="C1414" s="3" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="D1414" s="4">
-        <v>4301011565</v>
+        <v>4301020214</v>
       </c>
       <c r="E1414" s="3">
-        <v>4680115882539</v>
+        <v>4607091389388</v>
       </c>
       <c r="F1414" s="5" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="G1414" s="1"/>
       <c r="H1414" s="1">
         <f>VLOOKUP(E1414,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1415" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1415" s="7" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="B1415" s="3" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="C1415" s="3" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="D1415" s="4">
-        <v>4301060351</v>
+        <v>4301011565</v>
       </c>
       <c r="E1415" s="3">
-        <v>4680115881464</v>
+        <v>4680115882539</v>
       </c>
       <c r="F1415" s="5" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="G1415" s="1"/>
       <c r="H1415" s="1">
         <f>VLOOKUP(E1415,[1]Лист1!$D:$M,10,0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1416" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1416" s="7" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="B1416" s="3" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="C1416" s="3" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="D1416" s="4">
-        <v>4301011433</v>
+        <v>4301060351</v>
       </c>
       <c r="E1416" s="3">
-        <v>4680115882638</v>
+        <v>4680115881464</v>
       </c>
       <c r="F1416" s="5" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="G1416" s="1"/>
       <c r="H1416" s="1">
         <f>VLOOKUP(E1416,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1417" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1417" s="7" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B1417" s="3" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C1417" s="3" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D1417" s="4">
-        <v>4301011573</v>
+        <v>4301011433</v>
       </c>
       <c r="E1417" s="3">
-        <v>4680115881938</v>
+        <v>4680115882638</v>
       </c>
       <c r="F1417" s="5" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="G1417" s="1"/>
       <c r="H1417" s="1">
@@ -49608,47 +49632,47 @@
     </row>
     <row r="1418" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1418" s="7" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="B1418" s="3" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="C1418" s="3" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="D1418" s="4">
-        <v>4301060356</v>
+        <v>4301011573</v>
       </c>
       <c r="E1418" s="3">
-        <v>4680115882652</v>
+        <v>4680115881938</v>
       </c>
       <c r="F1418" s="5" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="G1418" s="1"/>
       <c r="H1418" s="1">
         <f>VLOOKUP(E1418,[1]Лист1!$D:$M,10,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1419" s="7" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B1419" s="3" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C1419" s="3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D1419" s="4">
-        <v>4301051480</v>
+        <v>4301060356</v>
       </c>
       <c r="E1419" s="3">
-        <v>4680115882645</v>
+        <v>4680115882652</v>
       </c>
       <c r="F1419" s="5" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G1419" s="1"/>
       <c r="H1419" s="1">
@@ -49656,83 +49680,84 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1420" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1420" s="7" t="s">
-        <v>1794</v>
+        <v>1595</v>
       </c>
       <c r="B1420" s="3" t="s">
-        <v>1795</v>
+        <v>1596</v>
       </c>
       <c r="C1420" s="3" t="s">
-        <v>1796</v>
+        <v>1597</v>
       </c>
       <c r="D1420" s="4">
-        <v>4301020258</v>
+        <v>4301051480</v>
       </c>
       <c r="E1420" s="3">
-        <v>4680115882775</v>
+        <v>4680115882645</v>
       </c>
       <c r="F1420" s="5" t="s">
-        <v>1797</v>
+        <v>1598</v>
       </c>
       <c r="G1420" s="1"/>
       <c r="H1420" s="1">
         <f>VLOOKUP(E1420,[1]Лист1!$D:$M,10,0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1421" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1421" s="7" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="B1421" s="3" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C1421" s="3" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="D1421" s="4">
-        <v>4301051479</v>
+        <v>4301020258</v>
       </c>
       <c r="E1421" s="3">
-        <v>4680115882607</v>
+        <v>4680115882775</v>
       </c>
       <c r="F1421" s="5" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="G1421" s="1"/>
       <c r="H1421" s="1">
         <f>VLOOKUP(E1421,[1]Лист1!$D:$M,10,0)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1422" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1422" s="7" t="s">
-        <v>1852</v>
+        <v>1799</v>
       </c>
       <c r="B1422" s="3" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="C1422" s="3" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="D1422" s="4">
-        <v>4301011625</v>
+        <v>4301051479</v>
       </c>
       <c r="E1422" s="3">
-        <v>4680115883956</v>
+        <v>4680115882607</v>
       </c>
       <c r="F1422" s="5" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="G1422" s="1"/>
       <c r="H1422" s="1">
-        <v>50</v>
+        <f>VLOOKUP(E1422,[1]Лист1!$D:$M,10,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="1423" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1423" s="7" t="s">
-        <v>1806</v>
+        <v>1852</v>
       </c>
       <c r="B1423" s="3" t="s">
         <v>1807</v>
@@ -49756,29 +49781,31 @@
     </row>
     <row r="1424" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1424" s="7" t="s">
-        <v>1916</v>
+        <v>1806</v>
       </c>
       <c r="B1424" s="3" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="C1424" s="3" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="D1424" s="4">
-        <v>4301170010</v>
+        <v>4301011625</v>
       </c>
       <c r="E1424" s="3">
-        <v>4680115884090</v>
+        <v>4680115883956</v>
       </c>
       <c r="F1424" s="5" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="G1424" s="1"/>
-      <c r="H1424" s="1"/>
+      <c r="H1424" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="1425" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1425" s="7" t="s">
-        <v>2048</v>
+        <v>1916</v>
       </c>
       <c r="B1425" s="3" t="s">
         <v>1814</v>
@@ -49800,7 +49827,7 @@
     </row>
     <row r="1426" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1426" s="7" t="s">
-        <v>1813</v>
+        <v>2048</v>
       </c>
       <c r="B1426" s="3" t="s">
         <v>1814</v>
@@ -49822,31 +49849,29 @@
     </row>
     <row r="1427" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1427" s="7" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="B1427" s="3" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="C1427" s="3" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="D1427" s="4">
-        <v>4301032047</v>
+        <v>4301170010</v>
       </c>
       <c r="E1427" s="3">
-        <v>4680115884342</v>
+        <v>4680115884090</v>
       </c>
       <c r="F1427" s="5" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="G1427" s="1"/>
-      <c r="H1427" s="1">
-        <v>60</v>
-      </c>
+      <c r="H1427" s="1"/>
     </row>
     <row r="1428" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1428" s="7" t="s">
-        <v>1909</v>
+        <v>1820</v>
       </c>
       <c r="B1428" s="3" t="s">
         <v>1818</v>
@@ -49870,7 +49895,7 @@
     </row>
     <row r="1429" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1429" s="7" t="s">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="B1429" s="3" t="s">
         <v>1818</v>
@@ -49894,7 +49919,7 @@
     </row>
     <row r="1430" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1430" s="7" t="s">
-        <v>1817</v>
+        <v>1900</v>
       </c>
       <c r="B1430" s="3" t="s">
         <v>1818</v>
@@ -49918,22 +49943,22 @@
     </row>
     <row r="1431" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1431" s="7" t="s">
-        <v>1908</v>
+        <v>1817</v>
       </c>
       <c r="B1431" s="3" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C1431" s="3" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="D1431" s="4">
-        <v>4301032046</v>
+        <v>4301032047</v>
       </c>
       <c r="E1431" s="3">
-        <v>4680115884359</v>
+        <v>4680115884342</v>
       </c>
       <c r="F1431" s="5" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="G1431" s="1"/>
       <c r="H1431" s="1">
@@ -49942,7 +49967,7 @@
     </row>
     <row r="1432" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1432" s="7" t="s">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="B1432" s="3" t="s">
         <v>1822</v>
@@ -49966,7 +49991,7 @@
     </row>
     <row r="1433" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1433" s="7" t="s">
-        <v>1821</v>
+        <v>1899</v>
       </c>
       <c r="B1433" s="3" t="s">
         <v>1822</v>
@@ -49990,22 +50015,22 @@
     </row>
     <row r="1434" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1434" s="7" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="B1434" s="3" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C1434" s="3" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="D1434" s="4">
-        <v>4301032045</v>
+        <v>4301032046</v>
       </c>
       <c r="E1434" s="3">
-        <v>4680115884335</v>
+        <v>4680115884359</v>
       </c>
       <c r="F1434" s="5" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="G1434" s="1"/>
       <c r="H1434" s="1">
@@ -50014,7 +50039,7 @@
     </row>
     <row r="1435" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1435" s="7" t="s">
-        <v>1910</v>
+        <v>1828</v>
       </c>
       <c r="B1435" s="3" t="s">
         <v>1826</v>
@@ -50038,7 +50063,7 @@
     </row>
     <row r="1436" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1436" s="7" t="s">
-        <v>1901</v>
+        <v>1910</v>
       </c>
       <c r="B1436" s="3" t="s">
         <v>1826</v>
@@ -50062,7 +50087,7 @@
     </row>
     <row r="1437" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1437" s="7" t="s">
-        <v>1825</v>
+        <v>1901</v>
       </c>
       <c r="B1437" s="3" t="s">
         <v>1826</v>
@@ -50084,77 +50109,79 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1438" s="7" t="s">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="B1438" s="3" t="s">
-        <v>1847</v>
+        <v>1826</v>
       </c>
       <c r="C1438" s="3" t="s">
-        <v>1848</v>
+        <v>1827</v>
       </c>
       <c r="D1438" s="4">
-        <v>4301031245</v>
+        <v>4301032045</v>
       </c>
       <c r="E1438" s="3">
-        <v>4680115883963</v>
+        <v>4680115884335</v>
       </c>
       <c r="F1438" s="5" t="s">
-        <v>1849</v>
+        <v>1828</v>
       </c>
       <c r="G1438" s="1"/>
       <c r="H1438" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1439" s="7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1439" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1439" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D1439" s="4">
+        <v>4301031245</v>
+      </c>
+      <c r="E1439" s="3">
+        <v>4680115883963</v>
+      </c>
+      <c r="F1439" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G1439" s="1"/>
+      <c r="H1439" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="1439" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1439" s="7" t="s">
+    <row r="1440" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1440" s="7" t="s">
         <v>1855</v>
       </c>
-      <c r="B1439" s="3" t="s">
+      <c r="B1440" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="C1439" s="3" t="s">
+      <c r="C1440" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="D1439" s="4">
+      <c r="D1440" s="4">
         <v>4301051523</v>
       </c>
-      <c r="E1439" s="3">
+      <c r="E1440" s="3">
         <v>4680115882942</v>
       </c>
-      <c r="F1439" s="5" t="s">
+      <c r="F1440" s="5" t="s">
         <v>1858</v>
-      </c>
-      <c r="G1439" s="1"/>
-      <c r="H1439" s="1"/>
-    </row>
-    <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1440" s="7" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B1440" s="3" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C1440" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D1440" s="4">
-        <v>4301051390</v>
-      </c>
-      <c r="E1440" s="3">
-        <v>4640242181233</v>
-      </c>
-      <c r="F1440" s="5" t="s">
-        <v>1883</v>
       </c>
       <c r="G1440" s="1"/>
       <c r="H1440" s="1"/>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1441" s="7" t="s">
-        <v>1883</v>
+        <v>1943</v>
       </c>
       <c r="B1441" s="3" t="s">
         <v>1884</v>
@@ -50174,31 +50201,31 @@
       <c r="G1441" s="1"/>
       <c r="H1441" s="1"/>
     </row>
-    <row r="1442" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1442" s="7" t="s">
-        <v>1941</v>
+        <v>1883</v>
       </c>
       <c r="B1442" s="3" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C1442" s="3" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D1442" s="4">
-        <v>4301031200</v>
+        <v>4301051390</v>
       </c>
       <c r="E1442" s="3">
-        <v>4640242180489</v>
+        <v>4640242181233</v>
       </c>
       <c r="F1442" s="5" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="G1442" s="1"/>
       <c r="H1442" s="1"/>
     </row>
     <row r="1443" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1443" s="7" t="s">
-        <v>2094</v>
+        <v>1941</v>
       </c>
       <c r="B1443" s="3" t="s">
         <v>1887</v>
@@ -50220,7 +50247,7 @@
     </row>
     <row r="1444" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1444" s="7" t="s">
-        <v>1886</v>
+        <v>2094</v>
       </c>
       <c r="B1444" s="3" t="s">
         <v>1887</v>
@@ -50242,29 +50269,29 @@
     </row>
     <row r="1445" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1445" s="7" t="s">
-        <v>1942</v>
+        <v>1886</v>
       </c>
       <c r="B1445" s="3" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C1445" s="3" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D1445" s="4">
-        <v>4301031203</v>
+        <v>4301031200</v>
       </c>
       <c r="E1445" s="3">
-        <v>4640242180908</v>
+        <v>4640242180489</v>
       </c>
       <c r="F1445" s="5" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="G1445" s="1"/>
       <c r="H1445" s="1"/>
     </row>
     <row r="1446" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1446" s="7" t="s">
-        <v>2093</v>
+        <v>1942</v>
       </c>
       <c r="B1446" s="3" t="s">
         <v>1890</v>
@@ -50286,7 +50313,7 @@
     </row>
     <row r="1447" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1447" s="7" t="s">
-        <v>1889</v>
+        <v>2093</v>
       </c>
       <c r="B1447" s="3" t="s">
         <v>1890</v>
@@ -50308,29 +50335,29 @@
     </row>
     <row r="1448" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1448" s="7" t="s">
-        <v>1940</v>
+        <v>1889</v>
       </c>
       <c r="B1448" s="3" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C1448" s="3" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D1448" s="4">
-        <v>4301040357</v>
+        <v>4301031203</v>
       </c>
       <c r="E1448" s="3">
-        <v>4680115884564</v>
+        <v>4640242180908</v>
       </c>
       <c r="F1448" s="5" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="G1448" s="1"/>
       <c r="H1448" s="1"/>
     </row>
     <row r="1449" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1449" s="7" t="s">
-        <v>1892</v>
+        <v>1940</v>
       </c>
       <c r="B1449" s="3" t="s">
         <v>1893</v>
@@ -50348,231 +50375,237 @@
         <v>1892</v>
       </c>
       <c r="G1449" s="1"/>
-      <c r="H1449" s="1"/>
+      <c r="H1449" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="1450" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1450" s="7" t="s">
-        <v>1895</v>
+        <v>2168</v>
       </c>
       <c r="B1450" s="3" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C1450" s="3" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D1450" s="4">
-        <v>4301040358</v>
+        <v>4301040357</v>
       </c>
       <c r="E1450" s="3">
-        <v>4680115884571</v>
+        <v>4680115884564</v>
       </c>
       <c r="F1450" s="5" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="G1450" s="1"/>
-      <c r="H1450" s="1"/>
+      <c r="H1450" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="1451" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1451" s="7" t="s">
-        <v>1939</v>
+        <v>1892</v>
       </c>
       <c r="B1451" s="3" t="s">
-        <v>1913</v>
+        <v>1893</v>
       </c>
       <c r="C1451" s="3" t="s">
-        <v>1914</v>
+        <v>1894</v>
       </c>
       <c r="D1451" s="4">
-        <v>4301170011</v>
+        <v>4301040357</v>
       </c>
       <c r="E1451" s="3">
-        <v>4680115884113</v>
+        <v>4680115884564</v>
       </c>
       <c r="F1451" s="5" t="s">
-        <v>1915</v>
+        <v>1892</v>
       </c>
       <c r="G1451" s="1"/>
-      <c r="H1451" s="1"/>
+      <c r="H1451" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="1452" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1452" s="7" t="s">
-        <v>1912</v>
+        <v>1895</v>
       </c>
       <c r="B1452" s="3" t="s">
-        <v>1913</v>
+        <v>1896</v>
       </c>
       <c r="C1452" s="3" t="s">
-        <v>1914</v>
+        <v>1897</v>
       </c>
       <c r="D1452" s="4">
-        <v>4301170011</v>
+        <v>4301040358</v>
       </c>
       <c r="E1452" s="3">
-        <v>4680115884113</v>
+        <v>4680115884571</v>
       </c>
       <c r="F1452" s="5" t="s">
-        <v>1915</v>
+        <v>1895</v>
       </c>
       <c r="G1452" s="1"/>
       <c r="H1452" s="1"/>
     </row>
     <row r="1453" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1453" s="7" t="s">
-        <v>1917</v>
+        <v>1939</v>
       </c>
       <c r="B1453" s="3" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="C1453" s="3" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="D1453" s="4">
-        <v>4301051277</v>
+        <v>4301170011</v>
       </c>
       <c r="E1453" s="3">
-        <v>4680115880511</v>
+        <v>4680115884113</v>
       </c>
       <c r="F1453" s="5" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="G1453" s="1"/>
       <c r="H1453" s="1"/>
     </row>
     <row r="1454" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1454" s="7" t="s">
-        <v>1947</v>
+        <v>1912</v>
       </c>
       <c r="B1454" s="3" t="s">
-        <v>1948</v>
+        <v>1913</v>
       </c>
       <c r="C1454" s="3" t="s">
-        <v>1949</v>
+        <v>1914</v>
       </c>
       <c r="D1454" s="4">
-        <v>4301051344</v>
+        <v>4301170011</v>
       </c>
       <c r="E1454" s="3">
-        <v>4680115880412</v>
+        <v>4680115884113</v>
       </c>
       <c r="F1454" s="5" t="s">
-        <v>1950</v>
+        <v>1915</v>
       </c>
       <c r="G1454" s="1"/>
       <c r="H1454" s="1"/>
     </row>
     <row r="1455" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1455" s="7" t="s">
-        <v>1978</v>
+        <v>1917</v>
       </c>
       <c r="B1455" s="3" t="s">
-        <v>1979</v>
+        <v>1918</v>
       </c>
       <c r="C1455" s="3" t="s">
-        <v>1980</v>
+        <v>1919</v>
       </c>
       <c r="D1455" s="4">
-        <v>4301031164</v>
+        <v>4301051277</v>
       </c>
       <c r="E1455" s="3">
-        <v>4680115880481</v>
+        <v>4680115880511</v>
       </c>
       <c r="F1455" s="5" t="s">
-        <v>1981</v>
+        <v>1920</v>
       </c>
       <c r="G1455" s="1"/>
       <c r="H1455" s="1"/>
     </row>
     <row r="1456" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1456" s="7" t="s">
-        <v>2045</v>
+        <v>1947</v>
       </c>
       <c r="B1456" s="3" t="s">
-        <v>1998</v>
+        <v>1948</v>
       </c>
       <c r="C1456" s="3" t="s">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="D1456" s="4">
-        <v>4301011722</v>
+        <v>4301051344</v>
       </c>
       <c r="E1456" s="3">
-        <v>4680115884205</v>
+        <v>4680115880412</v>
       </c>
       <c r="F1456" s="5" t="s">
-        <v>1997</v>
+        <v>1950</v>
       </c>
       <c r="G1456" s="1"/>
       <c r="H1456" s="1"/>
     </row>
     <row r="1457" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1457" s="7" t="s">
-        <v>1997</v>
+        <v>1978</v>
       </c>
       <c r="B1457" s="3" t="s">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="C1457" s="3" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="D1457" s="4">
-        <v>4301011722</v>
+        <v>4301031164</v>
       </c>
       <c r="E1457" s="3">
-        <v>4680115884205</v>
+        <v>4680115880481</v>
       </c>
       <c r="F1457" s="5" t="s">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="G1457" s="1"/>
       <c r="H1457" s="1"/>
     </row>
     <row r="1458" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1458" s="7" t="s">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="B1458" s="3" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C1458" s="3" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D1458" s="4">
-        <v>4301011824</v>
+        <v>4301011722</v>
       </c>
       <c r="E1458" s="3">
-        <v>4680115884144</v>
+        <v>4680115884205</v>
       </c>
       <c r="F1458" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="G1458" s="1"/>
       <c r="H1458" s="1"/>
     </row>
     <row r="1459" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1459" s="7" t="s">
-        <v>2095</v>
+        <v>1997</v>
       </c>
       <c r="B1459" s="3" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C1459" s="3" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D1459" s="4">
-        <v>4301011824</v>
+        <v>4301011722</v>
       </c>
       <c r="E1459" s="3">
-        <v>4680115884144</v>
+        <v>4680115884205</v>
       </c>
       <c r="F1459" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="G1459" s="1"/>
       <c r="H1459" s="1"/>
     </row>
     <row r="1460" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1460" s="7" t="s">
-        <v>2000</v>
+        <v>2059</v>
       </c>
       <c r="B1460" s="3" t="s">
         <v>2001</v>
@@ -50594,514 +50627,506 @@
     </row>
     <row r="1461" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1461" s="7" t="s">
-        <v>2058</v>
+        <v>2095</v>
       </c>
       <c r="B1461" s="3" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C1461" s="3" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D1461" s="4">
-        <v>4301011726</v>
+        <v>4301011824</v>
       </c>
       <c r="E1461" s="3">
-        <v>4680115884182</v>
+        <v>4680115884144</v>
       </c>
       <c r="F1461" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G1461" s="1"/>
       <c r="H1461" s="1"/>
     </row>
     <row r="1462" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1462" s="7" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B1462" s="3" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C1462" s="3" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D1462" s="4">
-        <v>4301011726</v>
+        <v>4301011824</v>
       </c>
       <c r="E1462" s="3">
-        <v>4680115884182</v>
+        <v>4680115884144</v>
       </c>
       <c r="F1462" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G1462" s="1"/>
       <c r="H1462" s="1"/>
     </row>
     <row r="1463" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1463" s="7" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="B1463" s="3" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C1463" s="3" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D1463" s="4">
-        <v>4301011721</v>
+        <v>4301011726</v>
       </c>
       <c r="E1463" s="3">
-        <v>4680115884175</v>
+        <v>4680115884182</v>
       </c>
       <c r="F1463" s="5" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="G1463" s="1"/>
       <c r="H1463" s="1"/>
     </row>
     <row r="1464" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1464" s="7" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B1464" s="3" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C1464" s="3" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D1464" s="4">
-        <v>4301011721</v>
+        <v>4301011726</v>
       </c>
       <c r="E1464" s="3">
-        <v>4680115884175</v>
+        <v>4680115884182</v>
       </c>
       <c r="F1464" s="5" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="G1464" s="1"/>
       <c r="H1464" s="1"/>
     </row>
     <row r="1465" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1465" s="7" t="s">
-        <v>2065</v>
+        <v>2070</v>
       </c>
       <c r="B1465" s="3" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C1465" s="3" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D1465" s="4">
-        <v>4301011826</v>
+        <v>4301011721</v>
       </c>
       <c r="E1465" s="3">
-        <v>4680115884137</v>
+        <v>4680115884175</v>
       </c>
       <c r="F1465" s="5" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G1465" s="1"/>
       <c r="H1465" s="1"/>
     </row>
     <row r="1466" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1466" s="7" t="s">
-        <v>2122</v>
+        <v>2166</v>
       </c>
       <c r="B1466" s="3" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C1466" s="3" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D1466" s="4">
-        <v>4301011826</v>
+        <v>4301011721</v>
       </c>
       <c r="E1466" s="3">
-        <v>4680115884137</v>
+        <v>4680115884175</v>
       </c>
       <c r="F1466" s="5" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G1466" s="1"/>
       <c r="H1466" s="1"/>
     </row>
     <row r="1467" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1467" s="7" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B1467" s="3" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C1467" s="3" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D1467" s="4">
-        <v>4301011826</v>
+        <v>4301011721</v>
       </c>
       <c r="E1467" s="3">
-        <v>4680115884137</v>
+        <v>4680115884175</v>
       </c>
       <c r="F1467" s="5" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G1467" s="1"/>
       <c r="H1467" s="1"/>
     </row>
     <row r="1468" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1468" s="7" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="B1468" s="3" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C1468" s="3" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D1468" s="4">
-        <v>4301011724</v>
+        <v>4301011826</v>
       </c>
       <c r="E1468" s="3">
-        <v>4680115884236</v>
+        <v>4680115884137</v>
       </c>
       <c r="F1468" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G1468" s="1"/>
       <c r="H1468" s="1"/>
     </row>
     <row r="1469" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1469" s="7" t="s">
-        <v>2012</v>
+        <v>2122</v>
       </c>
       <c r="B1469" s="3" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C1469" s="3" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D1469" s="4">
-        <v>4301011724</v>
+        <v>4301011826</v>
       </c>
       <c r="E1469" s="3">
-        <v>4680115884236</v>
+        <v>4680115884137</v>
       </c>
       <c r="F1469" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G1469" s="1"/>
       <c r="H1469" s="1"/>
     </row>
     <row r="1470" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1470" s="7" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="B1470" s="3" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C1470" s="3" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D1470" s="4">
-        <v>4301011717</v>
+        <v>4301011826</v>
       </c>
       <c r="E1470" s="3">
-        <v>4680115884274</v>
+        <v>4680115884137</v>
       </c>
       <c r="F1470" s="5" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="G1470" s="1"/>
       <c r="H1470" s="1"/>
     </row>
     <row r="1471" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1471" s="7" t="s">
-        <v>2049</v>
+        <v>2071</v>
       </c>
       <c r="B1471" s="3" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C1471" s="3" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D1471" s="4">
-        <v>4301011733</v>
+        <v>4301011724</v>
       </c>
       <c r="E1471" s="3">
-        <v>4680115884250</v>
+        <v>4680115884236</v>
       </c>
       <c r="F1471" s="5" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="G1471" s="1"/>
       <c r="H1471" s="1"/>
     </row>
     <row r="1472" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1472" s="7" t="s">
-        <v>2061</v>
+        <v>2167</v>
       </c>
       <c r="B1472" s="3" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C1472" s="3" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D1472" s="4">
-        <v>4301011733</v>
+        <v>4301011724</v>
       </c>
       <c r="E1472" s="3">
-        <v>4680115884250</v>
+        <v>4680115884236</v>
       </c>
       <c r="F1472" s="5" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="G1472" s="1"/>
       <c r="H1472" s="1"/>
     </row>
     <row r="1473" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1473" s="7" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B1473" s="3" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C1473" s="3" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D1473" s="4">
-        <v>4301011733</v>
+        <v>4301011724</v>
       </c>
       <c r="E1473" s="3">
-        <v>4680115884250</v>
+        <v>4680115884236</v>
       </c>
       <c r="F1473" s="5" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="G1473" s="1"/>
       <c r="H1473" s="1"/>
     </row>
     <row r="1474" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1474" s="7" t="s">
-        <v>2060</v>
+        <v>2015</v>
       </c>
       <c r="B1474" s="3" t="s">
-        <v>2038</v>
+        <v>2016</v>
       </c>
       <c r="C1474" s="3" t="s">
-        <v>2039</v>
+        <v>2017</v>
       </c>
       <c r="D1474" s="4">
-        <v>4301060359</v>
+        <v>4301011717</v>
       </c>
       <c r="E1474" s="3">
-        <v>4680115884434</v>
+        <v>4680115884274</v>
       </c>
       <c r="F1474" s="5" t="s">
-        <v>2037</v>
+        <v>2015</v>
       </c>
       <c r="G1474" s="1"/>
       <c r="H1474" s="1"/>
     </row>
     <row r="1475" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1475" s="7" t="s">
-        <v>2037</v>
+        <v>2049</v>
       </c>
       <c r="B1475" s="3" t="s">
-        <v>2038</v>
+        <v>2019</v>
       </c>
       <c r="C1475" s="3" t="s">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="D1475" s="4">
-        <v>4301060359</v>
+        <v>4301011733</v>
       </c>
       <c r="E1475" s="3">
-        <v>4680115884434</v>
+        <v>4680115884250</v>
       </c>
       <c r="F1475" s="5" t="s">
-        <v>2037</v>
+        <v>2018</v>
       </c>
       <c r="G1475" s="1"/>
       <c r="H1475" s="1"/>
     </row>
     <row r="1476" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1476" s="7" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B1476" s="3" t="s">
-        <v>2063</v>
+        <v>2019</v>
       </c>
       <c r="C1476" s="3" t="s">
-        <v>2064</v>
+        <v>2020</v>
       </c>
       <c r="D1476" s="4">
-        <v>4301011716</v>
+        <v>4301011733</v>
       </c>
       <c r="E1476" s="3">
-        <v>4680115884267</v>
+        <v>4680115884250</v>
       </c>
       <c r="F1476" s="5" t="s">
-        <v>2062</v>
+        <v>2018</v>
       </c>
       <c r="G1476" s="1"/>
       <c r="H1476" s="1"/>
     </row>
     <row r="1477" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1477" s="7" t="s">
-        <v>2078</v>
+        <v>2018</v>
       </c>
       <c r="B1477" s="3" t="s">
-        <v>2063</v>
+        <v>2019</v>
       </c>
       <c r="C1477" s="3" t="s">
-        <v>2064</v>
+        <v>2020</v>
       </c>
       <c r="D1477" s="4">
-        <v>4301011716</v>
+        <v>4301011733</v>
       </c>
       <c r="E1477" s="3">
-        <v>4680115884267</v>
+        <v>4680115884250</v>
       </c>
       <c r="F1477" s="5" t="s">
-        <v>2062</v>
+        <v>2018</v>
       </c>
       <c r="G1477" s="1"/>
       <c r="H1477" s="1"/>
     </row>
     <row r="1478" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1478" s="7" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B1478" s="3" t="s">
-        <v>2063</v>
+        <v>2038</v>
       </c>
       <c r="C1478" s="3" t="s">
-        <v>2064</v>
+        <v>2039</v>
       </c>
       <c r="D1478" s="4">
-        <v>4301011716</v>
+        <v>4301060359</v>
       </c>
       <c r="E1478" s="3">
-        <v>4680115884267</v>
+        <v>4680115884434</v>
       </c>
       <c r="F1478" s="5" t="s">
-        <v>2062</v>
+        <v>2037</v>
       </c>
       <c r="G1478" s="1"/>
       <c r="H1478" s="1"/>
     </row>
-    <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1479" s="7" t="s">
-        <v>2147</v>
+        <v>2037</v>
       </c>
       <c r="B1479" s="3" t="s">
-        <v>2124</v>
+        <v>2038</v>
       </c>
       <c r="C1479" s="3" t="s">
-        <v>2125</v>
+        <v>2039</v>
       </c>
       <c r="D1479" s="4">
-        <v>4301051693</v>
+        <v>4301060359</v>
       </c>
       <c r="E1479" s="3">
-        <v>4680115884915</v>
+        <v>4680115884434</v>
       </c>
       <c r="F1479" s="5" t="s">
-        <v>2126</v>
+        <v>2037</v>
       </c>
       <c r="G1479" s="1"/>
-      <c r="H1479" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1479" s="1"/>
+    </row>
+    <row r="1480" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1480" s="7" t="s">
-        <v>2151</v>
+        <v>2066</v>
       </c>
       <c r="B1480" s="3" t="s">
-        <v>2124</v>
+        <v>2063</v>
       </c>
       <c r="C1480" s="3" t="s">
-        <v>2125</v>
+        <v>2064</v>
       </c>
       <c r="D1480" s="4">
-        <v>4301051693</v>
+        <v>4301011716</v>
       </c>
       <c r="E1480" s="3">
-        <v>4680115884915</v>
+        <v>4680115884267</v>
       </c>
       <c r="F1480" s="5" t="s">
-        <v>2126</v>
+        <v>2062</v>
       </c>
       <c r="G1480" s="1"/>
-      <c r="H1480" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1480" s="1"/>
+    </row>
+    <row r="1481" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1481" s="7" t="s">
-        <v>2123</v>
+        <v>2078</v>
       </c>
       <c r="B1481" s="3" t="s">
-        <v>2124</v>
+        <v>2063</v>
       </c>
       <c r="C1481" s="3" t="s">
-        <v>2125</v>
+        <v>2064</v>
       </c>
       <c r="D1481" s="4">
-        <v>4301051693</v>
+        <v>4301011716</v>
       </c>
       <c r="E1481" s="3">
-        <v>4680115884915</v>
+        <v>4680115884267</v>
       </c>
       <c r="F1481" s="5" t="s">
-        <v>2126</v>
+        <v>2062</v>
       </c>
       <c r="G1481" s="1"/>
-      <c r="H1481" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1481" s="1"/>
+    </row>
+    <row r="1482" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1482" s="7" t="s">
-        <v>2148</v>
+        <v>2062</v>
       </c>
       <c r="B1482" s="3" t="s">
-        <v>2128</v>
+        <v>2063</v>
       </c>
       <c r="C1482" s="3" t="s">
-        <v>2129</v>
+        <v>2064</v>
       </c>
       <c r="D1482" s="4">
-        <v>4301051395</v>
+        <v>4301011716</v>
       </c>
       <c r="E1482" s="3">
-        <v>4680115884311</v>
+        <v>4680115884267</v>
       </c>
       <c r="F1482" s="5" t="s">
-        <v>2130</v>
+        <v>2062</v>
       </c>
       <c r="G1482" s="1"/>
-      <c r="H1482" s="1">
-        <v>30</v>
-      </c>
+      <c r="H1482" s="1"/>
     </row>
     <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1483" s="7" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="B1483" s="3" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="C1483" s="3" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D1483" s="4">
-        <v>4301051395</v>
+        <v>4301051693</v>
       </c>
       <c r="E1483" s="3">
-        <v>4680115884311</v>
+        <v>4680115884915</v>
       </c>
       <c r="F1483" s="5" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="G1483" s="1"/>
       <c r="H1483" s="1">
@@ -51110,136 +51135,244 @@
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1484" s="7" t="s">
-        <v>2127</v>
+        <v>2151</v>
       </c>
       <c r="B1484" s="3" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="C1484" s="3" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D1484" s="4">
-        <v>4301051395</v>
+        <v>4301051693</v>
       </c>
       <c r="E1484" s="3">
-        <v>4680115884311</v>
+        <v>4680115884915</v>
       </c>
       <c r="F1484" s="5" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="G1484" s="1"/>
       <c r="H1484" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="1485" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1485" s="7" t="s">
-        <v>2153</v>
+        <v>2123</v>
       </c>
       <c r="B1485" s="3" t="s">
-        <v>2154</v>
+        <v>2124</v>
       </c>
       <c r="C1485" s="3" t="s">
-        <v>2155</v>
+        <v>2125</v>
       </c>
       <c r="D1485" s="4">
-        <v>4301031291</v>
+        <v>4301051693</v>
       </c>
       <c r="E1485" s="3">
-        <v>4680115885110</v>
+        <v>4680115884915</v>
       </c>
       <c r="F1485" s="5" t="s">
-        <v>2156</v>
+        <v>2126</v>
       </c>
       <c r="G1485" s="1"/>
-      <c r="H1485" s="1"/>
-    </row>
-    <row r="1486" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H1485" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1486" s="7" t="s">
-        <v>2157</v>
+        <v>2148</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>2158</v>
+        <v>2128</v>
       </c>
       <c r="C1486" s="3" t="s">
-        <v>2159</v>
+        <v>2129</v>
       </c>
       <c r="D1486" s="4">
-        <v>4301031294</v>
+        <v>4301051395</v>
       </c>
       <c r="E1486" s="3">
-        <v>4680115885189</v>
+        <v>4680115884311</v>
       </c>
       <c r="F1486" s="5" t="s">
-        <v>2160</v>
+        <v>2130</v>
       </c>
       <c r="G1486" s="1"/>
-      <c r="H1486" s="1"/>
+      <c r="H1486" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1487" s="7" t="s">
-        <v>2161</v>
+        <v>2152</v>
       </c>
       <c r="B1487" s="3" t="s">
-        <v>2162</v>
+        <v>2128</v>
       </c>
       <c r="C1487" s="3" t="s">
-        <v>2163</v>
+        <v>2129</v>
       </c>
       <c r="D1487" s="4">
-        <v>4301031293</v>
+        <v>4301051395</v>
       </c>
       <c r="E1487" s="3">
-        <v>4680115885172</v>
+        <v>4680115884311</v>
       </c>
       <c r="F1487" s="5" t="s">
-        <v>2164</v>
+        <v>2130</v>
       </c>
       <c r="G1487" s="1"/>
-      <c r="H1487" s="1"/>
+      <c r="H1487" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="1488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1488" s="7"/>
-      <c r="B1488" s="3"/>
-      <c r="C1488" s="3"/>
-      <c r="D1488" s="4"/>
-      <c r="E1488" s="3"/>
-      <c r="F1488" s="5"/>
+      <c r="A1488" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1488" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1488" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D1488" s="4">
+        <v>4301051395</v>
+      </c>
+      <c r="E1488" s="3">
+        <v>4680115884311</v>
+      </c>
+      <c r="F1488" s="5" t="s">
+        <v>2130</v>
+      </c>
       <c r="G1488" s="1"/>
-      <c r="H1488" s="1"/>
-    </row>
-    <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1489" s="7"/>
-      <c r="B1489" s="3"/>
-      <c r="C1489" s="3"/>
-      <c r="D1489" s="4"/>
-      <c r="E1489" s="3"/>
-      <c r="F1489" s="5"/>
+      <c r="H1488" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1489" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1489" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1489" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1489" s="4">
+        <v>4301031291</v>
+      </c>
+      <c r="E1489" s="3">
+        <v>4680115885110</v>
+      </c>
+      <c r="F1489" s="5" t="s">
+        <v>2156</v>
+      </c>
       <c r="G1489" s="1"/>
       <c r="H1489" s="1"/>
     </row>
-    <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1490" s="7"/>
-      <c r="B1490" s="3"/>
-      <c r="C1490" s="3"/>
-      <c r="D1490" s="4"/>
-      <c r="E1490" s="3"/>
-      <c r="F1490" s="5"/>
+    <row r="1490" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1490" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1490" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1490" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1490" s="4">
+        <v>4301031294</v>
+      </c>
+      <c r="E1490" s="3">
+        <v>4680115885189</v>
+      </c>
+      <c r="F1490" s="5" t="s">
+        <v>2160</v>
+      </c>
       <c r="G1490" s="1"/>
       <c r="H1490" s="1"/>
     </row>
-    <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1491" s="7"/>
-      <c r="B1491" s="3"/>
-      <c r="C1491" s="3"/>
-      <c r="D1491" s="4"/>
-      <c r="E1491" s="3"/>
-      <c r="F1491" s="5"/>
+    <row r="1491" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1491" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1491" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1491" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1491" s="4">
+        <v>4301031293</v>
+      </c>
+      <c r="E1491" s="3">
+        <v>4680115885172</v>
+      </c>
+      <c r="F1491" s="5" t="s">
+        <v>2164</v>
+      </c>
       <c r="G1491" s="1"/>
       <c r="H1491" s="1"/>
     </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1492" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1492" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1492" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D1492" s="4">
+        <v>4301051738</v>
+      </c>
+      <c r="E1492" s="3">
+        <v>4680115884533</v>
+      </c>
+      <c r="F1492" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1492" s="1"/>
+      <c r="H1492" s="1"/>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1493" s="7"/>
+      <c r="B1493" s="3"/>
+      <c r="C1493" s="3"/>
+      <c r="D1493" s="4"/>
+      <c r="E1493" s="3"/>
+      <c r="F1493" s="5"/>
+      <c r="G1493" s="1"/>
+      <c r="H1493" s="1"/>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1494" s="7"/>
+      <c r="B1494" s="3"/>
+      <c r="C1494" s="3"/>
+      <c r="D1494" s="4"/>
+      <c r="E1494" s="3"/>
+      <c r="F1494" s="5"/>
+      <c r="G1494" s="1"/>
+      <c r="H1494" s="1"/>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1495" s="7"/>
+      <c r="B1495" s="3"/>
+      <c r="C1495" s="3"/>
+      <c r="D1495" s="4"/>
+      <c r="E1495" s="3"/>
+      <c r="F1495" s="5"/>
+      <c r="G1495" s="1"/>
+      <c r="H1495" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1484" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
+  <autoFilter ref="A1:H1492" xr:uid="{D8C10FD2-F8B1-48EA-88E5-9BE9A0BC988C}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
